--- a/results/SupplementaryTable3.xlsx
+++ b/results/SupplementaryTable3.xlsx
@@ -9,18 +9,15 @@
     <sheet name="CCLE_drug_improv_ranger" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="CCLE_drug_improv_glmnet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="CCLE_drug_improv_svmRadial" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PDX_drug_improv_ranger" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="PDX_drug_improv_glmnet" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="PDX_drug_improv_svmRadial" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="beatAML_drug_improv_ranger" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="beatAML_drug_improv_glmnet" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="beatAML_drug_improv_svmRadial" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="beatAML_drug_improv_ranger" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="beatAML_drug_improv_glmnet" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="beatAML_drug_improv_svmRadial" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="425">
   <si>
     <t xml:space="preserve">drugName</t>
   </si>
@@ -1216,6 +1213,21 @@
     <t xml:space="preserve">A-674563</t>
   </si>
   <si>
+    <t xml:space="preserve">BARASERTIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRENOLANIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDGFR tyrosine kinase receptor inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOVITINIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGFR inhibitor, FGFR inhibitor, FLT3 inhibitor, PDGFR tyrosine kinase receptor inhibitor, VEGFR inhibitor</t>
+  </si>
+  <si>
     <t xml:space="preserve">GDC-0879</t>
   </si>
   <si>
@@ -1228,9 +1240,21 @@
     <t xml:space="preserve">Abl kinase inhibitor, Aurora kinase inhibitor, FLT3 inhibitor</t>
   </si>
   <si>
+    <t xml:space="preserve">LENVATINIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFR inhibitor, KIT inhibitor, PDGFR tyrosine kinase receptor inhibitor, VEGFR inhibitor</t>
+  </si>
+  <si>
     <t xml:space="preserve">MLN8054</t>
   </si>
   <si>
+    <t xml:space="preserve">NERATINIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUTLIN-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHT-427</t>
   </si>
   <si>
@@ -1240,7 +1264,34 @@
     <t xml:space="preserve">PP242</t>
   </si>
   <si>
+    <t xml:space="preserve">REGORAFENIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGFR inhibitor, KIT inhibitor, PDGFR tyrosine kinase receptor inhibitor, RAF inhibitor, RET tyrosine kinase inhibitor, VEGFR inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUBOXISTAURIN</t>
+  </si>
+  <si>
     <t xml:space="preserve">SB-431542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOFACITINIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANDETANIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EGFR inhibitor, RET tyrosine kinase inhibitor, VEGFR inhibitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VATALANIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEMURAFENIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOLASERTIB</t>
   </si>
 </sst>
 </file>
@@ -15044,6 +15095,1264 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.151007662098939</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0491476986753985</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.10185996342354</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.189643291904336</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00102114821367398</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.188622143690662</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0532327424066217</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0129186204839894</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0403141219226323</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00158776019009597</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000590516105118887</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.000997244084977084</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.100273506121506</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0037649561385989</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0965085499829068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.184445741637356</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0551862323510254</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.12925950928633</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.208629801871618</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00000154479877902599</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.208628257072839</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.164888465215382</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0333729050742757</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.131515560141107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0265593307862453</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0026985908825656</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0238607399036797</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0622190501178243</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0336281370016732</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0285909131161511</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.308721093559712</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.274013151445235</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0347079421144764</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.117590448933128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0348638837238099</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0827265652093178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0557561088641646</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0468054554132081</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00895065345095649</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0730395826371218</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.00172460560960165</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0713149770275201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.23322806671512</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.21001513401715</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0232129326979698</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00169712267905913</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0209724505597974</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.0192753278807383</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.126409486033226</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00382110341231786</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.122588382620908</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.071323455250159</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0187464815528241</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0525769736973349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.299911729716722</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.347033963696094</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.0471222339793727</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.122238889935806</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0157156447934377</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.106523245142369</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.25422841787716</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.286689393032379</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.0324609751552185</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.304834079239787</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.232682938653549</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0721511405862385</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0124539652641088</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00319801347067926</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.00925595179342957</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.19160625985419</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.189307893819102</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0022983660350881</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0675738987481533</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0349385459578405</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0326353527903128</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.227030424820106</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.221077833999409</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00595259082069674</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0714103990231125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0000475714950204976</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.071362827528092</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00109673892958227</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0116971691959017</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.0106004302663195</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.113981493475352</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.104633724027353</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.00934776944799928</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0121008409945034</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0449414771310651</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.0328406361365617</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.198381298450446</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.338750449035495</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.140369150585049</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00269825825792941</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.000688404361514764</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00200985389641465</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.351974738729487</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.125831718589234</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.226143020140253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.220895821497679</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.198128484203404</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.022767337294275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0166259582499149</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00344652799589119</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0131794302540237</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0144736316519044</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000819055537642083</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0136545761142623</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0361922455883343</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0177679883855768</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0184242572027575</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0843802559757223</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0859290764617319</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.00154882048600966</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0796334532371285</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0425323727396041</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0371010804975243</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0389114965690623</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0833647372729013</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.044453240703839</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0360220183698467</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00192546525583011</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0340965531140166</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.208391364762576</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0623860219560806</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.146005342806495</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.15263709726394</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.154046306600181</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.00140920933624064</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.158498584027689</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0233889934273283</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.13510959060036</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00822315828278813</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.00369050689206584</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.00453265139072229</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0276435929675367</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00244126407888077</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0252023288886559</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.036715501745664</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0506335182912603</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0139180165455963</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0469631394860973</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00566077352487677</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0413023659612205</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.237152399152178</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.185260744306649</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.051891654845529</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.194832093372567</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.177730471160242</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0171016222123258</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.020424646502915</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0418688867047317</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.0214442402018167</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.314033527208499</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0549447081318568</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.259088819076642</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.438601664198615</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.374918304098216</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0636833601003997</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.355578534535293</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.230060398763551</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.125518135771741</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.258934233856365</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.108700782423034</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.150233451433331</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0000486952748483592</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0265203847628933</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.0264716894880449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0895745798585219</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0846210970591314</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00495348279939055</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0915393088413818</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0786061163645866</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0129331924767952</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.122924680753406</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0950099335890832</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0279147471643226</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.230781652643387</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0806569045230886</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.150124748120298</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.432658832340357</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.393316887285049</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.039341945055308</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.478600221179352</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.467846317857872</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.01075390332148</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.30651281293239</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.117027409050252</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.189485403882138</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.228917850182548</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.147105089981092</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0818127602014562</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0086558454545546</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.0245601585328617</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.0159043130783071</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.202225449453961</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.111157311904322</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0910681375496388</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.311259041469759</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0112538769508639</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.300005164518895</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.0184374068342612</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0248638100948183</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.00642640326055708</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.00259771641422612</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.00676165728161307</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-0.00416394086738695</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.011347418286178</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0857402439550315</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.0743928256688534</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.490748029829598</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0242153708797429</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.466532658949856</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0067313763442913</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0000372989577465793</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.00669407738654472</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0309218568866285</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.0245834133869718</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.00633844349965677</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.000577860244428298</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0106765734052069</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.0100987131607786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15075,6 +16384,1264 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.118467634571756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.109813204806479</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00865442976527758</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.063870449767934</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0155659234695862</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0483045262983478</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0244615234387252</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0513495876046679</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.0268880641659428</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.00632570367170254</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0358713995217539</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.0295456958500513</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0939933528578329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0512259367108612</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0427674161469717</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.153208343716054</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0274237836194532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1257845600966</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.182766473459533</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00021076470273454</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.182555708756799</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0791414880108775</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.043415914386953</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0357255736239245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0186409510643998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00116625270399215</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0174746983604076</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.061113173925837</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0517343158188459</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00937885810699112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.305621120480307</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.284820118671831</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.020801001808476</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0619535501704281</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0314726691103791</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.030480881060049</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0443285969477853</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0600467453476125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.0157181483998272</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0155234611220745</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0165923697144971</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.00106890859242259</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.157422068498945</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.236460687765892</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.0790386192669467</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0362480999591715</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0165187098732089</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0197293900859626</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.112771276199186</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0057282029570428</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.107043073242143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.064445689568837</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0279883324750931</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0364573570937439</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.39715826140315</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.389955348567666</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00720291283548324</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.231349392973402</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0312703702549312</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.20007902271847</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.319545348653343</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.296787313708548</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.022758034944795</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.279350489884788</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.233215681559357</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0461348083254313</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00638875550310147</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00978935818665739</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-0.00340060268355592</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.167749481825188</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.200621874614368</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0328723927891803</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0903873262160749</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0206649706063897</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0697223556096852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.287014508921623</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.167732609264439</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.119281899657183</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.014283578194672</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.000449574174885244</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0138340040197868</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0113260599675562</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00479714660774833</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00652891335980782</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.0553459238658027</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0919097971869695</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.0365638733211668</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.014769423742955</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0107762216917354</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.00399320205121963</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.170966527074421</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.31744790845304</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.146481381378619</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.00954185495393745</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.00254876039774886</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.00699309455618859</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.238687431019914</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.172205783827862</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0664816471920517</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.285032326869393</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.265219104640398</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0198132222289952</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.0323349051732744</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.00559807963662085</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0267368255366535</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.00615558404874919</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.000805563210330204</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00535002083841899</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.0274240190427636</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0338557801220655</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.00643176107930189</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0724871124904734</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.100513016704713</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.0280259042142399</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.130180865204761</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0464722439414302</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0837086212633313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0282240375597642</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0837889264507552</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.055564888890991</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0161570758387463</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00101957402338407</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0151375018153623</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.147368725687766</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.080540855471053</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.066827870216713</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.100532109966957</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.110934110995264</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.0104020010283068</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.101699326944264</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0207633528602628</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.0809359740840008</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.000216539129644663</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.0018597815000931</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.00164324237044844</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0120591919427464</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.000247521291013143</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0118116706517333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0630375539895562</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0437153107219797</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0193222432675765</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.0622888698832613</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00167454750194478</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0606143223813165</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.255879872036911</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.270798081459372</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.0149182094224614</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.159314653970893</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.146932029068596</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0123826249022979</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.000554593604723385</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0606902920449704</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-0.060135698440247</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.121266833963213</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.142014120928269</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-0.0207472869650554</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.375338774525088</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.438370858955689</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.0630320844306007</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.378898756118177</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.291672958561188</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0872257975569884</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.164661467199858</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.13321692922247</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0314445379773885</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0240170648764342</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0165583003628554</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.00745876451357884</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0760080417378794</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.0192442364269434</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.056763805310936</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.163427937533543</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.110317750459955</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0531101870735884</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.176381862146835</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.106069409670035</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0703124524767997</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.117489275048344</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0104116246384843</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.10707765040986</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.408325013219652</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.40745555159472</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.000869461624932122</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.468139039010223</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.521953405403235</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.0538143663930116</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.259729316024951</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1042879451248</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.155441370900151</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.15711478293982</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.164111644479149</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.00699686153932938</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.00101736085287015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.00193190211847667</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-0.000914541265606515</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.18751212875554</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.139844115566212</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0476680131893273</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.22826244257472</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0421229871921473</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.186139455382573</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.00337207387566873</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0101244682332165</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.00675239435754772</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.000407935938504065</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.000202333076064683</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.000205602862439382</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0755328114294393</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.14214154125929</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.0666087298298507</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.471612948950714</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0377001196521921</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.433912829298522</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.0285778749840689</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.00010044887698129</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0284774261070876</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0249376510517702</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.00881608070803709</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0161215703437332</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B75" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.00653991908150542</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.0183737242801605</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-0.0118338051986551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15106,37 +17673,6 @@
         <v>4</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>397</v>
@@ -15145,13 +17681,13 @@
         <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151007662098939</v>
+        <v>0.178406138411529</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0491476986753985</v>
+        <v>0.113477839670164</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10185996342354</v>
+        <v>0.0649282987413648</v>
       </c>
     </row>
     <row r="3">
@@ -15162,856 +17698,1236 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189643291904336</v>
+        <v>0.0983657556709644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00102114821367398</v>
+        <v>0.0135135831470305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.188622143690662</v>
+        <v>0.0848521725239339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0124539652641088</v>
+        <v>0.0786046294685366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00319801347067926</v>
+        <v>0.00576407031576861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00925595179342957</v>
+        <v>0.072840559152768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19160625985419</v>
+        <v>0.00412367713804435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.189307893819102</v>
+        <v>0.0000705708767544248</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0022983660350881</v>
+        <v>0.00405310626128993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>399</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.113981493475352</v>
+        <v>0.050163417165127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.104633724027353</v>
+        <v>0.0313887949525992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00934776944799928</v>
+        <v>0.0187746222125278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0121008409945034</v>
+        <v>0.0968259479457695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0449414771310651</v>
+        <v>0.0122704987442944</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0328406361365617</v>
+        <v>0.084555449201475</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>0.198381298450446</v>
+        <v>0.202304719370098</v>
       </c>
       <c r="D8" t="n">
-        <v>0.338750449035495</v>
+        <v>0.00129490988291154</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.140369150585049</v>
+        <v>0.201009809487187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0166259582499149</v>
+        <v>0.116095466192686</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00344652799589119</v>
+        <v>0.00381738468161635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0131794302540237</v>
+        <v>0.11227808151107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0144736316519044</v>
+        <v>0.0432444196248429</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000819055537642083</v>
+        <v>0.024301666659655</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0136545761142623</v>
+        <v>0.0189427529651879</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>253</v>
+        <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0389114965690623</v>
+        <v>0.10770422634129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0833647372729013</v>
+        <v>0.0171749808579162</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.044453240703839</v>
+        <v>0.0905292454833738</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>404</v>
+        <v>95</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00822315828278813</v>
+        <v>0.286798526959782</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00369050689206584</v>
+        <v>0.257402226121327</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00453265139072229</v>
+        <v>0.0293963008384551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0276435929675367</v>
+        <v>0.0949862758230929</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00244126407888077</v>
+        <v>0.00662400323588183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0252023288886559</v>
+        <v>0.088362272587211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
-        <v>0.036715501745664</v>
+        <v>0.0307838266096294</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0506335182912603</v>
+        <v>0.0100549397240841</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0139180165455963</v>
+        <v>0.0207288868855454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0469631394860973</v>
+        <v>0.0368866074137083</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00566077352487677</v>
+        <v>0.00146784684117849</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0413023659612205</v>
+        <v>0.0354187605725298</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0895745798585219</v>
+        <v>0.114153495692561</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0846210970591314</v>
+        <v>0.177126617840064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00495348279939055</v>
+        <v>-0.0629731221475034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0327682679949246</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0255498680270225</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.00721839996790211</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.12592896906994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00279300175049692</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.123135967319443</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0642177769987861</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00407267089414699</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0601451061046391</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" t="s">
+        <v>402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.215508442420084</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.353909079055099</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.138400636635015</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0939858041291551</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00188149984915239</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0921043042800027</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.174610964306708</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.272667315455595</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.098056351148887</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.193627466972741</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.218164007817576</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-0.0245365408448344</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.00403846979611616</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.00345262365926633</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.000585846136849831</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.13892517737397</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.21285428744411</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.0739291100701401</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.136420920434875</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0141163417311078</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.122304578703767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.149147271747944</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.177820661469637</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.0286733897216935</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.101403784410625</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0104997151873988</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0909040692232266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00203015883291367</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00120559472753157</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.000824564105382105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.107683355309735</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.062266998330943</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0454163569787918</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.043787112327895</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.0760181636179974</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.0322310512901024</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.196630410610635</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.295650106620188</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.0990196960095528</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.000225281021402662</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.0113909787716666</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.0111656977502639</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B34" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.356055308004183</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.0695318692295587</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.286523438774624</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.207453405135285</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.154124087835751</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0533293172995338</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.049580622428265</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.0101260996710156</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0394545227572494</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.0448910289791135</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0411045129972813</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00378651598183219</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.00136882395472881</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0185625521320875</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.0171937281773587</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.060726044315735</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0627936397534017</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.00206759543766671</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0694442056735319</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0178018081472165</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0516423975263154</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.0371735058863423</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.0448825971054157</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.00770909121907337</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0433899696191314</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.00107134360305495</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0423186260160765</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.150611131972819</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.0769080644107119</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0737030675621069</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.168249542350386</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.119975868263451</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0482736740869347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>411</v>
+      </c>
+      <c r="B45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.202668534777969</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.0527067789661126</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.149961755811857</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B46" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.00593019125041897</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.000250313565198014</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.00567987768522095</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.0832471894281095</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.00113087039776966</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0821163190303398</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>414</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0164833483896556</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.0449999325455501</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.0285165841558946</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>304</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.026183423834184</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.00213558531969403</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.02404783851449</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.0954277702549079</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.112386956390524</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.0169591861356158</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.19247915266192</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.171896710444776</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0205824422171443</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
+        <v>294</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.0514900108375282</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.0161800333410298</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0353099774964984</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>302</v>
+      </c>
+      <c r="B53" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.155747533917637</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.0633841222151266</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0923634117025103</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>307</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.26668571081362</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.315910878740245</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-0.0492251679266258</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.264743755360381</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.21172475949167</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0530189958687111</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.127545743518428</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.0351811526685177</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0923645908499098</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.020755650183909</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.0249817915886528</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-0.00422614140474371</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>418</v>
+      </c>
+      <c r="B58" t="s">
+        <v>220</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0545351208321927</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.00126326711695164</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.053271853715241</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0536966436951874</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0962093715557116</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-0.0425127278605241</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>323</v>
+      </c>
+      <c r="B60" t="s">
+        <v>279</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.181451161578705</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0926084200846242</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0888427414940809</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.209971313440348</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.0615571580029064</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.148414155437442</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" t="s">
+        <v>330</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.311611474656369</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.287162633971883</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0244488406844858</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B63" t="s">
+        <v>334</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.298336217267602</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.343044385611047</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.0447081683434453</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>339</v>
+      </c>
+      <c r="B64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.203351215782208</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.0845360393245178</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.11881517645769</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.128975257449955</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.162356041186988</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.0333807837370333</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>419</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.0522446945509352</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.000182498317482122</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0520621962334531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+      <c r="B67" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.230123597062506</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.11359634108696</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.116527255975546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" t="s">
+        <v>279</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.302565576865324</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0149086308830264</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.287656945982298</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s">
+        <v>421</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.00890059671959004</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0286090906343145</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-0.0197084939147245</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>422</v>
+      </c>
+      <c r="B70" t="s">
+        <v>241</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.00590948037573813</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.00210077302710874</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.00380870734862939</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>423</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.0144717796083829</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.125311531637275</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-0.110839752028892</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.476061198346093</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0422832074040645</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.433777990942028</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.00597676739514712</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.0400535324588764</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-0.0340767650637292</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.0521246389236816</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.000394740473347867</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0517298984503338</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
         <v>385</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B75" t="s">
         <v>239</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.000577860244428298</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0106765734052069</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.0100987131607786</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.118467634571756</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.109813204806479</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00865442976527758</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.063870449767934</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0155659234695862</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0483045262983478</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.00638875550310147</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00978935818665739</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.00340060268355592</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.167749481825188</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.200621874614368</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.0328723927891803</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0553459238658027</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0919097971869695</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.0365638733211668</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.014769423742955</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0107762216917354</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00399320205121963</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.170966527074421</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.31744790845304</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.146481381378619</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0323349051732744</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.00559807963662085</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0267368255366535</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00615558404874919</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.000805563210330204</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.00535002083841899</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0282240375597642</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0837889264507552</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.055564888890991</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.000216539129644663</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.0018597815000931</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.00164324237044844</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0120591919427464</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.000247521291013143</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0118116706517333</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0630375539895562</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0437153107219797</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.0193222432675765</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0622888698832613</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.00167454750194478</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.0606143223813165</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0760080417378794</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0192442364269434</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.056763805310936</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.00653991908150542</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0183737242801605</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.0118338051986551</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.178406138411529</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.113477839670164</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0649282987413648</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0983657556709644</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0135135831470305</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0848521725239339</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.00403846979611616</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00345262365926633</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.000585846136849831</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.13892517737397</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.21285428744411</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.0739291100701401</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>399</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.107683355309735</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.062266998330943</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0454163569787918</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.043787112327895</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0760181636179974</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.0322310512901024</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>400</v>
-      </c>
-      <c r="B8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.196630410610635</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.295650106620188</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.0990196960095528</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.049580622428265</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0101260996710156</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.0394545227572494</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0448910289791135</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0411045129972813</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.00378651598183219</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0371735058863423</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0448825971054157</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.00770909121907337</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" t="s">
-        <v>404</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00593019125041897</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.000250313565198014</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.00567987768522095</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0832471894281095</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.00113087039776966</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.0821163190303398</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0164833483896556</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.0449999325455501</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.0285165841558946</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.026183423834184</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.00213558531969403</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.02404783851449</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0545351208321927</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.00126326711695164</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.053271853715241</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>385</v>
-      </c>
-      <c r="B17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="C75" t="n">
         <v>0.00147277688045893</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D75" t="n">
         <v>0.0104683226354506</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E75" t="n">
         <v>-0.00899554575499169</v>
       </c>
     </row>

--- a/results/SupplementaryTable3.xlsx
+++ b/results/SupplementaryTable3.xlsx
@@ -1648,13 +1648,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.242353183758638</v>
+        <v>0.221905578294209</v>
       </c>
       <c r="D2" t="n">
-        <v>0.151960379851918</v>
+        <v>0.154904414745644</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0903928039067197</v>
+        <v>0.0670011635485649</v>
       </c>
     </row>
     <row r="3">
@@ -1665,13 +1665,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.381512987760139</v>
+        <v>0.361836010790182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.129250184881947</v>
+        <v>0.14577610610581</v>
       </c>
       <c r="E3" t="n">
-        <v>0.252262802878192</v>
+        <v>0.216059904684371</v>
       </c>
     </row>
     <row r="4">
@@ -1682,13 +1682,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.459351389927561</v>
+        <v>0.457656038046313</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15604867338796</v>
+        <v>0.17559041272069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.303302716539601</v>
+        <v>0.282065625325624</v>
       </c>
     </row>
     <row r="5">
@@ -1699,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205389178204181</v>
+        <v>0.204579521985936</v>
       </c>
       <c r="D5" t="n">
-        <v>0.175133837293476</v>
+        <v>0.128779941205001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0302553409107053</v>
+        <v>0.0757995807809348</v>
       </c>
     </row>
     <row r="6">
@@ -1716,13 +1716,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.053308434703963</v>
+        <v>0.054638250301329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0450700612266272</v>
+        <v>0.0467461530137823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00823837347733581</v>
+        <v>0.00789209728754667</v>
       </c>
     </row>
     <row r="7">
@@ -1733,13 +1733,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0369494888572728</v>
+        <v>0.0453655271050768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0400485912601288</v>
+        <v>0.0204697215007885</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00309910240285598</v>
+        <v>0.0248958056042883</v>
       </c>
     </row>
     <row r="8">
@@ -1750,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0612825447225053</v>
+        <v>0.0470321094357138</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220854121155642</v>
+        <v>0.0334760366693273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0391971326069411</v>
+        <v>0.0135560727663865</v>
       </c>
     </row>
     <row r="9">
@@ -1767,13 +1767,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.107714953861552</v>
+        <v>0.126072907091038</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0991316397150872</v>
+        <v>0.103076251686957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00858331414646461</v>
+        <v>0.0229966554040806</v>
       </c>
     </row>
     <row r="10">
@@ -1784,13 +1784,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0946260781335491</v>
+        <v>0.101334281201068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0749517291138446</v>
+        <v>0.0778265088157572</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0196743490197045</v>
+        <v>0.0235077723853111</v>
       </c>
     </row>
     <row r="11">
@@ -1801,13 +1801,13 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>0.232859659908847</v>
+        <v>0.221569055706362</v>
       </c>
       <c r="D11" t="n">
-        <v>0.146545933914672</v>
+        <v>0.163302158601507</v>
       </c>
       <c r="E11" t="n">
-        <v>0.086313725994175</v>
+        <v>0.0582668971048553</v>
       </c>
     </row>
     <row r="12">
@@ -1818,13 +1818,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00179934198183823</v>
+        <v>0.00257855332585583</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000258158226620228</v>
+        <v>0.000000820738473988213</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001541183755218</v>
+        <v>0.00257773258738185</v>
       </c>
     </row>
     <row r="13">
@@ -1835,13 +1835,13 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00239693599972728</v>
+        <v>0.00263434578776028</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00000907644770044658</v>
+        <v>0.000294758700379309</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00238785955202683</v>
+        <v>0.00233958708738097</v>
       </c>
     </row>
     <row r="14">
@@ -1852,13 +1852,13 @@
         <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>0.166820672948346</v>
+        <v>0.167724965064625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.122530964188729</v>
+        <v>0.136772561797712</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0442897087596176</v>
+        <v>0.0309524032669126</v>
       </c>
     </row>
     <row r="15">
@@ -1869,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0887961956789722</v>
+        <v>0.0830885052405706</v>
       </c>
       <c r="D15" t="n">
-        <v>0.057163612275262</v>
+        <v>0.0617831925819818</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0316325834037102</v>
+        <v>0.0213053126585888</v>
       </c>
     </row>
     <row r="16">
@@ -1886,13 +1886,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.193504596632525</v>
+        <v>0.197853308606232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.103843501324626</v>
+        <v>0.0912289467730499</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0896610953078993</v>
+        <v>0.106624361833182</v>
       </c>
     </row>
     <row r="17">
@@ -1903,13 +1903,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0781708750574129</v>
+        <v>0.100699862549665</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0332612843185629</v>
+        <v>0.0789811993204563</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0449095907388499</v>
+        <v>0.0217186632292092</v>
       </c>
     </row>
     <row r="18">
@@ -1920,13 +1920,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>0.182329894552083</v>
+        <v>0.176966234518553</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0399083956265772</v>
+        <v>0.052922227478534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.142421498925506</v>
+        <v>0.124044007040019</v>
       </c>
     </row>
     <row r="19">
@@ -1937,13 +1937,13 @@
         <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0516256022520638</v>
+        <v>0.034767971497297</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0407670130465461</v>
+        <v>0.0430783057253952</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0108585892055176</v>
+        <v>-0.00831033422809827</v>
       </c>
     </row>
     <row r="20">
@@ -1954,13 +1954,13 @@
         <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>0.176607149688688</v>
+        <v>0.175004130545101</v>
       </c>
       <c r="D20" t="n">
-        <v>0.117756733659177</v>
+        <v>0.113782452514262</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0588504160295104</v>
+        <v>0.0612216780308385</v>
       </c>
     </row>
     <row r="21">
@@ -1971,13 +1971,13 @@
         <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0116589263868915</v>
+        <v>0.000562894500768968</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001531647207293</v>
+        <v>0.0000606585534229491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0115057616661622</v>
+        <v>0.000502235947346018</v>
       </c>
     </row>
     <row r="22">
@@ -1988,13 +1988,13 @@
         <v>42</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00232064847733752</v>
+        <v>0.00191687810219619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00562699575752452</v>
+        <v>0.00562389932054269</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.003306347280187</v>
+        <v>-0.00370702121834649</v>
       </c>
     </row>
     <row r="23">
@@ -2005,13 +2005,13 @@
         <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>0.243255489830088</v>
+        <v>0.247583868179205</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0461234773223401</v>
+        <v>0.0436789399427359</v>
       </c>
       <c r="E23" t="n">
-        <v>0.197132012507748</v>
+        <v>0.203904928236469</v>
       </c>
     </row>
     <row r="24">
@@ -2022,13 +2022,13 @@
         <v>46</v>
       </c>
       <c r="C24" t="n">
-        <v>0.206583708679307</v>
+        <v>0.202395579391303</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0880533669759627</v>
+        <v>0.091285294645438</v>
       </c>
       <c r="E24" t="n">
-        <v>0.118530341703345</v>
+        <v>0.111110284745865</v>
       </c>
     </row>
     <row r="25">
@@ -2039,13 +2039,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.226880278833959</v>
+        <v>0.228332254125978</v>
       </c>
       <c r="D25" t="n">
-        <v>0.10884554622588</v>
+        <v>0.078474597439908</v>
       </c>
       <c r="E25" t="n">
-        <v>0.118034732608078</v>
+        <v>0.14985765668607</v>
       </c>
     </row>
     <row r="26">
@@ -2056,13 +2056,13 @@
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00321473081317588</v>
+        <v>0.00170644031731007</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00765686696827375</v>
+        <v>0.00729712392591788</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.00444213615509787</v>
+        <v>-0.00559068360860781</v>
       </c>
     </row>
     <row r="27">
@@ -2073,13 +2073,13 @@
         <v>38</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0679534191695806</v>
+        <v>0.0532417283452705</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0743632716440346</v>
+        <v>0.0813541113420902</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.00640985247445405</v>
+        <v>-0.0281123829968197</v>
       </c>
     </row>
     <row r="28">
@@ -2090,13 +2090,13 @@
         <v>52</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0612085634096501</v>
+        <v>0.0285384086217049</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0466485228466993</v>
+        <v>0.0735104530507715</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0145600405629508</v>
+        <v>-0.0449720444290666</v>
       </c>
     </row>
     <row r="29">
@@ -2107,13 +2107,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0521754781246915</v>
+        <v>0.0318878638176807</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00135306721152395</v>
+        <v>0.00695628457582287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0508224109131675</v>
+        <v>0.0249315792418578</v>
       </c>
     </row>
     <row r="30">
@@ -2124,13 +2124,13 @@
         <v>55</v>
       </c>
       <c r="C30" t="n">
-        <v>0.226891953137391</v>
+        <v>0.224103224089</v>
       </c>
       <c r="D30" t="n">
-        <v>0.128562587234367</v>
+        <v>0.128302199369918</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0983293659030244</v>
+        <v>0.0958010247190814</v>
       </c>
     </row>
     <row r="31">
@@ -2141,13 +2141,13 @@
         <v>57</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242735089326203</v>
+        <v>0.24532322454045</v>
       </c>
       <c r="D31" t="n">
-        <v>0.12882290101698</v>
+        <v>0.141134054037795</v>
       </c>
       <c r="E31" t="n">
-        <v>0.113912188309223</v>
+        <v>0.104189170502655</v>
       </c>
     </row>
     <row r="32">
@@ -2158,13 +2158,13 @@
         <v>59</v>
       </c>
       <c r="C32" t="n">
-        <v>0.114759740229154</v>
+        <v>0.112827747505076</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0681659756756355</v>
+        <v>0.0626115698388713</v>
       </c>
       <c r="E32" t="n">
-        <v>0.046593764553518</v>
+        <v>0.050216177666205</v>
       </c>
     </row>
     <row r="33">
@@ -2175,13 +2175,13 @@
         <v>21</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000636116307840324</v>
+        <v>0.00264079163185766</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00645485662797768</v>
+        <v>0.00255090032950422</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.00581874032013735</v>
+        <v>0.0000898913023534339</v>
       </c>
     </row>
     <row r="34">
@@ -2192,13 +2192,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>0.162476313809285</v>
+        <v>0.174149270348984</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0725916773986297</v>
+        <v>0.0647635366040706</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0898846364106555</v>
+        <v>0.109385733744914</v>
       </c>
     </row>
     <row r="35">
@@ -2209,13 +2209,13 @@
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>0.125305512036634</v>
+        <v>0.126258313940696</v>
       </c>
       <c r="D35" t="n">
-        <v>0.124465136223107</v>
+        <v>0.0751691464648592</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000840375813526972</v>
+        <v>0.051089167475837</v>
       </c>
     </row>
     <row r="36">
@@ -2226,13 +2226,13 @@
         <v>65</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0878276482573314</v>
+        <v>0.0857043987100292</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0949358170722728</v>
+        <v>0.0938292681976314</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.00710816881494136</v>
+        <v>-0.0081248694876022</v>
       </c>
     </row>
     <row r="37">
@@ -2243,13 +2243,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.162620057290756</v>
+        <v>0.184669478958768</v>
       </c>
       <c r="D37" t="n">
-        <v>0.108182306332014</v>
+        <v>0.103106146735043</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0544377509587422</v>
+        <v>0.081563332223725</v>
       </c>
     </row>
     <row r="38">
@@ -2260,13 +2260,13 @@
         <v>68</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0901870038781003</v>
+        <v>0.0552387366063001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0182491889980798</v>
+        <v>0.0197017775273833</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0719378148800205</v>
+        <v>0.0355369590789168</v>
       </c>
     </row>
     <row r="39">
@@ -2277,13 +2277,13 @@
         <v>70</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0225905657360038</v>
+        <v>0.0282093297884251</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0457052225164047</v>
+        <v>0.0545155560190196</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.0231146567804009</v>
+        <v>-0.0263062262305945</v>
       </c>
     </row>
     <row r="40">
@@ -2294,13 +2294,13 @@
         <v>72</v>
       </c>
       <c r="C40" t="n">
-        <v>0.049648602237954</v>
+        <v>0.048314588165963</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0905777290071284</v>
+        <v>0.0945090360811314</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0409291267691744</v>
+        <v>-0.0461944479151685</v>
       </c>
     </row>
     <row r="41">
@@ -2311,13 +2311,13 @@
         <v>74</v>
       </c>
       <c r="C41" t="n">
-        <v>0.00366331195123728</v>
+        <v>0.0288972642024651</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0242641970739667</v>
+        <v>0.00700240381784063</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.0206008851227294</v>
+        <v>0.0218948603846244</v>
       </c>
     </row>
     <row r="42">
@@ -2328,13 +2328,13 @@
         <v>76</v>
       </c>
       <c r="C42" t="n">
-        <v>0.141888367747685</v>
+        <v>0.131628483739195</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0476746720550978</v>
+        <v>0.0563072974215077</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0942136956925876</v>
+        <v>0.0753211863176871</v>
       </c>
     </row>
     <row r="43">
@@ -2345,13 +2345,13 @@
         <v>78</v>
       </c>
       <c r="C43" t="n">
-        <v>0.189987228584916</v>
+        <v>0.144733747600171</v>
       </c>
       <c r="D43" t="n">
-        <v>0.078474252372725</v>
+        <v>0.0782424379485072</v>
       </c>
       <c r="E43" t="n">
-        <v>0.111512976212191</v>
+        <v>0.0664913096516642</v>
       </c>
     </row>
     <row r="44">
@@ -2362,13 +2362,13 @@
         <v>80</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0397332467462195</v>
+        <v>0.0317003194456034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.029441459447102</v>
+        <v>0.0303887270952916</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0102917872991175</v>
+        <v>0.00131159235031176</v>
       </c>
     </row>
     <row r="45">
@@ -2379,13 +2379,13 @@
         <v>80</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0434377649807729</v>
+        <v>0.0451958544086065</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0225726669606468</v>
+        <v>0.0423085219696532</v>
       </c>
       <c r="E45" t="n">
-        <v>0.020865098020126</v>
+        <v>0.00288733243895333</v>
       </c>
     </row>
     <row r="46">
@@ -2396,13 +2396,13 @@
         <v>83</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0917353405077761</v>
+        <v>0.073234684653041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0458357119050159</v>
+        <v>0.0467843456159201</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0458996286027602</v>
+        <v>0.0264503390371209</v>
       </c>
     </row>
     <row r="47">
@@ -2413,13 +2413,13 @@
         <v>85</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0646826568766752</v>
+        <v>0.0691274126360949</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00786788972717553</v>
+        <v>0.00860617571204591</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0568147671494997</v>
+        <v>0.060521236924049</v>
       </c>
     </row>
     <row r="48">
@@ -2430,13 +2430,13 @@
         <v>87</v>
       </c>
       <c r="C48" t="n">
-        <v>0.181973852390481</v>
+        <v>0.173025588384592</v>
       </c>
       <c r="D48" t="n">
-        <v>0.129848966236047</v>
+        <v>0.15415190929778</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0521248861544342</v>
+        <v>0.0188736790868123</v>
       </c>
     </row>
     <row r="49">
@@ -2447,13 +2447,13 @@
         <v>21</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0650137574957852</v>
+        <v>0.0840962955348889</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0588041700545308</v>
+        <v>0.0650352571918995</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00620958744125439</v>
+        <v>0.0190610383429894</v>
       </c>
     </row>
     <row r="50">
@@ -2464,13 +2464,13 @@
         <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>0.062340165790487</v>
+        <v>0.0720695721644447</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0436280159139996</v>
+        <v>0.0448347832108234</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0187121498764874</v>
+        <v>0.0272347889536212</v>
       </c>
     </row>
     <row r="51">
@@ -2481,13 +2481,13 @@
         <v>78</v>
       </c>
       <c r="C51" t="n">
-        <v>0.136406158962274</v>
+        <v>0.201412056985334</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0723980982308828</v>
+        <v>0.0764492559785644</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0640080607313916</v>
+        <v>0.12496280100677</v>
       </c>
     </row>
     <row r="52">
@@ -2498,13 +2498,13 @@
         <v>93</v>
       </c>
       <c r="C52" t="n">
-        <v>0.339087432439586</v>
+        <v>0.33510272073801</v>
       </c>
       <c r="D52" t="n">
-        <v>0.179261966609565</v>
+        <v>0.178046719318695</v>
       </c>
       <c r="E52" t="n">
-        <v>0.159825465830021</v>
+        <v>0.157056001419315</v>
       </c>
     </row>
     <row r="53">
@@ -2515,13 +2515,13 @@
         <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>0.280184167466575</v>
+        <v>0.304349745585414</v>
       </c>
       <c r="D53" t="n">
-        <v>0.333684557715778</v>
+        <v>0.327068192170832</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0535003902492033</v>
+        <v>-0.0227184465854184</v>
       </c>
     </row>
     <row r="54">
@@ -2532,13 +2532,13 @@
         <v>97</v>
       </c>
       <c r="C54" t="n">
-        <v>0.305874700038747</v>
+        <v>0.305652344779785</v>
       </c>
       <c r="D54" t="n">
-        <v>0.237347348438447</v>
+        <v>0.246274591258328</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0685273516002999</v>
+        <v>0.0593777535214576</v>
       </c>
     </row>
     <row r="55">
@@ -2549,13 +2549,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0492595784777785</v>
+        <v>0.0695865397707645</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0656529445704517</v>
+        <v>0.0572693017130013</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0163933660926732</v>
+        <v>0.0123172380577632</v>
       </c>
     </row>
     <row r="56">
@@ -2566,13 +2566,13 @@
         <v>100</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0462097793407355</v>
+        <v>0.0651677007071142</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0243832809596313</v>
+        <v>0.0312887532614157</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0218264983811041</v>
+        <v>0.0338789474456984</v>
       </c>
     </row>
     <row r="57">
@@ -2583,13 +2583,13 @@
         <v>102</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0819651227885854</v>
+        <v>0.103281206313994</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0338406406872102</v>
+        <v>0.051531088690305</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0481244821013752</v>
+        <v>0.0517501176236891</v>
       </c>
     </row>
     <row r="58">
@@ -2600,13 +2600,13 @@
         <v>104</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0300541417997</v>
+        <v>0.0244771999321648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00901070237502634</v>
+        <v>0.00879560954597712</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0210434394246737</v>
+        <v>0.0156815903861877</v>
       </c>
     </row>
     <row r="59">
@@ -2617,13 +2617,13 @@
         <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>0.202337944396048</v>
+        <v>0.187109544866078</v>
       </c>
       <c r="D59" t="n">
-        <v>0.102575860813827</v>
+        <v>0.0859491603980179</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0997620835822207</v>
+        <v>0.10116038446806</v>
       </c>
     </row>
     <row r="60">
@@ -2634,13 +2634,13 @@
         <v>107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0406274663820335</v>
+        <v>0.0186352757926031</v>
       </c>
       <c r="D60" t="n">
-        <v>0.00771043965004118</v>
+        <v>0.0150619145845932</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0329170267319923</v>
+        <v>0.00357336120800982</v>
       </c>
     </row>
     <row r="61">
@@ -2651,13 +2651,13 @@
         <v>109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0552464371655408</v>
+        <v>0.0564705227531073</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0530163373925941</v>
+        <v>0.0395494962482634</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00223009977294673</v>
+        <v>0.0169210265048438</v>
       </c>
     </row>
     <row r="62">
@@ -2668,13 +2668,13 @@
         <v>111</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0229993434639805</v>
+        <v>0.0170134522951809</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0180012581052181</v>
+        <v>0.00803588676064767</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00499808535876239</v>
+        <v>0.00897756553453327</v>
       </c>
     </row>
     <row r="63">
@@ -2685,13 +2685,13 @@
         <v>113</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0527158700995906</v>
+        <v>0.0222869267985201</v>
       </c>
       <c r="D63" t="n">
-        <v>0.00431520520902805</v>
+        <v>0.00344461464743703</v>
       </c>
       <c r="E63" t="n">
-        <v>0.0484006648905626</v>
+        <v>0.0188423121510831</v>
       </c>
     </row>
     <row r="64">
@@ -2702,13 +2702,13 @@
         <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0139930227225734</v>
+        <v>0.018933883280441</v>
       </c>
       <c r="D64" t="n">
-        <v>0.00166235374735303</v>
+        <v>0.000575504159512833</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0123306689752203</v>
+        <v>0.0183583791209282</v>
       </c>
     </row>
     <row r="65">
@@ -2719,13 +2719,13 @@
         <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>0.264538381482796</v>
+        <v>0.271684730419585</v>
       </c>
       <c r="D65" t="n">
-        <v>0.092839524898268</v>
+        <v>0.0719427462471886</v>
       </c>
       <c r="E65" t="n">
-        <v>0.171698856584528</v>
+        <v>0.199741984172396</v>
       </c>
     </row>
     <row r="66">
@@ -2736,13 +2736,13 @@
         <v>117</v>
       </c>
       <c r="C66" t="n">
-        <v>0.215538254404802</v>
+        <v>0.17530757375402</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0964644094890775</v>
+        <v>0.110659340713256</v>
       </c>
       <c r="E66" t="n">
-        <v>0.119073844915724</v>
+        <v>0.0646482330407636</v>
       </c>
     </row>
     <row r="67">
@@ -2753,13 +2753,13 @@
         <v>119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0413520840100466</v>
+        <v>0.0538708896340806</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0000435698396986041</v>
+        <v>0.000571072355446183</v>
       </c>
       <c r="E67" t="n">
-        <v>0.041308514170348</v>
+        <v>0.0532998172786344</v>
       </c>
     </row>
     <row r="68">
@@ -2770,13 +2770,13 @@
         <v>121</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0900227930988519</v>
+        <v>0.0882243561203665</v>
       </c>
       <c r="D68" t="n">
-        <v>0.054993492526959</v>
+        <v>0.0611543666908529</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0350293005718929</v>
+        <v>0.0270699894295136</v>
       </c>
     </row>
     <row r="69">
@@ -2787,13 +2787,13 @@
         <v>123</v>
       </c>
       <c r="C69" t="n">
-        <v>0.121031853476705</v>
+        <v>0.115005783893953</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0794168824997793</v>
+        <v>0.0787130670330491</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0416149709769256</v>
+        <v>0.0362927168609042</v>
       </c>
     </row>
     <row r="70">
@@ -2804,13 +2804,13 @@
         <v>21</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0318319625105232</v>
+        <v>0.0255600301126829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0154089468367908</v>
+        <v>0.0134674588515857</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0164230156737324</v>
+        <v>0.0120925712610972</v>
       </c>
     </row>
     <row r="71">
@@ -2821,13 +2821,13 @@
         <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>0.41462441519003</v>
+        <v>0.408967651151469</v>
       </c>
       <c r="D71" t="n">
-        <v>0.353160486010914</v>
+        <v>0.351500716444462</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0614639291791153</v>
+        <v>0.0574669347070076</v>
       </c>
     </row>
     <row r="72">
@@ -2838,13 +2838,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.10148627806294</v>
+        <v>0.107130761686555</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0311449766368026</v>
+        <v>0.040052585167733</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0703413014261372</v>
+        <v>0.0670781765188217</v>
       </c>
     </row>
     <row r="73">
@@ -2855,13 +2855,13 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>0.034354785419712</v>
+        <v>0.0325781265640243</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0171777673308744</v>
+        <v>0.0271691427535914</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0171770180888377</v>
+        <v>0.0054089838104329</v>
       </c>
     </row>
     <row r="74">
@@ -2872,13 +2872,13 @@
         <v>117</v>
       </c>
       <c r="C74" t="n">
-        <v>0.00437015203855837</v>
+        <v>0.00952007081027304</v>
       </c>
       <c r="D74" t="n">
-        <v>0.00848412710890599</v>
+        <v>0.00322972425688508</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.00411397507034762</v>
+        <v>0.00629034655338797</v>
       </c>
     </row>
     <row r="75">
@@ -2889,13 +2889,13 @@
         <v>130</v>
       </c>
       <c r="C75" t="n">
-        <v>0.138524643568919</v>
+        <v>0.117151923578319</v>
       </c>
       <c r="D75" t="n">
-        <v>0.113273568825048</v>
+        <v>0.105370507857235</v>
       </c>
       <c r="E75" t="n">
-        <v>0.025251074743871</v>
+        <v>0.011781415721084</v>
       </c>
     </row>
     <row r="76">
@@ -2906,13 +2906,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="n">
-        <v>0.234289217679224</v>
+        <v>0.215360557929059</v>
       </c>
       <c r="D76" t="n">
-        <v>0.147559408777439</v>
+        <v>0.157488451830813</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0867298089017854</v>
+        <v>0.0578721060982461</v>
       </c>
     </row>
     <row r="77">
@@ -2923,13 +2923,13 @@
         <v>133</v>
       </c>
       <c r="C77" t="n">
-        <v>0.291252860088126</v>
+        <v>0.275979614895556</v>
       </c>
       <c r="D77" t="n">
-        <v>0.104728566237333</v>
+        <v>0.101181641027042</v>
       </c>
       <c r="E77" t="n">
-        <v>0.186524293850793</v>
+        <v>0.174797973868513</v>
       </c>
     </row>
     <row r="78">
@@ -2940,13 +2940,13 @@
         <v>135</v>
       </c>
       <c r="C78" t="n">
-        <v>0.00438275320411456</v>
+        <v>0.00965862680039554</v>
       </c>
       <c r="D78" t="n">
-        <v>0.00898227580412352</v>
+        <v>0.00888408340277243</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.00459952260000896</v>
+        <v>0.000774543397623119</v>
       </c>
     </row>
     <row r="79">
@@ -2957,13 +2957,13 @@
         <v>97</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0961996803264465</v>
+        <v>0.104605727061793</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0684951146521752</v>
+        <v>0.0670960861586706</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0277045656742712</v>
+        <v>0.0375096409031222</v>
       </c>
     </row>
     <row r="80">
@@ -2974,13 +2974,13 @@
         <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>0.292769942382432</v>
+        <v>0.296260882535952</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0998169987717318</v>
+        <v>0.116492247523825</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1929529436107</v>
+        <v>0.179768635012128</v>
       </c>
     </row>
     <row r="81">
@@ -2991,13 +2991,13 @@
         <v>140</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0716461674411492</v>
+        <v>0.0534966510191329</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0039720227169301</v>
+        <v>0.00523530440872906</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0676741447242191</v>
+        <v>0.0482613466104039</v>
       </c>
     </row>
     <row r="82">
@@ -3008,13 +3008,13 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>0.202155198821819</v>
+        <v>0.214021732774617</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0949784497128375</v>
+        <v>0.0753629204289525</v>
       </c>
       <c r="E82" t="n">
-        <v>0.107176749108982</v>
+        <v>0.138658812345665</v>
       </c>
     </row>
     <row r="83">
@@ -3025,13 +3025,13 @@
         <v>143</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0273661093205626</v>
+        <v>0.030131433977038</v>
       </c>
       <c r="D83" t="n">
-        <v>0.014002386347373</v>
+        <v>0.00881207982516011</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0133637229731896</v>
+        <v>0.0213193541518779</v>
       </c>
     </row>
     <row r="84">
@@ -3042,13 +3042,13 @@
         <v>97</v>
       </c>
       <c r="C84" t="n">
-        <v>0.457996000365232</v>
+        <v>0.419569852578816</v>
       </c>
       <c r="D84" t="n">
-        <v>0.273829779695375</v>
+        <v>0.245582604371442</v>
       </c>
       <c r="E84" t="n">
-        <v>0.184166220669857</v>
+        <v>0.173987248207374</v>
       </c>
     </row>
     <row r="85">
@@ -3059,13 +3059,13 @@
         <v>146</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0304118120871482</v>
+        <v>0.0402849780244742</v>
       </c>
       <c r="D85" t="n">
-        <v>0.00860760006497271</v>
+        <v>0.0103855294635609</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0218042120221755</v>
+        <v>0.0298994485609133</v>
       </c>
     </row>
     <row r="86">
@@ -3076,13 +3076,13 @@
         <v>146</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0624087504047284</v>
+        <v>0.0743084543893153</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0438440376323202</v>
+        <v>0.0523944390227158</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0185647127724082</v>
+        <v>0.0219140153665994</v>
       </c>
     </row>
     <row r="87">
@@ -3093,13 +3093,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="n">
-        <v>0.322406850960333</v>
+        <v>0.129869271246512</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0754321718719209</v>
+        <v>0.0651636721875236</v>
       </c>
       <c r="E87" t="n">
-        <v>0.246974679088412</v>
+        <v>0.0647055990589883</v>
       </c>
     </row>
     <row r="88">
@@ -3110,13 +3110,13 @@
         <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0760150840323541</v>
+        <v>0.076051921916823</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0209289647750719</v>
+        <v>0.023461636468671</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0550861192572822</v>
+        <v>0.052590285448152</v>
       </c>
     </row>
     <row r="89">
@@ -3127,13 +3127,13 @@
         <v>97</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0989995079136944</v>
+        <v>0.0990482618205608</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0621118447364015</v>
+        <v>0.0650801070890021</v>
       </c>
       <c r="E89" t="n">
-        <v>0.036887663177293</v>
+        <v>0.0339681547315587</v>
       </c>
     </row>
     <row r="90">
@@ -3144,13 +3144,13 @@
         <v>152</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0000463190041099717</v>
+        <v>0.000254932688469579</v>
       </c>
       <c r="D90" t="n">
-        <v>0.000121675324537516</v>
+        <v>0.0000833618586484236</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.0000753563204275447</v>
+        <v>0.000171570829821155</v>
       </c>
     </row>
     <row r="91">
@@ -3161,13 +3161,13 @@
         <v>154</v>
       </c>
       <c r="C91" t="n">
-        <v>0.317179236637644</v>
+        <v>0.33807260546245</v>
       </c>
       <c r="D91" t="n">
-        <v>0.309986591985322</v>
+        <v>0.317781509595472</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00719264465232278</v>
+        <v>0.0202910958669775</v>
       </c>
     </row>
     <row r="92">
@@ -3178,13 +3178,13 @@
         <v>123</v>
       </c>
       <c r="C92" t="n">
-        <v>0.270578418358917</v>
+        <v>0.289680304574354</v>
       </c>
       <c r="D92" t="n">
-        <v>0.197417676094769</v>
+        <v>0.205299867827394</v>
       </c>
       <c r="E92" t="n">
-        <v>0.0731607422641478</v>
+        <v>0.0843804367469597</v>
       </c>
     </row>
     <row r="93">
@@ -3195,13 +3195,13 @@
         <v>157</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0541817913489843</v>
+        <v>0.0513519249928357</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0752922377245838</v>
+        <v>0.0768053520166848</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.0211104463755994</v>
+        <v>-0.0254534270238491</v>
       </c>
     </row>
     <row r="94">
@@ -3212,13 +3212,13 @@
         <v>90</v>
       </c>
       <c r="C94" t="n">
-        <v>0.183294779635093</v>
+        <v>0.168359065659447</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0972588274015914</v>
+        <v>0.08913836602887</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0860359522335017</v>
+        <v>0.0792206996305767</v>
       </c>
     </row>
     <row r="95">
@@ -3229,13 +3229,13 @@
         <v>160</v>
       </c>
       <c r="C95" t="n">
-        <v>0.048957039695678</v>
+        <v>0.0356777420649986</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00744012152136081</v>
+        <v>0.00752435029381913</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0415169181743172</v>
+        <v>0.0281533917711795</v>
       </c>
     </row>
     <row r="96">
@@ -3246,13 +3246,13 @@
         <v>38</v>
       </c>
       <c r="C96" t="n">
-        <v>0.055549921547002</v>
+        <v>0.0648419660727019</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0699372442677263</v>
+        <v>0.054195917349974</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.0143873227207243</v>
+        <v>0.0106460487227279</v>
       </c>
     </row>
     <row r="97">
@@ -3263,13 +3263,13 @@
         <v>163</v>
       </c>
       <c r="C97" t="n">
-        <v>0.165947178613298</v>
+        <v>0.156121757789691</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0756239055320801</v>
+        <v>0.0778358572699121</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0903232730812177</v>
+        <v>0.0782859005197789</v>
       </c>
     </row>
     <row r="98">
@@ -3280,13 +3280,13 @@
         <v>21</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0983516535493405</v>
+        <v>0.0837704716014107</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0649130479397815</v>
+        <v>0.04529220161345</v>
       </c>
       <c r="E98" t="n">
-        <v>0.033438605609559</v>
+        <v>0.0384782699879607</v>
       </c>
     </row>
     <row r="99">
@@ -3297,13 +3297,13 @@
         <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0513992735201489</v>
+        <v>0.0542690168702614</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0259437578874542</v>
+        <v>0.054311891752753</v>
       </c>
       <c r="E99" t="n">
-        <v>0.0254555156326947</v>
+        <v>-0.0000428748824915851</v>
       </c>
     </row>
     <row r="100">
@@ -3314,13 +3314,13 @@
         <v>123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0941760472903323</v>
+        <v>0.0916039045747525</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0607454707864839</v>
+        <v>0.0347919480883307</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0334305765038483</v>
+        <v>0.0568119564864217</v>
       </c>
     </row>
     <row r="101">
@@ -3331,13 +3331,13 @@
         <v>168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0173193742646269</v>
+        <v>0.000493752178255376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.00154433971171911</v>
+        <v>0.00495940751820408</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0157750345529078</v>
+        <v>-0.00446565533994871</v>
       </c>
     </row>
     <row r="102">
@@ -3348,13 +3348,13 @@
         <v>65</v>
       </c>
       <c r="C102" t="n">
-        <v>0.000549774206018005</v>
+        <v>0.00391145571324203</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0118756541364512</v>
+        <v>0.00102499492448202</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.0113258799304332</v>
+        <v>0.00288646078876001</v>
       </c>
     </row>
     <row r="103">
@@ -3365,13 +3365,13 @@
         <v>21</v>
       </c>
       <c r="C103" t="n">
-        <v>0.114144597119195</v>
+        <v>0.103191621996703</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0578914406961753</v>
+        <v>0.0571776077580866</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0562531564230194</v>
+        <v>0.0460140142386167</v>
       </c>
     </row>
     <row r="104">
@@ -3382,13 +3382,13 @@
         <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>0.350236559416653</v>
+        <v>0.295498382375568</v>
       </c>
       <c r="D104" t="n">
-        <v>0.195473195330145</v>
+        <v>0.177626755402072</v>
       </c>
       <c r="E104" t="n">
-        <v>0.154763364086509</v>
+        <v>0.117871626973496</v>
       </c>
     </row>
     <row r="105">
@@ -3399,13 +3399,13 @@
         <v>173</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0604931072883359</v>
+        <v>0.061559472632889</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0476518039613056</v>
+        <v>0.0423605842813257</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0128413033270303</v>
+        <v>0.0191988883515632</v>
       </c>
     </row>
     <row r="106">
@@ -3416,13 +3416,13 @@
         <v>38</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0723994631754387</v>
+        <v>0.0826098736182124</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0650307373408055</v>
+        <v>0.0573878703196302</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00736872583463324</v>
+        <v>0.0252220032985823</v>
       </c>
     </row>
     <row r="107">
@@ -3433,13 +3433,13 @@
         <v>176</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16930101392834</v>
+        <v>0.213569730101971</v>
       </c>
       <c r="D107" t="n">
-        <v>0.213245282147164</v>
+        <v>0.230287465687181</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.0439442682188237</v>
+        <v>-0.0167177355852103</v>
       </c>
     </row>
     <row r="108">
@@ -3450,13 +3450,13 @@
         <v>178</v>
       </c>
       <c r="C108" t="n">
-        <v>0.00385260579945176</v>
+        <v>0.00663405459771844</v>
       </c>
       <c r="D108" t="n">
-        <v>0.000114003196641327</v>
+        <v>0.00340715146104047</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00373860260281043</v>
+        <v>0.00322690313667797</v>
       </c>
     </row>
     <row r="109">
@@ -3467,13 +3467,13 @@
         <v>36</v>
       </c>
       <c r="C109" t="n">
-        <v>0.394289228148526</v>
+        <v>0.297000975115247</v>
       </c>
       <c r="D109" t="n">
-        <v>0.372956278356091</v>
+        <v>0.336646871045126</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0213329497924352</v>
+        <v>-0.0396458959298793</v>
       </c>
     </row>
     <row r="110">
@@ -3484,13 +3484,13 @@
         <v>181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0431964021023001</v>
+        <v>0.0417237980700653</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0433603241770854</v>
+        <v>0.0519184071826551</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.000163922074785348</v>
+        <v>-0.0101946091125899</v>
       </c>
     </row>
     <row r="111">
@@ -3501,13 +3501,13 @@
         <v>183</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0188252784246485</v>
+        <v>0.0193135733775092</v>
       </c>
       <c r="D111" t="n">
-        <v>0.000196635826087594</v>
+        <v>0.0106385346625963</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0186286425985609</v>
+        <v>0.00867503871491292</v>
       </c>
     </row>
     <row r="112">
@@ -3518,13 +3518,13 @@
         <v>38</v>
       </c>
       <c r="C112" t="n">
-        <v>0.13749405823152</v>
+        <v>0.117916504859968</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0713697877612269</v>
+        <v>0.0575582404061327</v>
       </c>
       <c r="E112" t="n">
-        <v>0.066124270470293</v>
+        <v>0.0603582644538351</v>
       </c>
     </row>
     <row r="113">
@@ -3535,13 +3535,13 @@
         <v>186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.000876046437124719</v>
+        <v>0.0022349542888689</v>
       </c>
       <c r="D113" t="n">
-        <v>0.00316408758267792</v>
+        <v>0.000409646909721985</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.0022880411455532</v>
+        <v>0.00182530737914692</v>
       </c>
     </row>
     <row r="114">
@@ -3552,13 +3552,13 @@
         <v>188</v>
       </c>
       <c r="C114" t="n">
-        <v>0.516608850056245</v>
+        <v>0.524720590685515</v>
       </c>
       <c r="D114" t="n">
-        <v>0.165755206537348</v>
+        <v>0.115831658001459</v>
       </c>
       <c r="E114" t="n">
-        <v>0.350853643518897</v>
+        <v>0.408888932684057</v>
       </c>
     </row>
     <row r="115">
@@ -3569,13 +3569,13 @@
         <v>188</v>
       </c>
       <c r="C115" t="n">
-        <v>0.109183387501991</v>
+        <v>0.117736951363232</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0262953385742881</v>
+        <v>0.0424845118829933</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0828880489277032</v>
+        <v>0.0752524394802383</v>
       </c>
     </row>
     <row r="116">
@@ -3586,13 +3586,13 @@
         <v>191</v>
       </c>
       <c r="C116" t="n">
-        <v>0.0252389358202625</v>
+        <v>0.0214681083975033</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0299124303866273</v>
+        <v>0.0623159698772927</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.00467349456636486</v>
+        <v>-0.0408478614797894</v>
       </c>
     </row>
     <row r="117">
@@ -3603,13 +3603,13 @@
         <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>0.118804570870689</v>
+        <v>0.115894823233882</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0601224072228188</v>
+        <v>0.054466859320256</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0586821636478705</v>
+        <v>0.0614279639136263</v>
       </c>
     </row>
     <row r="118">
@@ -3620,13 +3620,13 @@
         <v>194</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241056226572654</v>
+        <v>0.247382280152423</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0865915547662439</v>
+        <v>0.0995753975042999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15446467180641</v>
+        <v>0.147806882648123</v>
       </c>
     </row>
     <row r="119">
@@ -3637,13 +3637,13 @@
         <v>196</v>
       </c>
       <c r="C119" t="n">
-        <v>0.288848481229093</v>
+        <v>0.200376217402968</v>
       </c>
       <c r="D119" t="n">
-        <v>0.105403789212402</v>
+        <v>0.194271219033556</v>
       </c>
       <c r="E119" t="n">
-        <v>0.18344469201669</v>
+        <v>0.00610499836941142</v>
       </c>
     </row>
     <row r="120">
@@ -3654,13 +3654,13 @@
         <v>198</v>
       </c>
       <c r="C120" t="n">
-        <v>0.00192662211344704</v>
+        <v>0.00459228249715667</v>
       </c>
       <c r="D120" t="n">
-        <v>0.00000448807497020291</v>
+        <v>0.00404451728778408</v>
       </c>
       <c r="E120" t="n">
-        <v>0.00192213403847683</v>
+        <v>0.000547765209372587</v>
       </c>
     </row>
     <row r="121">
@@ -3671,13 +3671,13 @@
         <v>200</v>
       </c>
       <c r="C121" t="n">
-        <v>0.0966363587174531</v>
+        <v>0.0855862319342472</v>
       </c>
       <c r="D121" t="n">
-        <v>0.10273557781216</v>
+        <v>0.0831938871932676</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.00609921909470677</v>
+        <v>0.00239234474097953</v>
       </c>
     </row>
     <row r="122">
@@ -3688,13 +3688,13 @@
         <v>97</v>
       </c>
       <c r="C122" t="n">
-        <v>0.195866784547417</v>
+        <v>0.221569781440442</v>
       </c>
       <c r="D122" t="n">
-        <v>0.129519650418649</v>
+        <v>0.144400375815206</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0663471341287674</v>
+        <v>0.0771694056252364</v>
       </c>
     </row>
     <row r="123">
@@ -3705,13 +3705,13 @@
         <v>203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0258770535397561</v>
+        <v>0.0184516485574044</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0107718865920987</v>
+        <v>0.0088156315101021</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0151051669476575</v>
+        <v>0.00963601704730234</v>
       </c>
     </row>
     <row r="124">
@@ -3722,13 +3722,13 @@
         <v>205</v>
       </c>
       <c r="C124" t="n">
-        <v>0.00168910441325755</v>
+        <v>0.000529096231961259</v>
       </c>
       <c r="D124" t="n">
-        <v>0.000677060539084206</v>
+        <v>0.00000110166337264974</v>
       </c>
       <c r="E124" t="n">
-        <v>0.00101204387417334</v>
+        <v>0.000527994568588609</v>
       </c>
     </row>
     <row r="125">
@@ -3739,13 +3739,13 @@
         <v>12</v>
       </c>
       <c r="C125" t="n">
-        <v>0.138053510611006</v>
+        <v>0.18905392796088</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0417730889869027</v>
+        <v>0.0795211179817798</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0962804216241034</v>
+        <v>0.109532809979101</v>
       </c>
     </row>
     <row r="126">
@@ -3756,13 +3756,13 @@
         <v>52</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0214360883685861</v>
+        <v>0.00665113127880168</v>
       </c>
       <c r="D126" t="n">
-        <v>0.00604681966581402</v>
+        <v>0.0025136667104364</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0153892687027721</v>
+        <v>0.00413746456836528</v>
       </c>
     </row>
     <row r="127">
@@ -3773,13 +3773,13 @@
         <v>209</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0742019102414639</v>
+        <v>0.0695978895980551</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0130268940197539</v>
+        <v>0.0130308197883923</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0611750162217099</v>
+        <v>0.0565670698096628</v>
       </c>
     </row>
     <row r="128">
@@ -3790,13 +3790,13 @@
         <v>211</v>
       </c>
       <c r="C128" t="n">
-        <v>0.0367672925784707</v>
+        <v>0.0309168050763108</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0196233581813261</v>
+        <v>0.0110002713986572</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0171439343971447</v>
+        <v>0.0199165336776537</v>
       </c>
     </row>
     <row r="129">
@@ -3807,13 +3807,13 @@
         <v>213</v>
       </c>
       <c r="C129" t="n">
-        <v>0.170854518106455</v>
+        <v>0.161741663182048</v>
       </c>
       <c r="D129" t="n">
-        <v>0.170751475042471</v>
+        <v>0.164226643303957</v>
       </c>
       <c r="E129" t="n">
-        <v>0.000103043063983205</v>
+        <v>-0.00248498012190904</v>
       </c>
     </row>
     <row r="130">
@@ -3824,13 +3824,13 @@
         <v>191</v>
       </c>
       <c r="C130" t="n">
-        <v>0.025388441908875</v>
+        <v>0.0561530475027516</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0479285707933951</v>
+        <v>0.0342529041951752</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.0225401288845201</v>
+        <v>0.0219001433075764</v>
       </c>
     </row>
     <row r="131">
@@ -3841,13 +3841,13 @@
         <v>216</v>
       </c>
       <c r="C131" t="n">
-        <v>0.0090384924692154</v>
+        <v>0.00939110673914883</v>
       </c>
       <c r="D131" t="n">
-        <v>0.000681308915029838</v>
+        <v>0.000800577271628267</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00835718355418557</v>
+        <v>0.00859052946752056</v>
       </c>
     </row>
     <row r="132">
@@ -3858,13 +3858,13 @@
         <v>42</v>
       </c>
       <c r="C132" t="n">
-        <v>0.177833321118125</v>
+        <v>0.202112432577847</v>
       </c>
       <c r="D132" t="n">
-        <v>0.00000394153057887785</v>
+        <v>0.0000374559848692996</v>
       </c>
       <c r="E132" t="n">
-        <v>0.177829379587546</v>
+        <v>0.202074976592978</v>
       </c>
     </row>
     <row r="133">
@@ -3875,13 +3875,13 @@
         <v>80</v>
       </c>
       <c r="C133" t="n">
-        <v>0.00618044971918722</v>
+        <v>0.000994805439892811</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00331465384712571</v>
+        <v>0.00124381082617428</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00286579587206151</v>
+        <v>-0.000249005386281464</v>
       </c>
     </row>
     <row r="134">
@@ -3892,13 +3892,13 @@
         <v>220</v>
       </c>
       <c r="C134" t="n">
-        <v>0.0485086581147993</v>
+        <v>0.0554929271899775</v>
       </c>
       <c r="D134" t="n">
-        <v>0.017419901646502</v>
+        <v>0.0200531352357996</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0310887564682973</v>
+        <v>0.0354397919541778</v>
       </c>
     </row>
     <row r="135">
@@ -3909,13 +3909,13 @@
         <v>222</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21265387254988</v>
+        <v>0.217021144630988</v>
       </c>
       <c r="D135" t="n">
-        <v>0.152632204951356</v>
+        <v>0.141422934652897</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0600216675985241</v>
+        <v>0.0755982099780907</v>
       </c>
     </row>
     <row r="136">
@@ -3926,13 +3926,13 @@
         <v>224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.355092788728044</v>
+        <v>0.349159628586888</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0998857697888549</v>
+        <v>0.100322652140173</v>
       </c>
       <c r="E136" t="n">
-        <v>0.255207018939189</v>
+        <v>0.248836976446715</v>
       </c>
     </row>
     <row r="137">
@@ -3943,13 +3943,13 @@
         <v>226</v>
       </c>
       <c r="C137" t="n">
-        <v>0.017811613831638</v>
+        <v>0.0150937929536283</v>
       </c>
       <c r="D137" t="n">
-        <v>0.00489717333019504</v>
+        <v>0.0230290779026748</v>
       </c>
       <c r="E137" t="n">
-        <v>0.012914440501443</v>
+        <v>-0.00793528494904649</v>
       </c>
     </row>
     <row r="138">
@@ -3960,13 +3960,13 @@
         <v>228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0751777527984769</v>
+        <v>0.131182087615172</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0691632973184561</v>
+        <v>0.0631550480390833</v>
       </c>
       <c r="E138" t="n">
-        <v>0.00601445548002084</v>
+        <v>0.0680270395760885</v>
       </c>
     </row>
     <row r="139">
@@ -3977,13 +3977,13 @@
         <v>230</v>
       </c>
       <c r="C139" t="n">
-        <v>0.0968032303812397</v>
+        <v>0.0682629380990694</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0119347599582652</v>
+        <v>0.0147031483760072</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0848684704229745</v>
+        <v>0.0535597897230621</v>
       </c>
     </row>
     <row r="140">
@@ -3994,13 +3994,13 @@
         <v>232</v>
       </c>
       <c r="C140" t="n">
-        <v>0.120123818478373</v>
+        <v>0.124577209116814</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0856244033570125</v>
+        <v>0.0727530824806537</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0344994151213607</v>
+        <v>0.0518241266361607</v>
       </c>
     </row>
     <row r="141">
@@ -4011,13 +4011,13 @@
         <v>109</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0738095494611681</v>
+        <v>0.0733488597838843</v>
       </c>
       <c r="D141" t="n">
-        <v>0.1189625031144</v>
+        <v>0.0958284960704934</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.0451529536532316</v>
+        <v>-0.022479636286609</v>
       </c>
     </row>
     <row r="142">
@@ -4028,13 +4028,13 @@
         <v>97</v>
       </c>
       <c r="C142" t="n">
-        <v>0.391882319852924</v>
+        <v>0.376891668229244</v>
       </c>
       <c r="D142" t="n">
-        <v>0.237407579484291</v>
+        <v>0.237645143675167</v>
       </c>
       <c r="E142" t="n">
-        <v>0.154474740368633</v>
+        <v>0.139246524554077</v>
       </c>
     </row>
     <row r="143">
@@ -4045,13 +4045,13 @@
         <v>236</v>
       </c>
       <c r="C143" t="n">
-        <v>0.328309358764644</v>
+        <v>0.320163995275872</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263128467180052</v>
+        <v>0.271875882330513</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0651808915845921</v>
+        <v>0.0482881129453587</v>
       </c>
     </row>
     <row r="144">
@@ -4062,13 +4062,13 @@
         <v>38</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0340135810127403</v>
+        <v>0.0465766242834198</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0125866899439361</v>
+        <v>0.0425108683601508</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0214268910688041</v>
+        <v>0.00406575592326903</v>
       </c>
     </row>
     <row r="145">
@@ -4079,13 +4079,13 @@
         <v>239</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0299186625780982</v>
+        <v>0.035670584098715</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0134371891105454</v>
+        <v>0.0148965353933536</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0164814734675529</v>
+        <v>0.0207740487053614</v>
       </c>
     </row>
     <row r="146">
@@ -4096,13 +4096,13 @@
         <v>241</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0170148872848013</v>
+        <v>0.00224190300671005</v>
       </c>
       <c r="D146" t="n">
-        <v>0.00971863745991284</v>
+        <v>0.0139287087995545</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0072962498248885</v>
+        <v>-0.0116868057928445</v>
       </c>
     </row>
     <row r="147">
@@ -4113,13 +4113,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>0.306652205324675</v>
+        <v>0.314221662328875</v>
       </c>
       <c r="D147" t="n">
-        <v>0.173128713092406</v>
+        <v>0.160377511519655</v>
       </c>
       <c r="E147" t="n">
-        <v>0.133523492232269</v>
+        <v>0.15384415080922</v>
       </c>
     </row>
     <row r="148">
@@ -4130,13 +4130,13 @@
         <v>244</v>
       </c>
       <c r="C148" t="n">
-        <v>0.484538336636098</v>
+        <v>0.345741050437705</v>
       </c>
       <c r="D148" t="n">
-        <v>0.279075165805911</v>
+        <v>0.110620946556744</v>
       </c>
       <c r="E148" t="n">
-        <v>0.205463170830187</v>
+        <v>0.235120103880961</v>
       </c>
     </row>
     <row r="149">
@@ -4147,13 +4147,13 @@
         <v>246</v>
       </c>
       <c r="C149" t="n">
-        <v>0.437866016048118</v>
+        <v>0.389694807160017</v>
       </c>
       <c r="D149" t="n">
-        <v>0.364388615714867</v>
+        <v>0.351024759331605</v>
       </c>
       <c r="E149" t="n">
-        <v>0.0734774003332515</v>
+        <v>0.0386700478284119</v>
       </c>
     </row>
     <row r="150">
@@ -4164,13 +4164,13 @@
         <v>248</v>
       </c>
       <c r="C150" t="n">
-        <v>0.101289758742575</v>
+        <v>0.0916879167780035</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0994987826543016</v>
+        <v>0.10644777981137</v>
       </c>
       <c r="E150" t="n">
-        <v>0.00179097608827328</v>
+        <v>-0.0147598630333662</v>
       </c>
     </row>
     <row r="151">
@@ -4181,13 +4181,13 @@
         <v>250</v>
       </c>
       <c r="C151" t="n">
-        <v>0.144225629403713</v>
+        <v>0.152950674465332</v>
       </c>
       <c r="D151" t="n">
-        <v>0.16512043192622</v>
+        <v>0.159693249549151</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.020894802522507</v>
+        <v>-0.00674257508381931</v>
       </c>
     </row>
     <row r="152">
@@ -4198,13 +4198,13 @@
         <v>29</v>
       </c>
       <c r="C152" t="n">
-        <v>0.265495225992212</v>
+        <v>0.28114257698056</v>
       </c>
       <c r="D152" t="n">
-        <v>0.153827124547055</v>
+        <v>0.153800752817656</v>
       </c>
       <c r="E152" t="n">
-        <v>0.111668101445157</v>
+        <v>0.127341824162904</v>
       </c>
     </row>
     <row r="153">
@@ -4215,13 +4215,13 @@
         <v>253</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0548952216215907</v>
+        <v>0.0667501736477502</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0376507629539177</v>
+        <v>0.0295663472986863</v>
       </c>
       <c r="E153" t="n">
-        <v>0.0172444586676731</v>
+        <v>0.0371838263490639</v>
       </c>
     </row>
     <row r="154">
@@ -4232,13 +4232,13 @@
         <v>176</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0961459115926769</v>
+        <v>0.0876132638067576</v>
       </c>
       <c r="D154" t="n">
-        <v>0.00788167169564752</v>
+        <v>0.0102716599151104</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0882642398970294</v>
+        <v>0.0773416038916472</v>
       </c>
     </row>
     <row r="155">
@@ -4249,13 +4249,13 @@
         <v>256</v>
       </c>
       <c r="C155" t="n">
-        <v>0.382570830943655</v>
+        <v>0.375266058885065</v>
       </c>
       <c r="D155" t="n">
-        <v>0.229331931562492</v>
+        <v>0.231802425825619</v>
       </c>
       <c r="E155" t="n">
-        <v>0.153238899381163</v>
+        <v>0.143463633059446</v>
       </c>
     </row>
     <row r="156">
@@ -4266,13 +4266,13 @@
         <v>17</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0195875893006851</v>
+        <v>0.0190258295743541</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0126112383117206</v>
+        <v>0.00975122900474406</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00697635098896446</v>
+        <v>0.00927460056961009</v>
       </c>
     </row>
     <row r="157">
@@ -4283,13 +4283,13 @@
         <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0694798915400187</v>
+        <v>0.0667943209615549</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0394900655257004</v>
+        <v>0.0137768281818799</v>
       </c>
       <c r="E157" t="n">
-        <v>0.0299898260143183</v>
+        <v>0.053017492779675</v>
       </c>
     </row>
     <row r="158">
@@ -4300,13 +4300,13 @@
         <v>188</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0206914807638693</v>
+        <v>0.0390246167477129</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0158488650870691</v>
+        <v>0.0100071036930853</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00484261567680014</v>
+        <v>0.0290175130546276</v>
       </c>
     </row>
     <row r="159">
@@ -4317,13 +4317,13 @@
         <v>250</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0570020426161116</v>
+        <v>0.0693597607504126</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0733110000049613</v>
+        <v>0.0784254882660652</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.0163089573888497</v>
+        <v>-0.00906572751565259</v>
       </c>
     </row>
     <row r="160">
@@ -4334,13 +4334,13 @@
         <v>59</v>
       </c>
       <c r="C160" t="n">
-        <v>0.183448107550942</v>
+        <v>0.183526070868675</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0764262733350614</v>
+        <v>0.0778660993579478</v>
       </c>
       <c r="E160" t="n">
-        <v>0.107021834215881</v>
+        <v>0.105659971510727</v>
       </c>
     </row>
     <row r="161">
@@ -4351,13 +4351,13 @@
         <v>104</v>
       </c>
       <c r="C161" t="n">
-        <v>0.176461478839116</v>
+        <v>0.168115870830307</v>
       </c>
       <c r="D161" t="n">
-        <v>0.166753846726652</v>
+        <v>0.156536882236776</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0097076321124645</v>
+        <v>0.0115789885935306</v>
       </c>
     </row>
     <row r="162">
@@ -4368,13 +4368,13 @@
         <v>12</v>
       </c>
       <c r="C162" t="n">
-        <v>0.131793411927577</v>
+        <v>0.115249555555863</v>
       </c>
       <c r="D162" t="n">
-        <v>0.044802839475004</v>
+        <v>0.0415638841551588</v>
       </c>
       <c r="E162" t="n">
-        <v>0.086990572452573</v>
+        <v>0.0736856714007044</v>
       </c>
     </row>
     <row r="163">
@@ -4385,13 +4385,13 @@
         <v>188</v>
       </c>
       <c r="C163" t="n">
-        <v>0.241781492670884</v>
+        <v>0.234024663177389</v>
       </c>
       <c r="D163" t="n">
-        <v>0.152129348932569</v>
+        <v>0.112004358587334</v>
       </c>
       <c r="E163" t="n">
-        <v>0.089652143738315</v>
+        <v>0.122020304590055</v>
       </c>
     </row>
     <row r="164">
@@ -4402,13 +4402,13 @@
         <v>266</v>
       </c>
       <c r="C164" t="n">
-        <v>0.169739022332813</v>
+        <v>0.150704267983044</v>
       </c>
       <c r="D164" t="n">
-        <v>0.106866652565098</v>
+        <v>0.113982508396245</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0628723697677151</v>
+        <v>0.0367217595867993</v>
       </c>
     </row>
     <row r="165">
@@ -4419,13 +4419,13 @@
         <v>268</v>
       </c>
       <c r="C165" t="n">
-        <v>0.0549558405129033</v>
+        <v>0.0520643500720498</v>
       </c>
       <c r="D165" t="n">
-        <v>0.0602407443970223</v>
+        <v>0.0362983232258534</v>
       </c>
       <c r="E165" t="n">
-        <v>-0.00528490388411901</v>
+        <v>0.0157660268461964</v>
       </c>
     </row>
     <row r="166">
@@ -4436,13 +4436,13 @@
         <v>270</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0914146518762807</v>
+        <v>0.0862439932462476</v>
       </c>
       <c r="D166" t="n">
-        <v>0.00441207977011176</v>
+        <v>0.00370003170980125</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0870025721061689</v>
+        <v>0.0825439615364464</v>
       </c>
     </row>
     <row r="167">
@@ -4453,13 +4453,13 @@
         <v>133</v>
       </c>
       <c r="C167" t="n">
-        <v>0.158879695761258</v>
+        <v>0.159366709554191</v>
       </c>
       <c r="D167" t="n">
-        <v>0.103203892926836</v>
+        <v>0.109824578909286</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0556758028344222</v>
+        <v>0.0495421306449049</v>
       </c>
     </row>
     <row r="168">
@@ -4470,13 +4470,13 @@
         <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0711684864542832</v>
+        <v>0.0712411491068227</v>
       </c>
       <c r="D168" t="n">
-        <v>0.043495400844383</v>
+        <v>0.059946236799036</v>
       </c>
       <c r="E168" t="n">
-        <v>0.0276730856099002</v>
+        <v>0.0112949123077867</v>
       </c>
     </row>
     <row r="169">
@@ -4487,13 +4487,13 @@
         <v>10</v>
       </c>
       <c r="C169" t="n">
-        <v>0.27595549743799</v>
+        <v>0.269891677878734</v>
       </c>
       <c r="D169" t="n">
-        <v>0.139203170921758</v>
+        <v>0.134339227169518</v>
       </c>
       <c r="E169" t="n">
-        <v>0.136752326516231</v>
+        <v>0.135552450709216</v>
       </c>
     </row>
     <row r="170">
@@ -4504,13 +4504,13 @@
         <v>275</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0192728393040885</v>
+        <v>0.01837327260365</v>
       </c>
       <c r="D170" t="n">
-        <v>0.000254291715629098</v>
+        <v>0.022161002497712</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0190185475884594</v>
+        <v>-0.00378772989406195</v>
       </c>
     </row>
     <row r="171">
@@ -4521,13 +4521,13 @@
         <v>241</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0174622339954566</v>
+        <v>0.0204044922118422</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00488584249265988</v>
+        <v>0.00356164249754369</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0125763915027967</v>
+        <v>0.0168428497142985</v>
       </c>
     </row>
     <row r="172">
@@ -4538,13 +4538,13 @@
         <v>10</v>
       </c>
       <c r="C172" t="n">
-        <v>0.133158831041361</v>
+        <v>0.130393113250438</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0983484451082713</v>
+        <v>0.123648016304055</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0348103859330896</v>
+        <v>0.00674509694638314</v>
       </c>
     </row>
     <row r="173">
@@ -4555,13 +4555,13 @@
         <v>279</v>
       </c>
       <c r="C173" t="n">
-        <v>0.116583273427965</v>
+        <v>0.118070017994447</v>
       </c>
       <c r="D173" t="n">
-        <v>0.020134669439386</v>
+        <v>0.0161811761501975</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0964486039885792</v>
+        <v>0.101888841844249</v>
       </c>
     </row>
     <row r="174">
@@ -4572,13 +4572,13 @@
         <v>87</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0032239724629038</v>
+        <v>0.00263904021120094</v>
       </c>
       <c r="D174" t="n">
-        <v>0.00254822798701601</v>
+        <v>0.000178826334381828</v>
       </c>
       <c r="E174" t="n">
-        <v>0.000675744475887791</v>
+        <v>0.00246021387681912</v>
       </c>
     </row>
     <row r="175">
@@ -4589,13 +4589,13 @@
         <v>279</v>
       </c>
       <c r="C175" t="n">
-        <v>0.214458473143378</v>
+        <v>0.243686047753423</v>
       </c>
       <c r="D175" t="n">
-        <v>0.165971977226646</v>
+        <v>0.170773120452626</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0484864959167317</v>
+        <v>0.0729129273007978</v>
       </c>
     </row>
     <row r="176">
@@ -4606,13 +4606,13 @@
         <v>12</v>
       </c>
       <c r="C176" t="n">
-        <v>0.244525447399991</v>
+        <v>0.254847555472734</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0731808899422388</v>
+        <v>0.0718173699385107</v>
       </c>
       <c r="E176" t="n">
-        <v>0.171344557457752</v>
+        <v>0.183030185534223</v>
       </c>
     </row>
     <row r="177">
@@ -4623,13 +4623,13 @@
         <v>284</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0752837470063899</v>
+        <v>0.070800945965153</v>
       </c>
       <c r="D177" t="n">
-        <v>0.003603113937329</v>
+        <v>0.0582751668206438</v>
       </c>
       <c r="E177" t="n">
-        <v>0.0716806330690609</v>
+        <v>0.0125257791445092</v>
       </c>
     </row>
     <row r="178">
@@ -4640,13 +4640,13 @@
         <v>286</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0950512660909688</v>
+        <v>0.0660903040864195</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0229229824587936</v>
+        <v>0.0338586899489245</v>
       </c>
       <c r="E178" t="n">
-        <v>0.0721282836321752</v>
+        <v>0.0322316141374951</v>
       </c>
     </row>
     <row r="179">
@@ -4657,13 +4657,13 @@
         <v>288</v>
       </c>
       <c r="C179" t="n">
-        <v>0.000239443181601029</v>
+        <v>0.00464509706288838</v>
       </c>
       <c r="D179" t="n">
-        <v>0.000179882163956356</v>
+        <v>0.00201790462501831</v>
       </c>
       <c r="E179" t="n">
-        <v>0.0000595610176446734</v>
+        <v>0.00262719243787007</v>
       </c>
     </row>
     <row r="180">
@@ -4674,13 +4674,13 @@
         <v>290</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0101097656609819</v>
+        <v>0.0161149093635485</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00367703415779519</v>
+        <v>0.0030731814077992</v>
       </c>
       <c r="E180" t="n">
-        <v>0.00643273150318675</v>
+        <v>0.0130417279557493</v>
       </c>
     </row>
     <row r="181">
@@ -4691,13 +4691,13 @@
         <v>188</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0879153580578057</v>
+        <v>0.0788032959974592</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0416749342276972</v>
+        <v>0.0377117804610306</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0462404238301085</v>
+        <v>0.0410915155364286</v>
       </c>
     </row>
     <row r="182">
@@ -4708,13 +4708,13 @@
         <v>188</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00571488001569962</v>
+        <v>0.000939779518565235</v>
       </c>
       <c r="D182" t="n">
-        <v>0.00207993212341615</v>
+        <v>0.00590508312382703</v>
       </c>
       <c r="E182" t="n">
-        <v>0.00363494789228347</v>
+        <v>-0.00496530360526179</v>
       </c>
     </row>
     <row r="183">
@@ -4725,13 +4725,13 @@
         <v>294</v>
       </c>
       <c r="C183" t="n">
-        <v>0.00130245358795716</v>
+        <v>0.00528902380863314</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0127556814580983</v>
+        <v>0.00127210545386442</v>
       </c>
       <c r="E183" t="n">
-        <v>-0.0114532278701411</v>
+        <v>0.00401691835476872</v>
       </c>
     </row>
     <row r="184">
@@ -4742,13 +4742,13 @@
         <v>23</v>
       </c>
       <c r="C184" t="n">
-        <v>0.247074968190735</v>
+        <v>0.24849450210409</v>
       </c>
       <c r="D184" t="n">
-        <v>0.107764252185263</v>
+        <v>0.108505263230245</v>
       </c>
       <c r="E184" t="n">
-        <v>0.139310716005472</v>
+        <v>0.139989238873846</v>
       </c>
     </row>
     <row r="185">
@@ -4759,13 +4759,13 @@
         <v>297</v>
       </c>
       <c r="C185" t="n">
-        <v>0.114099516851991</v>
+        <v>0.110715019418532</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0254859576485512</v>
+        <v>0.017074869770333</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0886135592034403</v>
+        <v>0.0936401496481986</v>
       </c>
     </row>
     <row r="186">
@@ -4776,13 +4776,13 @@
         <v>176</v>
       </c>
       <c r="C186" t="n">
-        <v>0.230014684705427</v>
+        <v>0.211525083852662</v>
       </c>
       <c r="D186" t="n">
-        <v>0.164381158623299</v>
+        <v>0.170391947708072</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0656335260821284</v>
+        <v>0.0411331361445895</v>
       </c>
     </row>
     <row r="187">
@@ -4793,13 +4793,13 @@
         <v>21</v>
       </c>
       <c r="C187" t="n">
-        <v>0.278685777194531</v>
+        <v>0.283543057948273</v>
       </c>
       <c r="D187" t="n">
-        <v>0.152075774899253</v>
+        <v>0.147170629842327</v>
       </c>
       <c r="E187" t="n">
-        <v>0.126610002295278</v>
+        <v>0.136372428105946</v>
       </c>
     </row>
     <row r="188">
@@ -4810,13 +4810,13 @@
         <v>301</v>
       </c>
       <c r="C188" t="n">
-        <v>0.262569051492683</v>
+        <v>0.2736296962867</v>
       </c>
       <c r="D188" t="n">
-        <v>0.139405806248837</v>
+        <v>0.133062417176703</v>
       </c>
       <c r="E188" t="n">
-        <v>0.123163245243846</v>
+        <v>0.140567279109997</v>
       </c>
     </row>
     <row r="189">
@@ -4827,13 +4827,13 @@
         <v>303</v>
       </c>
       <c r="C189" t="n">
-        <v>0.103197752813057</v>
+        <v>0.0987240049158199</v>
       </c>
       <c r="D189" t="n">
-        <v>0.126076121156857</v>
+        <v>0.00394445663537087</v>
       </c>
       <c r="E189" t="n">
-        <v>-0.0228783683438006</v>
+        <v>0.094779548280449</v>
       </c>
     </row>
     <row r="190">
@@ -4844,13 +4844,13 @@
         <v>65</v>
       </c>
       <c r="C190" t="n">
-        <v>0.157477188528026</v>
+        <v>0.133058021755833</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0700135139916013</v>
+        <v>0.077990405918723</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0874636745364249</v>
+        <v>0.0550676158371098</v>
       </c>
     </row>
     <row r="191">
@@ -4861,13 +4861,13 @@
         <v>224</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0151785232013118</v>
+        <v>0.0248499706193961</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0166425606477811</v>
+        <v>0.0330463159812798</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.00146403744646937</v>
+        <v>-0.00819634536188369</v>
       </c>
     </row>
     <row r="192">
@@ -4878,13 +4878,13 @@
         <v>307</v>
       </c>
       <c r="C192" t="n">
-        <v>0.56559827579155</v>
+        <v>0.516291193887477</v>
       </c>
       <c r="D192" t="n">
-        <v>0.550388165698961</v>
+        <v>0.544183506096833</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0152101100925892</v>
+        <v>-0.0278923122093555</v>
       </c>
     </row>
     <row r="193">
@@ -4895,13 +4895,13 @@
         <v>279</v>
       </c>
       <c r="C193" t="n">
-        <v>0.295635769975218</v>
+        <v>0.282098775348913</v>
       </c>
       <c r="D193" t="n">
-        <v>0.107865385205923</v>
+        <v>0.115589534150007</v>
       </c>
       <c r="E193" t="n">
-        <v>0.187770384769295</v>
+        <v>0.166509241198906</v>
       </c>
     </row>
     <row r="194">
@@ -4912,13 +4912,13 @@
         <v>23</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0133618738596314</v>
+        <v>0.0178166193160256</v>
       </c>
       <c r="D194" t="n">
-        <v>0.00433963013000281</v>
+        <v>0.00467934027131146</v>
       </c>
       <c r="E194" t="n">
-        <v>0.00902224372962854</v>
+        <v>0.0131372790447142</v>
       </c>
     </row>
     <row r="195">
@@ -4929,13 +4929,13 @@
         <v>23</v>
       </c>
       <c r="C195" t="n">
-        <v>0.057123357999514</v>
+        <v>0.0496758400098677</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0668290465338569</v>
+        <v>0.105221648132315</v>
       </c>
       <c r="E195" t="n">
-        <v>-0.00970568853434297</v>
+        <v>-0.0555458081224471</v>
       </c>
     </row>
     <row r="196">
@@ -4946,13 +4946,13 @@
         <v>119</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0652488340731835</v>
+        <v>0.0639142090710927</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0101191417782629</v>
+        <v>0.0143114015117719</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0551296922949206</v>
+        <v>0.0496028075593209</v>
       </c>
     </row>
     <row r="197">
@@ -4963,13 +4963,13 @@
         <v>250</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0377460335562463</v>
+        <v>0.0505155541051824</v>
       </c>
       <c r="D197" t="n">
-        <v>0.093602326857551</v>
+        <v>0.0560100539797405</v>
       </c>
       <c r="E197" t="n">
-        <v>-0.0558562933013047</v>
+        <v>-0.00549449987455811</v>
       </c>
     </row>
     <row r="198">
@@ -4980,13 +4980,13 @@
         <v>46</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0495633483382663</v>
+        <v>0.0219024738862755</v>
       </c>
       <c r="D198" t="n">
-        <v>0.000681291925851205</v>
+        <v>0.00167276938451226</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0488820564124151</v>
+        <v>0.0202297045017633</v>
       </c>
     </row>
     <row r="199">
@@ -4997,13 +4997,13 @@
         <v>315</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0486853737360862</v>
+        <v>0.0790786956362724</v>
       </c>
       <c r="D199" t="n">
-        <v>0.048768518324891</v>
+        <v>0.0830544248632056</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.0000831445888047969</v>
+        <v>-0.00397572922693329</v>
       </c>
     </row>
     <row r="200">
@@ -5014,13 +5014,13 @@
         <v>317</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0807001514523223</v>
+        <v>0.0714432337405276</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0397190774573175</v>
+        <v>0.0435875207852209</v>
       </c>
       <c r="E200" t="n">
-        <v>0.0409810739950047</v>
+        <v>0.0278557129553067</v>
       </c>
     </row>
     <row r="201">
@@ -5031,13 +5031,13 @@
         <v>319</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0746066557037834</v>
+        <v>0.0913298565346207</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0490731881910328</v>
+        <v>0.04767565232008</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0255334675127506</v>
+        <v>0.0436542042145407</v>
       </c>
     </row>
     <row r="202">
@@ -5048,13 +5048,13 @@
         <v>294</v>
       </c>
       <c r="C202" t="n">
-        <v>0.000400357586058749</v>
+        <v>0.0101581356763136</v>
       </c>
       <c r="D202" t="n">
-        <v>0.00465877578458522</v>
+        <v>0.0153759157151646</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.00425841819852647</v>
+        <v>-0.00521778003885103</v>
       </c>
     </row>
     <row r="203">
@@ -5065,13 +5065,13 @@
         <v>107</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0182661437128687</v>
+        <v>0.016751153789874</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0119532778386382</v>
+        <v>0.0254279189808614</v>
       </c>
       <c r="E203" t="n">
-        <v>0.00631286587423051</v>
+        <v>-0.00867676519098741</v>
       </c>
     </row>
     <row r="204">
@@ -5082,13 +5082,13 @@
         <v>44</v>
       </c>
       <c r="C204" t="n">
-        <v>0.294470253055423</v>
+        <v>0.261601249067942</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0240746117180828</v>
+        <v>0.203191419926648</v>
       </c>
       <c r="E204" t="n">
-        <v>0.27039564133734</v>
+        <v>0.058409829141294</v>
       </c>
     </row>
     <row r="205">
@@ -5099,13 +5099,13 @@
         <v>279</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0611441497456807</v>
+        <v>0.0594579192210206</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0270312444542227</v>
+        <v>0.0189838428618464</v>
       </c>
       <c r="E205" t="n">
-        <v>0.034112905291458</v>
+        <v>0.0404740763591742</v>
       </c>
     </row>
     <row r="206">
@@ -5116,13 +5116,13 @@
         <v>325</v>
       </c>
       <c r="C206" t="n">
-        <v>0.039287670683234</v>
+        <v>0.0783331490280243</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0064452039984516</v>
+        <v>0.0299040338361006</v>
       </c>
       <c r="E206" t="n">
-        <v>0.0328424666847824</v>
+        <v>0.0484291151919237</v>
       </c>
     </row>
     <row r="207">
@@ -5133,13 +5133,13 @@
         <v>59</v>
       </c>
       <c r="C207" t="n">
-        <v>0.042643003297617</v>
+        <v>0.0474404317981104</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0316257691080946</v>
+        <v>0.0227394852802454</v>
       </c>
       <c r="E207" t="n">
-        <v>0.0110172341895223</v>
+        <v>0.024700946517865</v>
       </c>
     </row>
     <row r="208">
@@ -5150,13 +5150,13 @@
         <v>97</v>
       </c>
       <c r="C208" t="n">
-        <v>0.152645916790954</v>
+        <v>0.134939795100922</v>
       </c>
       <c r="D208" t="n">
-        <v>0.078509169640306</v>
+        <v>0.0721679195240784</v>
       </c>
       <c r="E208" t="n">
-        <v>0.0741367471506478</v>
+        <v>0.062771875576844</v>
       </c>
     </row>
     <row r="209">
@@ -5167,13 +5167,13 @@
         <v>102</v>
       </c>
       <c r="C209" t="n">
-        <v>0.246600034632225</v>
+        <v>0.239521035362922</v>
       </c>
       <c r="D209" t="n">
-        <v>0.151304791341536</v>
+        <v>0.159952439982488</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0952952432906886</v>
+        <v>0.0795685953804334</v>
       </c>
     </row>
     <row r="210">
@@ -5184,13 +5184,13 @@
         <v>330</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0502435929731284</v>
+        <v>0.0541758132813435</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0360954048440249</v>
+        <v>0.0386960677494536</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0141481881291035</v>
+        <v>0.0154797455318899</v>
       </c>
     </row>
     <row r="211">
@@ -5201,13 +5201,13 @@
         <v>332</v>
       </c>
       <c r="C211" t="n">
-        <v>0.00498003209525638</v>
+        <v>0.0110429493702266</v>
       </c>
       <c r="D211" t="n">
-        <v>0.000399114601617038</v>
+        <v>0.00264676605877624</v>
       </c>
       <c r="E211" t="n">
-        <v>0.00458091749363934</v>
+        <v>0.0083961833114504</v>
       </c>
     </row>
     <row r="212">
@@ -5218,13 +5218,13 @@
         <v>334</v>
       </c>
       <c r="C212" t="n">
-        <v>0.262450033389534</v>
+        <v>0.275138637152669</v>
       </c>
       <c r="D212" t="n">
-        <v>0.558889727861943</v>
+        <v>0.516966853204196</v>
       </c>
       <c r="E212" t="n">
-        <v>-0.296439694472408</v>
+        <v>-0.241828216051526</v>
       </c>
     </row>
     <row r="213">
@@ -5235,13 +5235,13 @@
         <v>135</v>
       </c>
       <c r="C213" t="n">
-        <v>0.192590517451315</v>
+        <v>0.196507915886724</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0877005049115354</v>
+        <v>0.0844162254238157</v>
       </c>
       <c r="E213" t="n">
-        <v>0.104890012539779</v>
+        <v>0.112091690462909</v>
       </c>
     </row>
     <row r="214">
@@ -5252,13 +5252,13 @@
         <v>250</v>
       </c>
       <c r="C214" t="n">
-        <v>0.0399550809789727</v>
+        <v>0.0407347158843984</v>
       </c>
       <c r="D214" t="n">
-        <v>0.021864597423047</v>
+        <v>0.0338595813790653</v>
       </c>
       <c r="E214" t="n">
-        <v>0.0180904835559257</v>
+        <v>0.00687513450533302</v>
       </c>
     </row>
     <row r="215">
@@ -5269,13 +5269,13 @@
         <v>338</v>
       </c>
       <c r="C215" t="n">
-        <v>0.0148039176502994</v>
+        <v>0.000310007604433028</v>
       </c>
       <c r="D215" t="n">
-        <v>0.00177768967307874</v>
+        <v>0.01291585553309</v>
       </c>
       <c r="E215" t="n">
-        <v>0.0130262279772206</v>
+        <v>-0.012605847928657</v>
       </c>
     </row>
     <row r="216">
@@ -5286,13 +5286,13 @@
         <v>102</v>
       </c>
       <c r="C216" t="n">
-        <v>0.286760463773312</v>
+        <v>0.274435634483253</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0668086111331792</v>
+        <v>0.0709939175134169</v>
       </c>
       <c r="E216" t="n">
-        <v>0.219951852640132</v>
+        <v>0.203441716969836</v>
       </c>
     </row>
     <row r="217">
@@ -5303,13 +5303,13 @@
         <v>21</v>
       </c>
       <c r="C217" t="n">
-        <v>0.0581503324649851</v>
+        <v>0.0530530667365794</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0644128166021149</v>
+        <v>0.0701697659856397</v>
       </c>
       <c r="E217" t="n">
-        <v>-0.00626248413712979</v>
+        <v>-0.0171166992490603</v>
       </c>
     </row>
     <row r="218">
@@ -5320,13 +5320,13 @@
         <v>121</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0019599185652628</v>
+        <v>0.107313534371036</v>
       </c>
       <c r="D218" t="n">
-        <v>0.00141251383955855</v>
+        <v>0.00221931515800774</v>
       </c>
       <c r="E218" t="n">
-        <v>0.000547404725704248</v>
+        <v>0.105094219213028</v>
       </c>
     </row>
     <row r="219">
@@ -5337,13 +5337,13 @@
         <v>59</v>
       </c>
       <c r="C219" t="n">
-        <v>0.146949112873828</v>
+        <v>0.150844786216582</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0836078160699519</v>
+        <v>0.0730400434776813</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0633412968038762</v>
+        <v>0.0778047427389007</v>
       </c>
     </row>
     <row r="220">
@@ -5354,13 +5354,13 @@
         <v>97</v>
       </c>
       <c r="C220" t="n">
-        <v>0.468187379528959</v>
+        <v>0.455514472109401</v>
       </c>
       <c r="D220" t="n">
-        <v>0.230721490645884</v>
+        <v>0.22531342779505</v>
       </c>
       <c r="E220" t="n">
-        <v>0.237465888883075</v>
+        <v>0.23020104431435</v>
       </c>
     </row>
     <row r="221">
@@ -5371,13 +5371,13 @@
         <v>152</v>
       </c>
       <c r="C221" t="n">
-        <v>0.141684690181727</v>
+        <v>0.141763429078516</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0589913386058208</v>
+        <v>0.0524256849970133</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0826933515759057</v>
+        <v>0.0893377440815024</v>
       </c>
     </row>
     <row r="222">
@@ -5388,13 +5388,13 @@
         <v>21</v>
       </c>
       <c r="C222" t="n">
-        <v>0.119846826292083</v>
+        <v>0.0473240502468563</v>
       </c>
       <c r="D222" t="n">
-        <v>0.00315350796563164</v>
+        <v>0.00976957307815303</v>
       </c>
       <c r="E222" t="n">
-        <v>0.116693318326452</v>
+        <v>0.0375544771687032</v>
       </c>
     </row>
     <row r="223">
@@ -5405,13 +5405,13 @@
         <v>347</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0423243052718705</v>
+        <v>0.0356382514058176</v>
       </c>
       <c r="D223" t="n">
-        <v>0.000682864338157681</v>
+        <v>0.00424322561840669</v>
       </c>
       <c r="E223" t="n">
-        <v>0.0416414409337128</v>
+        <v>0.0313950257874109</v>
       </c>
     </row>
     <row r="224">
@@ -5422,13 +5422,13 @@
         <v>157</v>
       </c>
       <c r="C224" t="n">
-        <v>0.12361107751172</v>
+        <v>0.130083366042514</v>
       </c>
       <c r="D224" t="n">
-        <v>0.126816088472321</v>
+        <v>0.149891444949242</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.00320501096060087</v>
+        <v>-0.0198080789067282</v>
       </c>
     </row>
     <row r="225">
@@ -5439,13 +5439,13 @@
         <v>97</v>
       </c>
       <c r="C225" t="n">
-        <v>0.331438731564116</v>
+        <v>0.340236228558087</v>
       </c>
       <c r="D225" t="n">
-        <v>0.176549246737184</v>
+        <v>0.171209825884673</v>
       </c>
       <c r="E225" t="n">
-        <v>0.154889484826932</v>
+        <v>0.169026402673414</v>
       </c>
     </row>
     <row r="226">
@@ -5456,13 +5456,13 @@
         <v>59</v>
       </c>
       <c r="C226" t="n">
-        <v>0.151622766582405</v>
+        <v>0.150247412970698</v>
       </c>
       <c r="D226" t="n">
-        <v>0.070079785692986</v>
+        <v>0.0620190019935821</v>
       </c>
       <c r="E226" t="n">
-        <v>0.081542980889419</v>
+        <v>0.0882284109771155</v>
       </c>
     </row>
     <row r="227">
@@ -5473,13 +5473,13 @@
         <v>352</v>
       </c>
       <c r="C227" t="n">
-        <v>0.0712197702422394</v>
+        <v>0.0677645430415248</v>
       </c>
       <c r="D227" t="n">
-        <v>0.22223411631416</v>
+        <v>0.202230764046722</v>
       </c>
       <c r="E227" t="n">
-        <v>-0.15101434607192</v>
+        <v>-0.134466221005197</v>
       </c>
     </row>
     <row r="228">
@@ -5490,13 +5490,13 @@
         <v>78</v>
       </c>
       <c r="C228" t="n">
-        <v>0.233890894156539</v>
+        <v>0.222212301779134</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0966449373781608</v>
+        <v>0.0938357920190095</v>
       </c>
       <c r="E228" t="n">
-        <v>0.137245956778378</v>
+        <v>0.128376509760125</v>
       </c>
     </row>
     <row r="229">
@@ -5507,13 +5507,13 @@
         <v>279</v>
       </c>
       <c r="C229" t="n">
-        <v>0.197177870399248</v>
+        <v>0.207754706593418</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0369286592618583</v>
+        <v>0.0195792767555199</v>
       </c>
       <c r="E229" t="n">
-        <v>0.16024921113739</v>
+        <v>0.188175429837898</v>
       </c>
     </row>
     <row r="230">
@@ -5524,13 +5524,13 @@
         <v>356</v>
       </c>
       <c r="C230" t="n">
-        <v>0.338653239987895</v>
+        <v>0.246677283798644</v>
       </c>
       <c r="D230" t="n">
-        <v>0.16944734926489</v>
+        <v>0.020055496100998</v>
       </c>
       <c r="E230" t="n">
-        <v>0.169205890723005</v>
+        <v>0.226621787697646</v>
       </c>
     </row>
     <row r="231">
@@ -5541,13 +5541,13 @@
         <v>10</v>
       </c>
       <c r="C231" t="n">
-        <v>0.120113020234528</v>
+        <v>0.107080820781662</v>
       </c>
       <c r="D231" t="n">
-        <v>0.035276990616196</v>
+        <v>0.0280177654798115</v>
       </c>
       <c r="E231" t="n">
-        <v>0.084836029618332</v>
+        <v>0.0790630553018505</v>
       </c>
     </row>
     <row r="232">
@@ -5558,13 +5558,13 @@
         <v>8</v>
       </c>
       <c r="C232" t="n">
-        <v>0.110435757835626</v>
+        <v>0.149239573561633</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0652009586629665</v>
+        <v>0.0744669404849933</v>
       </c>
       <c r="E232" t="n">
-        <v>0.0452347991726597</v>
+        <v>0.0747726330766401</v>
       </c>
     </row>
     <row r="233">
@@ -5575,13 +5575,13 @@
         <v>107</v>
       </c>
       <c r="C233" t="n">
-        <v>0.103157435583414</v>
+        <v>0.0927955030273649</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0568118525853719</v>
+        <v>0.0593264169518262</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0463455829980418</v>
+        <v>0.0334690860755387</v>
       </c>
     </row>
     <row r="234">
@@ -5592,13 +5592,13 @@
         <v>146</v>
       </c>
       <c r="C234" t="n">
-        <v>0.180675615046658</v>
+        <v>0.163222832438661</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0866991925198936</v>
+        <v>0.0958089382243526</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0939764225267646</v>
+        <v>0.0674138942143086</v>
       </c>
     </row>
     <row r="235">
@@ -5609,13 +5609,13 @@
         <v>146</v>
       </c>
       <c r="C235" t="n">
-        <v>0.00000847566930501253</v>
+        <v>0.00181373069194048</v>
       </c>
       <c r="D235" t="n">
-        <v>0.00699701990331987</v>
+        <v>0.00151109397298335</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.00698854423401486</v>
+        <v>0.000302636718957125</v>
       </c>
     </row>
     <row r="236">
@@ -5626,13 +5626,13 @@
         <v>363</v>
       </c>
       <c r="C236" t="n">
-        <v>0.00652579740813301</v>
+        <v>0.00685740759894516</v>
       </c>
       <c r="D236" t="n">
-        <v>0.00348102738756811</v>
+        <v>0.00566715882537621</v>
       </c>
       <c r="E236" t="n">
-        <v>0.0030447700205649</v>
+        <v>0.00119024877356895</v>
       </c>
     </row>
     <row r="237">
@@ -5643,13 +5643,13 @@
         <v>38</v>
       </c>
       <c r="C237" t="n">
-        <v>0.0447043121622999</v>
+        <v>0.0528031096157531</v>
       </c>
       <c r="D237" t="n">
-        <v>0.0504038897416912</v>
+        <v>0.0585855788277527</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.00569957757939132</v>
+        <v>-0.00578246921199954</v>
       </c>
     </row>
     <row r="238">
@@ -5660,13 +5660,13 @@
         <v>55</v>
       </c>
       <c r="C238" t="n">
-        <v>0.293689254615762</v>
+        <v>0.246770641195431</v>
       </c>
       <c r="D238" t="n">
-        <v>0.140031121668769</v>
+        <v>0.113904602364412</v>
       </c>
       <c r="E238" t="n">
-        <v>0.153658132946993</v>
+        <v>0.132866038831019</v>
       </c>
     </row>
     <row r="239">
@@ -5677,13 +5677,13 @@
         <v>55</v>
       </c>
       <c r="C239" t="n">
-        <v>0.0765857479101934</v>
+        <v>0.140103661998431</v>
       </c>
       <c r="D239" t="n">
-        <v>0.0797366537394908</v>
+        <v>0.0680368986966605</v>
       </c>
       <c r="E239" t="n">
-        <v>-0.00315090582929742</v>
+        <v>0.0720667633017706</v>
       </c>
     </row>
     <row r="240">
@@ -5694,13 +5694,13 @@
         <v>250</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0272959909478628</v>
+        <v>0.00209624773024189</v>
       </c>
       <c r="D240" t="n">
-        <v>0.000041437363956909</v>
+        <v>0.00126658313123733</v>
       </c>
       <c r="E240" t="n">
-        <v>0.0272545535839059</v>
+        <v>0.000829664599004567</v>
       </c>
     </row>
     <row r="241">
@@ -5711,13 +5711,13 @@
         <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>0.277506140692488</v>
+        <v>0.277036027418886</v>
       </c>
       <c r="D241" t="n">
-        <v>0.212138465601502</v>
+        <v>0.192179953884036</v>
       </c>
       <c r="E241" t="n">
-        <v>0.0653676750909863</v>
+        <v>0.0848560735348496</v>
       </c>
     </row>
     <row r="242">
@@ -5728,13 +5728,13 @@
         <v>301</v>
       </c>
       <c r="C242" t="n">
-        <v>0.126699735988069</v>
+        <v>0.124090633375411</v>
       </c>
       <c r="D242" t="n">
-        <v>0.0917196510266954</v>
+        <v>0.0941697178032012</v>
       </c>
       <c r="E242" t="n">
-        <v>0.0349800849613735</v>
+        <v>0.0299209155722098</v>
       </c>
     </row>
     <row r="243">
@@ -5745,13 +5745,13 @@
         <v>133</v>
       </c>
       <c r="C243" t="n">
-        <v>0.315023769517591</v>
+        <v>0.332536436444822</v>
       </c>
       <c r="D243" t="n">
-        <v>0.20743341655636</v>
+        <v>0.218370295632064</v>
       </c>
       <c r="E243" t="n">
-        <v>0.107590352961232</v>
+        <v>0.114166140812758</v>
       </c>
     </row>
     <row r="244">
@@ -5762,13 +5762,13 @@
         <v>133</v>
       </c>
       <c r="C244" t="n">
-        <v>0.0296921548166732</v>
+        <v>0.0442171670395233</v>
       </c>
       <c r="D244" t="n">
-        <v>0.0163207464337808</v>
+        <v>0.00999515029581672</v>
       </c>
       <c r="E244" t="n">
-        <v>0.0133714083828924</v>
+        <v>0.0342220167437066</v>
       </c>
     </row>
     <row r="245">
@@ -5779,13 +5779,13 @@
         <v>373</v>
       </c>
       <c r="C245" t="n">
-        <v>0.000169780676297361</v>
+        <v>0.000578938454694815</v>
       </c>
       <c r="D245" t="n">
-        <v>0.0000520296049488925</v>
+        <v>0.000603585431170569</v>
       </c>
       <c r="E245" t="n">
-        <v>0.000117751071348469</v>
+        <v>-0.0000246469764757544</v>
       </c>
     </row>
     <row r="246">
@@ -5796,13 +5796,13 @@
         <v>10</v>
       </c>
       <c r="C246" t="n">
-        <v>0.303017479734254</v>
+        <v>0.304488602270869</v>
       </c>
       <c r="D246" t="n">
-        <v>0.162293568803566</v>
+        <v>0.156282975150528</v>
       </c>
       <c r="E246" t="n">
-        <v>0.140723910930689</v>
+        <v>0.148205627120341</v>
       </c>
     </row>
     <row r="247">
@@ -5813,13 +5813,13 @@
         <v>176</v>
       </c>
       <c r="C247" t="n">
-        <v>0.000166708263418027</v>
+        <v>0.00000992034760917379</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0113531159388499</v>
+        <v>0.00401611926156453</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.0111864076754318</v>
+        <v>-0.00400619891395536</v>
       </c>
     </row>
     <row r="248">
@@ -5830,13 +5830,13 @@
         <v>90</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0551158989029251</v>
+        <v>0.0411722049951021</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0237005049475725</v>
+        <v>0.0271723416746065</v>
       </c>
       <c r="E248" t="n">
-        <v>0.0314153939553526</v>
+        <v>0.0139998633204956</v>
       </c>
     </row>
     <row r="249">
@@ -5847,13 +5847,13 @@
         <v>135</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0268296866738611</v>
+        <v>0.00156344058529551</v>
       </c>
       <c r="D249" t="n">
-        <v>0.00034466887316201</v>
+        <v>0.0134530859950985</v>
       </c>
       <c r="E249" t="n">
-        <v>0.0264850178006991</v>
+        <v>-0.011889645409803</v>
       </c>
     </row>
     <row r="250">
@@ -5864,13 +5864,13 @@
         <v>319</v>
       </c>
       <c r="C250" t="n">
-        <v>0.204411734594622</v>
+        <v>0.204593623573274</v>
       </c>
       <c r="D250" t="n">
-        <v>0.00477060489561931</v>
+        <v>0.00998022600348764</v>
       </c>
       <c r="E250" t="n">
-        <v>0.199641129699003</v>
+        <v>0.194613397569787</v>
       </c>
     </row>
     <row r="251">
@@ -5881,13 +5881,13 @@
         <v>380</v>
       </c>
       <c r="C251" t="n">
-        <v>0.072465208193159</v>
+        <v>0.0794241312856094</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0177379007784454</v>
+        <v>0.014866831243367</v>
       </c>
       <c r="E251" t="n">
-        <v>0.0547273074147135</v>
+        <v>0.0645573000422424</v>
       </c>
     </row>
     <row r="252">
@@ -5898,13 +5898,13 @@
         <v>216</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0439206754257152</v>
+        <v>0.041811164834691</v>
       </c>
       <c r="D252" t="n">
-        <v>0.0109288277861431</v>
+        <v>0.00946695308125287</v>
       </c>
       <c r="E252" t="n">
-        <v>0.0329918476395721</v>
+        <v>0.0323442117534381</v>
       </c>
     </row>
     <row r="253">
@@ -5915,13 +5915,13 @@
         <v>59</v>
       </c>
       <c r="C253" t="n">
-        <v>0.224809580957133</v>
+        <v>0.244690732768485</v>
       </c>
       <c r="D253" t="n">
-        <v>0.144921232089817</v>
+        <v>0.173502531863335</v>
       </c>
       <c r="E253" t="n">
-        <v>0.0798883488673164</v>
+        <v>0.0711882009051504</v>
       </c>
     </row>
     <row r="254">
@@ -5932,13 +5932,13 @@
         <v>384</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0194877338795456</v>
+        <v>0.025908282375057</v>
       </c>
       <c r="D254" t="n">
-        <v>0.00018401332697584</v>
+        <v>0.000244693825139062</v>
       </c>
       <c r="E254" t="n">
-        <v>0.0193037205525697</v>
+        <v>0.025663588549918</v>
       </c>
     </row>
     <row r="255">
@@ -5949,13 +5949,13 @@
         <v>239</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0720839326267233</v>
+        <v>0.0771756379703053</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0152478867031301</v>
+        <v>0.0206906590078355</v>
       </c>
       <c r="E255" t="n">
-        <v>0.0568360459235933</v>
+        <v>0.0564849789624698</v>
       </c>
     </row>
     <row r="256">
@@ -5966,13 +5966,13 @@
         <v>90</v>
       </c>
       <c r="C256" t="n">
-        <v>0.0428221795114088</v>
+        <v>0.0572768395529644</v>
       </c>
       <c r="D256" t="n">
-        <v>0.0014795694262665</v>
+        <v>0.000434847463527719</v>
       </c>
       <c r="E256" t="n">
-        <v>0.0413426100851423</v>
+        <v>0.0568419920894366</v>
       </c>
     </row>
     <row r="257">
@@ -5983,13 +5983,13 @@
         <v>181</v>
       </c>
       <c r="C257" t="n">
-        <v>0.136532560576685</v>
+        <v>0.139197976492984</v>
       </c>
       <c r="D257" t="n">
-        <v>0.121728201446324</v>
+        <v>0.119407680370542</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0148043591303608</v>
+        <v>0.0197902961224416</v>
       </c>
     </row>
     <row r="258">
@@ -6000,13 +6000,13 @@
         <v>389</v>
       </c>
       <c r="C258" t="n">
-        <v>0.11503076605945</v>
+        <v>0.100257180360347</v>
       </c>
       <c r="D258" t="n">
-        <v>0.0543495389740749</v>
+        <v>0.0364282204602323</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0606812270853746</v>
+        <v>0.0638289599001151</v>
       </c>
     </row>
     <row r="259">
@@ -6017,13 +6017,13 @@
         <v>391</v>
       </c>
       <c r="C259" t="n">
-        <v>0.021314855882301</v>
+        <v>0.0204536086443929</v>
       </c>
       <c r="D259" t="n">
-        <v>0.00443716208862506</v>
+        <v>0.00122499418948987</v>
       </c>
       <c r="E259" t="n">
-        <v>0.016877693793676</v>
+        <v>0.019228614454903</v>
       </c>
     </row>
     <row r="260">
@@ -6034,13 +6034,13 @@
         <v>21</v>
       </c>
       <c r="C260" t="n">
-        <v>0.172273669703316</v>
+        <v>0.177839871035717</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0896828918683095</v>
+        <v>0.0894133611259339</v>
       </c>
       <c r="E260" t="n">
-        <v>0.0825907778350063</v>
+        <v>0.0884265099097829</v>
       </c>
     </row>
     <row r="261">
@@ -6051,13 +6051,13 @@
         <v>394</v>
       </c>
       <c r="C261" t="n">
-        <v>0.00000966228093243209</v>
+        <v>0.00124804440232385</v>
       </c>
       <c r="D261" t="n">
-        <v>0.00000750312020776356</v>
+        <v>0.0017420691788107</v>
       </c>
       <c r="E261" t="n">
-        <v>0.00000215916072466853</v>
+        <v>-0.00049402477648685</v>
       </c>
     </row>
     <row r="262">
@@ -6068,13 +6068,13 @@
         <v>19</v>
       </c>
       <c r="C262" t="n">
-        <v>0.177803176951288</v>
+        <v>0.195622284969435</v>
       </c>
       <c r="D262" t="n">
-        <v>0.156518792664171</v>
+        <v>0.15844019329509</v>
       </c>
       <c r="E262" t="n">
-        <v>0.0212843842871168</v>
+        <v>0.0371820916743448</v>
       </c>
     </row>
     <row r="263">
@@ -6085,13 +6085,13 @@
         <v>21</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0860862997459477</v>
+        <v>0.102973353689199</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0600089515085788</v>
+        <v>0.0630695430641013</v>
       </c>
       <c r="E263" t="n">
-        <v>0.0260773482373689</v>
+        <v>0.0399038106250973</v>
       </c>
     </row>
   </sheetData>
@@ -6153,10 +6153,10 @@
         <v>0.344956206291903</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11708589330241</v>
+        <v>0.12728513749179</v>
       </c>
       <c r="E3" t="n">
-        <v>0.227870312989493</v>
+        <v>0.217671068800113</v>
       </c>
     </row>
     <row r="4">
@@ -6167,13 +6167,13 @@
         <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.380945372722865</v>
+        <v>0.406478040083317</v>
       </c>
       <c r="D4" t="n">
         <v>0.200547164977205</v>
       </c>
       <c r="E4" t="n">
-        <v>0.180398207745661</v>
+        <v>0.205930875106112</v>
       </c>
     </row>
     <row r="5">
@@ -6201,13 +6201,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.073186524819874</v>
+        <v>0.0581986724599326</v>
       </c>
       <c r="D6" t="n">
         <v>0.0508571074235846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0223294173962894</v>
+        <v>0.00734156503634802</v>
       </c>
     </row>
     <row r="7">
@@ -6289,10 +6289,10 @@
         <v>0.145284169718847</v>
       </c>
       <c r="D11" t="n">
-        <v>0.118003216218566</v>
+        <v>0.0720461435710437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0272809535002807</v>
+        <v>0.0732380261478028</v>
       </c>
     </row>
     <row r="12">
@@ -6354,13 +6354,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0789755440537786</v>
+        <v>0.110383257800949</v>
       </c>
       <c r="D15" t="n">
         <v>0.0651205377534812</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0138550063002974</v>
+        <v>0.0452627200474679</v>
       </c>
     </row>
     <row r="16">
@@ -6391,10 +6391,10 @@
         <v>0.0812175045100883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0837230547928295</v>
+        <v>0.0447057883838024</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.00250555028274127</v>
+        <v>0.0365117161262858</v>
       </c>
     </row>
     <row r="18">
@@ -6425,10 +6425,10 @@
         <v>0.0103735690839022</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0103735690839022</v>
+        <v>0.0179174499300139</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.00754388084611169</v>
       </c>
     </row>
     <row r="20">
@@ -6476,10 +6476,10 @@
         <v>0.0302244939766799</v>
       </c>
       <c r="D22" t="n">
-        <v>0.017663436131865</v>
+        <v>0.020509469982834</v>
       </c>
       <c r="E22" t="n">
-        <v>0.012561057844815</v>
+        <v>0.00971502399384589</v>
       </c>
     </row>
     <row r="23">
@@ -6524,13 +6524,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.227508190927665</v>
+        <v>0.246916678005293</v>
       </c>
       <c r="D25" t="n">
         <v>0.0645254105748891</v>
       </c>
       <c r="E25" t="n">
-        <v>0.162982780352776</v>
+        <v>0.182391267430404</v>
       </c>
     </row>
     <row r="26">
@@ -6561,10 +6561,10 @@
         <v>0.0621885331063154</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0682009088310857</v>
+        <v>0.0664917603534333</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.00601237572477033</v>
+        <v>-0.00430322724711793</v>
       </c>
     </row>
     <row r="28">
@@ -6643,13 +6643,13 @@
         <v>59</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0811869164456449</v>
+        <v>0.0968343350321858</v>
       </c>
       <c r="D32" t="n">
         <v>0.0367714950024437</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0444154214432012</v>
+        <v>0.0600628400297421</v>
       </c>
     </row>
     <row r="33">
@@ -6694,13 +6694,13 @@
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0730340366925773</v>
+        <v>0.133607225790825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0842461588118813</v>
+        <v>0.0741592094697771</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.011212122119304</v>
+        <v>0.0594480163210477</v>
       </c>
     </row>
     <row r="36">
@@ -6714,10 +6714,10 @@
         <v>0.0571948477055125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0484563053800083</v>
+        <v>0.0471804187853239</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00873854232550417</v>
+        <v>0.0100144289201885</v>
       </c>
     </row>
     <row r="37">
@@ -6728,13 +6728,13 @@
         <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>0.126924739263418</v>
+        <v>0.112891106627291</v>
       </c>
       <c r="D37" t="n">
         <v>0.0857260381866785</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0411987010767396</v>
+        <v>0.0271650684406127</v>
       </c>
     </row>
     <row r="38">
@@ -6745,13 +6745,13 @@
         <v>68</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0834187463878174</v>
+        <v>0.0557664916116409</v>
       </c>
       <c r="D38" t="n">
         <v>0.00372079595048285</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0796979504373346</v>
+        <v>0.0520456956611581</v>
       </c>
     </row>
     <row r="39">
@@ -7000,13 +7000,13 @@
         <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>0.123326380409339</v>
+        <v>0.134764681631306</v>
       </c>
       <c r="D53" t="n">
         <v>0.038801581285882</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0845247991234571</v>
+        <v>0.0959631003454242</v>
       </c>
     </row>
     <row r="54">
@@ -7034,13 +7034,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0255902800672539</v>
+        <v>0.0504361293908963</v>
       </c>
       <c r="D55" t="n">
         <v>0.04534553864486</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0197552585776061</v>
+        <v>0.00509059074603629</v>
       </c>
     </row>
     <row r="56">
@@ -7207,10 +7207,10 @@
         <v>0.19173942226034</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0959982406373399</v>
+        <v>0.0779432097845162</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0957411816230003</v>
+        <v>0.113796212475824</v>
       </c>
     </row>
     <row r="66">
@@ -7255,13 +7255,13 @@
         <v>121</v>
       </c>
       <c r="C68" t="n">
-        <v>0.10254022823691</v>
+        <v>0.106140479643769</v>
       </c>
       <c r="D68" t="n">
         <v>0.03776254294273</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0647776852941803</v>
+        <v>0.0683779367010393</v>
       </c>
     </row>
     <row r="69">
@@ -7340,13 +7340,13 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0028650845261028</v>
+        <v>0.0147333751312138</v>
       </c>
       <c r="D73" t="n">
         <v>0.000545203213534002</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00231988131256879</v>
+        <v>0.0141881719176798</v>
       </c>
     </row>
     <row r="74">
@@ -7374,13 +7374,13 @@
         <v>130</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0903240955512361</v>
+        <v>0.100886940381762</v>
       </c>
       <c r="D75" t="n">
         <v>0.00761446172027008</v>
       </c>
       <c r="E75" t="n">
-        <v>0.082709633830966</v>
+        <v>0.0932724786614922</v>
       </c>
     </row>
     <row r="76">
@@ -7493,13 +7493,13 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>0.161110618887912</v>
+        <v>0.162310749237114</v>
       </c>
       <c r="D82" t="n">
         <v>0.0680762400160657</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0930343788718464</v>
+        <v>0.094234509221048</v>
       </c>
     </row>
     <row r="83">
@@ -7510,13 +7510,13 @@
         <v>143</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0131716368718869</v>
+        <v>0.0144122749165768</v>
       </c>
       <c r="D83" t="n">
         <v>0.0163033400452211</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.0031317031733342</v>
+        <v>-0.00189106512864431</v>
       </c>
     </row>
     <row r="84">
@@ -7595,13 +7595,13 @@
         <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>0.142861936291043</v>
+        <v>0.102248746026476</v>
       </c>
       <c r="D88" t="n">
-        <v>0.026240048278275</v>
+        <v>0.0273216849289027</v>
       </c>
       <c r="E88" t="n">
-        <v>0.116621888012768</v>
+        <v>0.0749270610975733</v>
       </c>
     </row>
     <row r="89">
@@ -7615,10 +7615,10 @@
         <v>0.08761419304459</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0391096632473659</v>
+        <v>0.021433612969328</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0485045297972241</v>
+        <v>0.066180580075262</v>
       </c>
     </row>
     <row r="90">
@@ -7700,10 +7700,10 @@
         <v>0.0939222613475797</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0244324616628528</v>
+        <v>0.00102943709071249</v>
       </c>
       <c r="E94" t="n">
-        <v>0.069489799684727</v>
+        <v>0.0928928242568673</v>
       </c>
     </row>
     <row r="95">
@@ -7799,13 +7799,13 @@
         <v>123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0529328080917512</v>
+        <v>0.0429479418382658</v>
       </c>
       <c r="D100" t="n">
         <v>0.00882903613643989</v>
       </c>
       <c r="E100" t="n">
-        <v>0.0441037719553113</v>
+        <v>0.034118905701826</v>
       </c>
     </row>
     <row r="101">
@@ -7819,10 +7819,10 @@
         <v>0.104463437101952</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0760532469667559</v>
+        <v>0.108209761392324</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0284101901351963</v>
+        <v>-0.00374632429037204</v>
       </c>
     </row>
     <row r="102">
@@ -7870,10 +7870,10 @@
         <v>0.192190385097097</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0513998229030595</v>
+        <v>0.0590463081642671</v>
       </c>
       <c r="E104" t="n">
-        <v>0.140790562194038</v>
+        <v>0.13314407693283</v>
       </c>
     </row>
     <row r="105">
@@ -7901,13 +7901,13 @@
         <v>38</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0664655777115446</v>
+        <v>0.0628587029257787</v>
       </c>
       <c r="D106" t="n">
         <v>0.0691411886951381</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.00267561098359359</v>
+        <v>-0.00628248576935943</v>
       </c>
     </row>
     <row r="107">
@@ -8006,10 +8006,10 @@
         <v>0.119618688489459</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0309717208722397</v>
+        <v>0.0304402061696373</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0886469676172198</v>
+        <v>0.0891784823198222</v>
       </c>
     </row>
     <row r="113">
@@ -8040,10 +8040,10 @@
         <v>0.457080174292755</v>
       </c>
       <c r="D114" t="n">
-        <v>0.175358187740194</v>
+        <v>0.179040398107408</v>
       </c>
       <c r="E114" t="n">
-        <v>0.281721986552561</v>
+        <v>0.278039776185347</v>
       </c>
     </row>
     <row r="115">
@@ -8074,10 +8074,10 @@
         <v>0.134958776221217</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0489362772748378</v>
+        <v>0.106275875655818</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0860224989463791</v>
+        <v>0.028682900565399</v>
       </c>
     </row>
     <row r="117">
@@ -8176,10 +8176,10 @@
         <v>0.212554695906905</v>
       </c>
       <c r="D122" t="n">
-        <v>0.0807272035751043</v>
+        <v>0.0547739657569411</v>
       </c>
       <c r="E122" t="n">
-        <v>0.131827492331801</v>
+        <v>0.157780730149964</v>
       </c>
     </row>
     <row r="123">
@@ -8261,10 +8261,10 @@
         <v>0.08430568242819</v>
       </c>
       <c r="D127" t="n">
-        <v>0.00460097029318854</v>
+        <v>0.00071927728086401</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0797047121350015</v>
+        <v>0.083586405147326</v>
       </c>
     </row>
     <row r="128">
@@ -8380,10 +8380,10 @@
         <v>0.0332694021376655</v>
       </c>
       <c r="D134" t="n">
-        <v>0.00280904715390779</v>
+        <v>0.000630564783570858</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0304603549837577</v>
+        <v>0.0326388373540947</v>
       </c>
     </row>
     <row r="135">
@@ -8465,10 +8465,10 @@
         <v>0.0660455144236428</v>
       </c>
       <c r="D139" t="n">
-        <v>0.0138238779969233</v>
+        <v>0.0259981126575859</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0522216364267195</v>
+        <v>0.0400474017660569</v>
       </c>
     </row>
     <row r="140">
@@ -8533,10 +8533,10 @@
         <v>0.311271185374809</v>
       </c>
       <c r="D143" t="n">
-        <v>0.244586879112181</v>
+        <v>0.265260640908441</v>
       </c>
       <c r="E143" t="n">
-        <v>0.066684306262628</v>
+        <v>0.0460105444663675</v>
       </c>
     </row>
     <row r="144">
@@ -8686,10 +8686,10 @@
         <v>0.261169002121404</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0842862560882753</v>
+        <v>0.104860678126511</v>
       </c>
       <c r="E152" t="n">
-        <v>0.176882746033128</v>
+        <v>0.156308323994893</v>
       </c>
     </row>
     <row r="153">
@@ -8737,10 +8737,10 @@
         <v>0.240588652766896</v>
       </c>
       <c r="D155" t="n">
-        <v>0.172636471003207</v>
+        <v>0.14976989824596</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0679521817636892</v>
+        <v>0.090818754520936</v>
       </c>
     </row>
     <row r="156">
@@ -8822,10 +8822,10 @@
         <v>0.176666304023714</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0932323573935498</v>
+        <v>0.112031194928038</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0834339466301643</v>
+        <v>0.0646351090956765</v>
       </c>
     </row>
     <row r="161">
@@ -8853,13 +8853,13 @@
         <v>12</v>
       </c>
       <c r="C162" t="n">
-        <v>0.194503408491456</v>
+        <v>0.243884257469857</v>
       </c>
       <c r="D162" t="n">
         <v>0.135453602195815</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0590498062956411</v>
+        <v>0.108430655274042</v>
       </c>
     </row>
     <row r="163">
@@ -8870,13 +8870,13 @@
         <v>188</v>
       </c>
       <c r="C163" t="n">
-        <v>0.201090131977449</v>
+        <v>0.238860484688243</v>
       </c>
       <c r="D163" t="n">
-        <v>0.120935158844978</v>
+        <v>0.107253669396821</v>
       </c>
       <c r="E163" t="n">
-        <v>0.0801549731324713</v>
+        <v>0.131606815291422</v>
       </c>
     </row>
     <row r="164">
@@ -8972,13 +8972,13 @@
         <v>10</v>
       </c>
       <c r="C169" t="n">
-        <v>0.219899335102521</v>
+        <v>0.242657463642131</v>
       </c>
       <c r="D169" t="n">
         <v>0.106956340287057</v>
       </c>
       <c r="E169" t="n">
-        <v>0.112942994815464</v>
+        <v>0.135701123355074</v>
       </c>
     </row>
     <row r="170">
@@ -9142,13 +9142,13 @@
         <v>288</v>
       </c>
       <c r="C179" t="n">
-        <v>0.000519044357458449</v>
+        <v>0.00315764209439108</v>
       </c>
       <c r="D179" t="n">
-        <v>0.000357756765441984</v>
+        <v>0.00290583609956374</v>
       </c>
       <c r="E179" t="n">
-        <v>0.000161287592016465</v>
+        <v>0.000251805994827336</v>
       </c>
     </row>
     <row r="180">
@@ -9176,13 +9176,13 @@
         <v>188</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0450637281915899</v>
+        <v>0.0429568475998514</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02913361216886</v>
+        <v>0.029159403768836</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0159301160227299</v>
+        <v>0.0137974438310154</v>
       </c>
     </row>
     <row r="182">
@@ -9247,10 +9247,10 @@
         <v>0.09173548470001</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0134690988889876</v>
+        <v>0.0167477743327114</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0782663858110224</v>
+        <v>0.0749877103672987</v>
       </c>
     </row>
     <row r="186">
@@ -9329,13 +9329,13 @@
         <v>65</v>
       </c>
       <c r="C190" t="n">
-        <v>0.152978719581919</v>
+        <v>0.107840103654068</v>
       </c>
       <c r="D190" t="n">
         <v>0.0831304784994975</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0698482410824218</v>
+        <v>0.0247096251545707</v>
       </c>
     </row>
     <row r="191">
@@ -9363,13 +9363,13 @@
         <v>307</v>
       </c>
       <c r="C192" t="n">
-        <v>0.102376184185952</v>
+        <v>0.113735853253859</v>
       </c>
       <c r="D192" t="n">
         <v>0.0657576263507218</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0366185578352305</v>
+        <v>0.0479782269031369</v>
       </c>
     </row>
     <row r="193">
@@ -9448,13 +9448,13 @@
         <v>250</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0234031811020704</v>
+        <v>0.00513526344588433</v>
       </c>
       <c r="D197" t="n">
         <v>0.000425848186096868</v>
       </c>
       <c r="E197" t="n">
-        <v>0.0229773329159736</v>
+        <v>0.00470941525978746</v>
       </c>
     </row>
     <row r="198">
@@ -9482,13 +9482,13 @@
         <v>315</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0872549865775991</v>
+        <v>0.0514065410968301</v>
       </c>
       <c r="D199" t="n">
         <v>0.0216408289639488</v>
       </c>
       <c r="E199" t="n">
-        <v>0.0656141576136503</v>
+        <v>0.0297657121328813</v>
       </c>
     </row>
     <row r="200">
@@ -9587,10 +9587,10 @@
         <v>0.0736307626391498</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0546579131200557</v>
+        <v>0.0411256641492746</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0189728495190941</v>
+        <v>0.0325050984898752</v>
       </c>
     </row>
     <row r="206">
@@ -9618,13 +9618,13 @@
         <v>59</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0253678108908514</v>
+        <v>0.0213744268893646</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0228623979407949</v>
+        <v>0.015491512692536</v>
       </c>
       <c r="E207" t="n">
-        <v>0.00250541295005656</v>
+        <v>0.00588291419682862</v>
       </c>
     </row>
     <row r="208">
@@ -9655,10 +9655,10 @@
         <v>0.17852833457075</v>
       </c>
       <c r="D209" t="n">
-        <v>0.119269054951044</v>
+        <v>0.107484740749587</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0592592796197061</v>
+        <v>0.0710435938211623</v>
       </c>
     </row>
     <row r="210">
@@ -9706,10 +9706,10 @@
         <v>0.143209276565084</v>
       </c>
       <c r="D212" t="n">
-        <v>0.00935087980495224</v>
+        <v>0.0308339736093762</v>
       </c>
       <c r="E212" t="n">
-        <v>0.133858396760131</v>
+        <v>0.112375302955707</v>
       </c>
     </row>
     <row r="213">
@@ -9825,10 +9825,10 @@
         <v>0.122925590462195</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0102598509324505</v>
+        <v>0.0623122584260674</v>
       </c>
       <c r="E219" t="n">
-        <v>0.112665739529745</v>
+        <v>0.0606133320361279</v>
       </c>
     </row>
     <row r="220">
@@ -9890,13 +9890,13 @@
         <v>347</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0107004844142201</v>
+        <v>0.0296867156723465</v>
       </c>
       <c r="D223" t="n">
         <v>0.0009563702647088</v>
       </c>
       <c r="E223" t="n">
-        <v>0.00974411414951126</v>
+        <v>0.0287303454076377</v>
       </c>
     </row>
     <row r="224">
@@ -9941,13 +9941,13 @@
         <v>59</v>
       </c>
       <c r="C226" t="n">
-        <v>0.108481940076791</v>
+        <v>0.111984470017044</v>
       </c>
       <c r="D226" t="n">
         <v>0.0695648968305085</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0389170432462827</v>
+        <v>0.0424195731865353</v>
       </c>
     </row>
     <row r="227">
@@ -9992,13 +9992,13 @@
         <v>279</v>
       </c>
       <c r="C229" t="n">
-        <v>0.269193363045183</v>
+        <v>0.233371955063984</v>
       </c>
       <c r="D229" t="n">
         <v>0.154087424335571</v>
       </c>
       <c r="E229" t="n">
-        <v>0.115105938709612</v>
+        <v>0.0792845307284135</v>
       </c>
     </row>
     <row r="230">
@@ -10012,10 +10012,10 @@
         <v>0.20431557372483</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0366083611638743</v>
+        <v>0.0363193312325288</v>
       </c>
       <c r="E230" t="n">
-        <v>0.167707212560956</v>
+        <v>0.167996242492301</v>
       </c>
     </row>
     <row r="231">
@@ -10060,13 +10060,13 @@
         <v>107</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0268548438649915</v>
+        <v>0.0502037901819272</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0447865462150274</v>
+        <v>0.0529159241842578</v>
       </c>
       <c r="E233" t="n">
-        <v>-0.0179317023500359</v>
+        <v>-0.00271213400233067</v>
       </c>
     </row>
     <row r="234">
@@ -10145,13 +10145,13 @@
         <v>55</v>
       </c>
       <c r="C238" t="n">
-        <v>0.199681718562182</v>
+        <v>0.242841874030073</v>
       </c>
       <c r="D238" t="n">
         <v>0.105277014600814</v>
       </c>
       <c r="E238" t="n">
-        <v>0.094404703961368</v>
+        <v>0.137564859429259</v>
       </c>
     </row>
     <row r="239">
@@ -10179,13 +10179,13 @@
         <v>250</v>
       </c>
       <c r="C240" t="n">
-        <v>0.0135262215789984</v>
+        <v>0.014174749256217</v>
       </c>
       <c r="D240" t="n">
         <v>0.014174749256217</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.000648527677218588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -10298,13 +10298,13 @@
         <v>176</v>
       </c>
       <c r="C247" t="n">
-        <v>0.000892382371585121</v>
+        <v>0.010089853324875</v>
       </c>
       <c r="D247" t="n">
         <v>0.00676225124896886</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.00586986887738374</v>
+        <v>0.00332760207590617</v>
       </c>
     </row>
     <row r="248">
@@ -10488,10 +10488,10 @@
         <v>0.0246816650473587</v>
       </c>
       <c r="D258" t="n">
-        <v>0.00646237438463683</v>
+        <v>0.00000796787914208333</v>
       </c>
       <c r="E258" t="n">
-        <v>0.0182192906627219</v>
+        <v>0.0246736971682167</v>
       </c>
     </row>
     <row r="259">
@@ -10505,10 +10505,10 @@
         <v>0.0739460420089875</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0213584560862929</v>
+        <v>0.0253154730586993</v>
       </c>
       <c r="E259" t="n">
-        <v>0.0525875859226946</v>
+        <v>0.0486305689502882</v>
       </c>
     </row>
     <row r="260">
@@ -10519,13 +10519,13 @@
         <v>21</v>
       </c>
       <c r="C260" t="n">
-        <v>0.179751337236498</v>
+        <v>0.183138642218378</v>
       </c>
       <c r="D260" t="n">
-        <v>0.0966835397884829</v>
+        <v>0.108874152704429</v>
       </c>
       <c r="E260" t="n">
-        <v>0.0830677974480154</v>
+        <v>0.0742644895139492</v>
       </c>
     </row>
     <row r="261">
@@ -10573,10 +10573,10 @@
         <v>0.0793668901391164</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0272366910985512</v>
+        <v>0.021410489177319</v>
       </c>
       <c r="E263" t="n">
-        <v>0.0521301990405653</v>
+        <v>0.0579564009617975</v>
       </c>
     </row>
   </sheetData>
@@ -10618,10 +10618,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.207518751766533</v>
+        <v>0.207518751766532</v>
       </c>
       <c r="D2" t="n">
-        <v>0.113480941121055</v>
+        <v>0.113480941121054</v>
       </c>
       <c r="E2" t="n">
         <v>0.0940378106454779</v>
@@ -10655,7 +10655,7 @@
         <v>0.379731963421773</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19762987160493</v>
+        <v>0.197629871604929</v>
       </c>
       <c r="E4" t="n">
         <v>0.182102091816843</v>
@@ -10686,13 +10686,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0426163866006746</v>
+        <v>0.0550492223892534</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0386829521112911</v>
+        <v>0.0385573541580428</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0039334344893836</v>
+        <v>0.0164918682312105</v>
       </c>
     </row>
     <row r="7">
@@ -10703,13 +10703,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.052467938557014</v>
+        <v>0.0524679385570146</v>
       </c>
       <c r="D7" t="n">
-        <v>0.023524867890556</v>
+        <v>0.0235248678905555</v>
       </c>
       <c r="E7" t="n">
-        <v>0.028943070666458</v>
+        <v>0.0289430706664591</v>
       </c>
     </row>
     <row r="8">
@@ -10720,13 +10720,13 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0237185729896893</v>
+        <v>0.0271539332339634</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00532080559833736</v>
+        <v>0.00661432041287097</v>
       </c>
       <c r="E8" t="n">
-        <v>0.018397767391352</v>
+        <v>0.0205396128210925</v>
       </c>
     </row>
     <row r="9">
@@ -10737,13 +10737,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.194007633607206</v>
+        <v>0.194007633607205</v>
       </c>
       <c r="D9" t="n">
         <v>0.128719823376128</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0652878102310773</v>
+        <v>0.0652878102310772</v>
       </c>
     </row>
     <row r="10">
@@ -10777,7 +10777,7 @@
         <v>0.183662299511947</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0398701226373456</v>
+        <v>0.0398701226373455</v>
       </c>
     </row>
     <row r="12">
@@ -10788,13 +10788,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0261445036048869</v>
+        <v>0.0261445036048866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0117862994106894</v>
+        <v>0.0117862994106896</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0143582041941975</v>
+        <v>0.014358204194197</v>
       </c>
     </row>
     <row r="13">
@@ -10805,13 +10805,13 @@
         <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00277666605293854</v>
+        <v>0.000841323368325102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0134226741249627</v>
+        <v>0.00864352078386522</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0106460080720241</v>
+        <v>-0.00780219741554012</v>
       </c>
     </row>
     <row r="14">
@@ -10839,7 +10839,7 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0595642632941546</v>
+        <v>0.0595642632941545</v>
       </c>
       <c r="D15" t="n">
         <v>0.0307689208713793</v>
@@ -10856,13 +10856,13 @@
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>0.163330991873306</v>
+        <v>0.171023392237231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0844327425678637</v>
+        <v>0.0844327425678639</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0788982493054424</v>
+        <v>0.0865906496693668</v>
       </c>
     </row>
     <row r="17">
@@ -10873,13 +10873,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0444895294200803</v>
+        <v>0.0446110959792552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0283857906663545</v>
+        <v>0.0283857906663548</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0161037387537258</v>
+        <v>0.0162253053129004</v>
       </c>
     </row>
     <row r="18">
@@ -10890,13 +10890,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>0.151383636136994</v>
+        <v>0.144146514142914</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0506258943615799</v>
+        <v>0.05062589436158</v>
       </c>
       <c r="E18" t="n">
-        <v>0.100757741775414</v>
+        <v>0.093520619781334</v>
       </c>
     </row>
     <row r="19">
@@ -10930,7 +10930,7 @@
         <v>0.114572170070883</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0481418601656348</v>
+        <v>0.0481418601656353</v>
       </c>
     </row>
     <row r="21">
@@ -10941,13 +10941,13 @@
         <v>40</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0498056750088415</v>
+        <v>0.049805675008842</v>
       </c>
       <c r="D21" t="n">
         <v>0.0190779841874491</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0307276908213924</v>
+        <v>0.0307276908213929</v>
       </c>
     </row>
     <row r="22">
@@ -10961,10 +10961,10 @@
         <v>0.0190738365157561</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00583543322450774</v>
+        <v>0.00583543322450819</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0132384032912484</v>
+        <v>0.0132384032912479</v>
       </c>
     </row>
     <row r="23">
@@ -10975,13 +10975,13 @@
         <v>44</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0446048129920865</v>
+        <v>0.0446048129920861</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0131144749887141</v>
+        <v>0.0131144749887144</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0314903380033723</v>
+        <v>0.0314903380033717</v>
       </c>
     </row>
     <row r="24">
@@ -11077,13 +11077,13 @@
         <v>21</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0199495002432288</v>
+        <v>0.0199495002432291</v>
       </c>
       <c r="D29" t="n">
-        <v>0.00639778048788436</v>
+        <v>0.00639778048788453</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0135517197553445</v>
+        <v>0.0135517197553446</v>
       </c>
     </row>
     <row r="30">
@@ -11111,13 +11111,13 @@
         <v>57</v>
       </c>
       <c r="C31" t="n">
-        <v>0.20997858032663</v>
+        <v>0.209978580326631</v>
       </c>
       <c r="D31" t="n">
         <v>0.13548806144067</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0744905188859605</v>
+        <v>0.0744905188859606</v>
       </c>
     </row>
     <row r="32">
@@ -11131,10 +11131,10 @@
         <v>0.0737276590641491</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0528104879023586</v>
+        <v>0.056779564545234</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0209171711617905</v>
+        <v>0.0169480945189152</v>
       </c>
     </row>
     <row r="33">
@@ -11179,13 +11179,13 @@
         <v>63</v>
       </c>
       <c r="C35" t="n">
-        <v>0.083694673097307</v>
+        <v>0.0836946730973071</v>
       </c>
       <c r="D35" t="n">
         <v>0.0392390897336215</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0444555833636855</v>
+        <v>0.0444555833636856</v>
       </c>
     </row>
     <row r="36">
@@ -11196,13 +11196,13 @@
         <v>65</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06340669236504</v>
+        <v>0.0634066923650403</v>
       </c>
       <c r="D36" t="n">
         <v>0.0550704668103164</v>
       </c>
       <c r="E36" t="n">
-        <v>0.00833622555472366</v>
+        <v>0.00833622555472391</v>
       </c>
     </row>
     <row r="37">
@@ -11216,7 +11216,7 @@
         <v>0.147352109167951</v>
       </c>
       <c r="D37" t="n">
-        <v>0.095167495123665</v>
+        <v>0.0951674951236651</v>
       </c>
       <c r="E37" t="n">
         <v>0.0521846140442855</v>
@@ -11230,13 +11230,13 @@
         <v>68</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0262094565746897</v>
+        <v>0.0262094565746889</v>
       </c>
       <c r="D38" t="n">
-        <v>0.00434971495329144</v>
+        <v>0.00434971495329141</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0218597416213982</v>
+        <v>0.0218597416213975</v>
       </c>
     </row>
     <row r="39">
@@ -11247,13 +11247,13 @@
         <v>70</v>
       </c>
       <c r="C39" t="n">
-        <v>0.045271796764318</v>
+        <v>0.0439310139573082</v>
       </c>
       <c r="D39" t="n">
         <v>0.0279196866861985</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0173521100781195</v>
+        <v>0.0160113272711097</v>
       </c>
     </row>
     <row r="40">
@@ -11264,13 +11264,13 @@
         <v>72</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0472895042297417</v>
+        <v>0.0372500923927574</v>
       </c>
       <c r="D40" t="n">
-        <v>0.065771936903227</v>
+        <v>0.0502501106646408</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.0184824326734854</v>
+        <v>-0.0130000182718835</v>
       </c>
     </row>
     <row r="41">
@@ -11281,13 +11281,13 @@
         <v>74</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0152593341471263</v>
+        <v>0.0152593341471264</v>
       </c>
       <c r="D41" t="n">
-        <v>0.00141467579189457</v>
+        <v>0.0000357893504556376</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0138446583552317</v>
+        <v>0.0152235447966708</v>
       </c>
     </row>
     <row r="42">
@@ -11298,13 +11298,13 @@
         <v>76</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0589817176141048</v>
+        <v>0.0589817176141047</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0317539106353444</v>
+        <v>0.0193525261423422</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0272278069787604</v>
+        <v>0.0396291914717624</v>
       </c>
     </row>
     <row r="43">
@@ -11315,13 +11315,13 @@
         <v>78</v>
       </c>
       <c r="C43" t="n">
-        <v>0.148318149404697</v>
+        <v>0.141460153855276</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0745867756420864</v>
+        <v>0.0745867756420863</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0737313737626106</v>
+        <v>0.0668733782131898</v>
       </c>
     </row>
     <row r="44">
@@ -11332,10 +11332,10 @@
         <v>80</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0181792396336931</v>
+        <v>0.0181792396336932</v>
       </c>
       <c r="D44" t="n">
-        <v>0.00432297839495376</v>
+        <v>0.00432297839495377</v>
       </c>
       <c r="E44" t="n">
         <v>0.0138562612387394</v>
@@ -11349,13 +11349,13 @@
         <v>80</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0233995938411573</v>
+        <v>0.0233995938411564</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0195488904807937</v>
+        <v>0.0195488904807933</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00385070336036358</v>
+        <v>0.00385070336036314</v>
       </c>
     </row>
     <row r="46">
@@ -11369,10 +11369,10 @@
         <v>0.100729950461068</v>
       </c>
       <c r="D46" t="n">
-        <v>0.086805694832419</v>
+        <v>0.0831087380236853</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0139242556286485</v>
+        <v>0.0176212124373822</v>
       </c>
     </row>
     <row r="47">
@@ -11383,13 +11383,13 @@
         <v>85</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0660783722902827</v>
+        <v>0.066078372290283</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0242207225509646</v>
+        <v>0.0242207225509647</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0418576497393181</v>
+        <v>0.0418576497393183</v>
       </c>
     </row>
     <row r="48">
@@ -11403,10 +11403,10 @@
         <v>0.150632425655799</v>
       </c>
       <c r="D48" t="n">
-        <v>0.11298698440407</v>
+        <v>0.102180688014371</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0376454412517291</v>
+        <v>0.0484517376414276</v>
       </c>
     </row>
     <row r="49">
@@ -11417,13 +11417,13 @@
         <v>21</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0936403938992973</v>
+        <v>0.0974736774004757</v>
       </c>
       <c r="D49" t="n">
         <v>0.0980300913365237</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.00438969743722639</v>
+        <v>-0.000556413936047981</v>
       </c>
     </row>
     <row r="50">
@@ -11485,13 +11485,13 @@
         <v>95</v>
       </c>
       <c r="C53" t="n">
-        <v>0.105117651961386</v>
+        <v>0.105117651961387</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0571028571754353</v>
+        <v>0.0571028571754356</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0480147947859509</v>
+        <v>0.0480147947859516</v>
       </c>
     </row>
     <row r="54">
@@ -11519,13 +11519,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0399937649224428</v>
+        <v>0.0399937649224427</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0488805461852132</v>
+        <v>0.0426907385227267</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.00888678126277039</v>
+        <v>-0.00269697360028396</v>
       </c>
     </row>
     <row r="56">
@@ -11556,10 +11556,10 @@
         <v>0.0803893156617211</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0584029160666851</v>
+        <v>0.0663664814174951</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0219863995950359</v>
+        <v>0.014022834244226</v>
       </c>
     </row>
     <row r="58">
@@ -11570,13 +11570,13 @@
         <v>104</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0751518208359324</v>
+        <v>0.0731960894820261</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0765886309099034</v>
+        <v>0.076636338510597</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.00143681007397095</v>
+        <v>-0.00344024902857094</v>
       </c>
     </row>
     <row r="59">
@@ -11587,13 +11587,13 @@
         <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146090346432845</v>
+        <v>0.137085420279258</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0842131418678013</v>
+        <v>0.084213141867801</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0618772045650437</v>
+        <v>0.0528722784114567</v>
       </c>
     </row>
     <row r="60">
@@ -11604,13 +11604,13 @@
         <v>107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0388162149377582</v>
+        <v>0.0388162149377589</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0129619763927399</v>
+        <v>0.0129619763927403</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0258542385450182</v>
+        <v>0.0258542385450186</v>
       </c>
     </row>
     <row r="61">
@@ -11621,13 +11621,13 @@
         <v>109</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0579067272128157</v>
+        <v>0.0579067272128155</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0447577359902051</v>
+        <v>0.0447577359902053</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0131489912226105</v>
+        <v>0.0131489912226102</v>
       </c>
     </row>
     <row r="62">
@@ -11641,10 +11641,10 @@
         <v>0.0605266981470183</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0526062209003387</v>
+        <v>0.0526062209003396</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00792047724667958</v>
+        <v>0.00792047724667871</v>
       </c>
     </row>
     <row r="63">
@@ -11655,13 +11655,13 @@
         <v>113</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0494565247197359</v>
+        <v>0.0494565247197356</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0401568422232891</v>
+        <v>0.0401568422232888</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00929968249644685</v>
+        <v>0.0092996824964468</v>
       </c>
     </row>
     <row r="64">
@@ -11672,13 +11672,13 @@
         <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0259452881206355</v>
+        <v>0.0259452881206352</v>
       </c>
       <c r="D64" t="n">
         <v>0.011604181519483</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0143411066011525</v>
+        <v>0.0143411066011522</v>
       </c>
     </row>
     <row r="65">
@@ -11692,10 +11692,10 @@
         <v>0.176791923137649</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0652066159791703</v>
+        <v>0.0652066159791702</v>
       </c>
       <c r="E65" t="n">
-        <v>0.111585307158478</v>
+        <v>0.111585307158479</v>
       </c>
     </row>
     <row r="66">
@@ -11723,13 +11723,13 @@
         <v>119</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000158507203086438</v>
+        <v>0.000158507203086458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.00326771461970966</v>
+        <v>0.00326771461970956</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.00310920741662322</v>
+        <v>-0.0031092074166231</v>
       </c>
     </row>
     <row r="68">
@@ -11757,13 +11757,13 @@
         <v>123</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0692280928696036</v>
+        <v>0.0692280928696039</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0554692386289803</v>
+        <v>0.0554692386289801</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0137588542406233</v>
+        <v>0.0137588542406238</v>
       </c>
     </row>
     <row r="70">
@@ -11808,13 +11808,13 @@
         <v>10</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0674982566292801</v>
+        <v>0.06749825662928</v>
       </c>
       <c r="D72" t="n">
-        <v>0.035401570521227</v>
+        <v>0.0354015705212272</v>
       </c>
       <c r="E72" t="n">
-        <v>0.032096686108053</v>
+        <v>0.0320966861080528</v>
       </c>
     </row>
     <row r="73">
@@ -11825,13 +11825,13 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0270295622459966</v>
+        <v>0.0270295622459967</v>
       </c>
       <c r="D73" t="n">
         <v>0.0187624577836374</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00826710446235923</v>
+        <v>0.00826710446235937</v>
       </c>
     </row>
     <row r="74">
@@ -11862,10 +11862,10 @@
         <v>0.0968115919253231</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0673768714394398</v>
+        <v>0.06737687143944</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0294347204858833</v>
+        <v>0.0294347204858831</v>
       </c>
     </row>
     <row r="76">
@@ -11876,13 +11876,13 @@
         <v>23</v>
       </c>
       <c r="C76" t="n">
-        <v>0.205407755599786</v>
+        <v>0.202647540363547</v>
       </c>
       <c r="D76" t="n">
-        <v>0.157387032754423</v>
+        <v>0.160731160091892</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0480207228453628</v>
+        <v>0.0419163802716548</v>
       </c>
     </row>
     <row r="77">
@@ -11930,10 +11930,10 @@
         <v>0.110466428687655</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0801121655996589</v>
+        <v>0.0801121655996591</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0303542630879962</v>
+        <v>0.0303542630879963</v>
       </c>
     </row>
     <row r="80">
@@ -11944,13 +11944,13 @@
         <v>138</v>
       </c>
       <c r="C80" t="n">
-        <v>0.159199929854318</v>
+        <v>0.15254692979889</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0368571515008951</v>
+        <v>0.0335978852303229</v>
       </c>
       <c r="E80" t="n">
-        <v>0.122342778353423</v>
+        <v>0.118949044568568</v>
       </c>
     </row>
     <row r="81">
@@ -11964,7 +11964,7 @@
         <v>0.0176707306868082</v>
       </c>
       <c r="D81" t="n">
-        <v>0.00641366836522476</v>
+        <v>0.0064136683652248</v>
       </c>
       <c r="E81" t="n">
         <v>0.0112570623215834</v>
@@ -11978,13 +11978,13 @@
         <v>10</v>
       </c>
       <c r="C82" t="n">
-        <v>0.201211327920707</v>
+        <v>0.203396490746946</v>
       </c>
       <c r="D82" t="n">
-        <v>0.137974211949754</v>
+        <v>0.137974211949755</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0632371159709522</v>
+        <v>0.0654222787971908</v>
       </c>
     </row>
     <row r="83">
@@ -11995,13 +11995,13 @@
         <v>143</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0182566616561631</v>
+        <v>0.0182566616561629</v>
       </c>
       <c r="D83" t="n">
-        <v>0.00934335929255829</v>
+        <v>0.00934335929255828</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00891330236360483</v>
+        <v>0.00891330236360458</v>
       </c>
     </row>
     <row r="84">
@@ -12063,13 +12063,13 @@
         <v>90</v>
       </c>
       <c r="C87" t="n">
-        <v>0.151431675757275</v>
+        <v>0.142079201355992</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0955705507352762</v>
+        <v>0.0955705507352766</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0558611250219991</v>
+        <v>0.0465086506207152</v>
       </c>
     </row>
     <row r="88">
@@ -12080,13 +12080,13 @@
         <v>12</v>
       </c>
       <c r="C88" t="n">
-        <v>0.081399921505591</v>
+        <v>0.0813999215055912</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0485092318887977</v>
+        <v>0.0485092318887982</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0328906896167933</v>
+        <v>0.032890689616793</v>
       </c>
     </row>
     <row r="89">
@@ -12097,13 +12097,13 @@
         <v>97</v>
       </c>
       <c r="C89" t="n">
-        <v>0.060527252023232</v>
+        <v>0.0605272520232319</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0478588693856257</v>
+        <v>0.0478588693856259</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0126683826376063</v>
+        <v>0.012668382637606</v>
       </c>
     </row>
     <row r="90">
@@ -12114,13 +12114,13 @@
         <v>152</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0107849803501141</v>
+        <v>0.0107849803501148</v>
       </c>
       <c r="D90" t="n">
-        <v>0.00930287375684544</v>
+        <v>0.00930287375684535</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00148210659326868</v>
+        <v>0.00148210659326945</v>
       </c>
     </row>
     <row r="91">
@@ -12137,7 +12137,7 @@
         <v>0.316532281616771</v>
       </c>
       <c r="E91" t="n">
-        <v>0.0389498381158727</v>
+        <v>0.0389498381158722</v>
       </c>
     </row>
     <row r="92">
@@ -12165,13 +12165,13 @@
         <v>157</v>
       </c>
       <c r="C93" t="n">
-        <v>0.076509481291745</v>
+        <v>0.0765094812917446</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0863269464755321</v>
+        <v>0.086326946475532</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.00981746518378709</v>
+        <v>-0.00981746518378745</v>
       </c>
     </row>
     <row r="94">
@@ -12182,13 +12182,13 @@
         <v>90</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0837734594489559</v>
+        <v>0.0837734594489562</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0179443900045952</v>
+        <v>0.0179443900045955</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0658290694443607</v>
+        <v>0.0658290694443606</v>
       </c>
     </row>
     <row r="95">
@@ -12284,13 +12284,13 @@
         <v>123</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0741751269306842</v>
+        <v>0.0741751269306844</v>
       </c>
       <c r="D100" t="n">
         <v>0.0648600659721704</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00931506095851381</v>
+        <v>0.00931506095851405</v>
       </c>
     </row>
     <row r="101">
@@ -12301,13 +12301,13 @@
         <v>168</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0292296613602858</v>
+        <v>0.0292296613602863</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0214788736368198</v>
+        <v>0.0214788736368197</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00775078772346601</v>
+        <v>0.00775078772346655</v>
       </c>
     </row>
     <row r="102">
@@ -12321,10 +12321,10 @@
         <v>0.00539453419499875</v>
       </c>
       <c r="D102" t="n">
-        <v>0.00629457947960884</v>
+        <v>0.0167025469942977</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.000900045284610092</v>
+        <v>-0.0113080127992989</v>
       </c>
     </row>
     <row r="103">
@@ -12335,10 +12335,10 @@
         <v>21</v>
       </c>
       <c r="C103" t="n">
-        <v>0.0805088935957923</v>
+        <v>0.0805088935957925</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0714415098141692</v>
+        <v>0.0714415098141694</v>
       </c>
       <c r="E103" t="n">
         <v>0.0090673837816231</v>
@@ -12352,10 +12352,10 @@
         <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>0.220501373524182</v>
+        <v>0.220501373524181</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0696130180741992</v>
+        <v>0.0696130180741993</v>
       </c>
       <c r="E104" t="n">
         <v>0.150888355449982</v>
@@ -12372,10 +12372,10 @@
         <v>0.0522249924561587</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0318741265795068</v>
+        <v>0.0318741265795067</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0203508658766519</v>
+        <v>0.020350865876652</v>
       </c>
     </row>
     <row r="106">
@@ -12403,13 +12403,13 @@
         <v>176</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1514278022663</v>
+        <v>0.151427802266299</v>
       </c>
       <c r="D107" t="n">
         <v>0.104281774156104</v>
       </c>
       <c r="E107" t="n">
-        <v>0.047146028110196</v>
+        <v>0.0471460281101952</v>
       </c>
     </row>
     <row r="108">
@@ -12423,10 +12423,10 @@
         <v>0.0188088510551636</v>
       </c>
       <c r="D108" t="n">
-        <v>0.00252962602166446</v>
+        <v>0.00075944872412508</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0162792250334991</v>
+        <v>0.0180494023310385</v>
       </c>
     </row>
     <row r="109">
@@ -12454,13 +12454,13 @@
         <v>181</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0789480049512699</v>
+        <v>0.07894800495127</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0656214125338357</v>
+        <v>0.0656214125338352</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0133265924174342</v>
+        <v>0.0133265924174348</v>
       </c>
     </row>
     <row r="111">
@@ -12471,13 +12471,13 @@
         <v>183</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0135485883296551</v>
+        <v>0.013548588329655</v>
       </c>
       <c r="D111" t="n">
-        <v>0.00393561844842231</v>
+        <v>0.00393561844842247</v>
       </c>
       <c r="E111" t="n">
-        <v>0.00961296988123279</v>
+        <v>0.00961296988123257</v>
       </c>
     </row>
     <row r="112">
@@ -12491,10 +12491,10 @@
         <v>0.128129437957132</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0427573938273315</v>
+        <v>0.0427573938273321</v>
       </c>
       <c r="E112" t="n">
-        <v>0.0853720441298006</v>
+        <v>0.0853720441298</v>
       </c>
     </row>
     <row r="113">
@@ -12505,13 +12505,13 @@
         <v>186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0504505840448929</v>
+        <v>0.0504505840448927</v>
       </c>
       <c r="D113" t="n">
         <v>0.0334366338271499</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0170139502177429</v>
+        <v>0.0170139502177428</v>
       </c>
     </row>
     <row r="114">
@@ -12522,13 +12522,13 @@
         <v>188</v>
       </c>
       <c r="C114" t="n">
-        <v>0.38078207265583</v>
+        <v>0.380782072655831</v>
       </c>
       <c r="D114" t="n">
         <v>0.198877602514455</v>
       </c>
       <c r="E114" t="n">
-        <v>0.181904470141375</v>
+        <v>0.181904470141376</v>
       </c>
     </row>
     <row r="115">
@@ -12576,10 +12576,10 @@
         <v>0.112062396675094</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0350236680055966</v>
+        <v>0.0350236680055975</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0770387286694972</v>
+        <v>0.0770387286694965</v>
       </c>
     </row>
     <row r="118">
@@ -12596,7 +12596,7 @@
         <v>0.164466475468861</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0600016113559789</v>
+        <v>0.060001611355979</v>
       </c>
     </row>
     <row r="119">
@@ -12610,10 +12610,10 @@
         <v>0.142777707461514</v>
       </c>
       <c r="D119" t="n">
-        <v>0.118922568444523</v>
+        <v>0.118922568444524</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0238551390169906</v>
+        <v>0.0238551390169902</v>
       </c>
     </row>
     <row r="120">
@@ -12647,7 +12647,7 @@
         <v>0.0277199393965996</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0220531409664051</v>
+        <v>0.022053140966405</v>
       </c>
     </row>
     <row r="122">
@@ -12675,13 +12675,13 @@
         <v>203</v>
       </c>
       <c r="C123" t="n">
-        <v>0.0307473818349954</v>
+        <v>0.0307473818349957</v>
       </c>
       <c r="D123" t="n">
-        <v>0.0493786750683363</v>
+        <v>0.0353273105591409</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.0186312932333409</v>
+        <v>-0.00457992872414519</v>
       </c>
     </row>
     <row r="124">
@@ -12712,10 +12712,10 @@
         <v>0.135187264534299</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0927208385858429</v>
+        <v>0.0927208385858435</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0424664259484559</v>
+        <v>0.0424664259484551</v>
       </c>
     </row>
     <row r="126">
@@ -12726,13 +12726,13 @@
         <v>52</v>
       </c>
       <c r="C126" t="n">
-        <v>0.0046884433050895</v>
+        <v>0.00468844330508938</v>
       </c>
       <c r="D126" t="n">
-        <v>0.000826139408248374</v>
+        <v>0.000582710753224978</v>
       </c>
       <c r="E126" t="n">
-        <v>0.00386230389684112</v>
+        <v>0.0041057325518644</v>
       </c>
     </row>
     <row r="127">
@@ -12743,13 +12743,13 @@
         <v>209</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0522892239584558</v>
+        <v>0.0477299619823062</v>
       </c>
       <c r="D127" t="n">
         <v>0.00403954088743994</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0482496830710159</v>
+        <v>0.0436904210948663</v>
       </c>
     </row>
     <row r="128">
@@ -12777,13 +12777,13 @@
         <v>213</v>
       </c>
       <c r="C129" t="n">
-        <v>0.191624710870881</v>
+        <v>0.1999190177809</v>
       </c>
       <c r="D129" t="n">
         <v>0.147774220102571</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0438504907683102</v>
+        <v>0.0521447976783284</v>
       </c>
     </row>
     <row r="130">
@@ -12794,13 +12794,13 @@
         <v>191</v>
       </c>
       <c r="C130" t="n">
-        <v>0.0376402758102835</v>
+        <v>0.0376740361304329</v>
       </c>
       <c r="D130" t="n">
-        <v>0.0207736878886567</v>
+        <v>0.0262778241192797</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0168665879216269</v>
+        <v>0.0113962120111531</v>
       </c>
     </row>
     <row r="131">
@@ -12811,13 +12811,13 @@
         <v>216</v>
       </c>
       <c r="C131" t="n">
-        <v>0.00700873435818525</v>
+        <v>0.00700873435818529</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0000718190860074741</v>
+        <v>0.0000718190860074864</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00693691527217778</v>
+        <v>0.00693691527217781</v>
       </c>
     </row>
     <row r="132">
@@ -12828,13 +12828,13 @@
         <v>42</v>
       </c>
       <c r="C132" t="n">
-        <v>0.0531414129325667</v>
+        <v>0.14079724656502</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0242012228902751</v>
+        <v>0.0611017055415342</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0289401900422916</v>
+        <v>0.0796955410234855</v>
       </c>
     </row>
     <row r="133">
@@ -12845,13 +12845,13 @@
         <v>80</v>
       </c>
       <c r="C133" t="n">
-        <v>0.00552712165931081</v>
+        <v>0.00552712165931072</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00105909942762668</v>
+        <v>0.00105909942762665</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00446802223168413</v>
+        <v>0.00446802223168407</v>
       </c>
     </row>
     <row r="134">
@@ -12885,7 +12885,7 @@
         <v>0.124270463727122</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0528895735235497</v>
+        <v>0.0528895735235499</v>
       </c>
     </row>
     <row r="136">
@@ -12896,13 +12896,13 @@
         <v>224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.318073644902404</v>
+        <v>0.318073644902405</v>
       </c>
       <c r="D136" t="n">
         <v>0.116958947623727</v>
       </c>
       <c r="E136" t="n">
-        <v>0.201114697278676</v>
+        <v>0.201114697278678</v>
       </c>
     </row>
     <row r="137">
@@ -12913,13 +12913,13 @@
         <v>226</v>
       </c>
       <c r="C137" t="n">
-        <v>0.0742000500293059</v>
+        <v>0.0742000500293063</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0403109664843424</v>
+        <v>0.0234252055852</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0338890835449634</v>
+        <v>0.0507748444441063</v>
       </c>
     </row>
     <row r="138">
@@ -12930,13 +12930,13 @@
         <v>228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.0899827620912048</v>
+        <v>0.0899827620912052</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0364204443115849</v>
+        <v>0.0364204443115851</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0535623177796198</v>
+        <v>0.0535623177796201</v>
       </c>
     </row>
     <row r="139">
@@ -12967,10 +12967,10 @@
         <v>0.0890474008863704</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0574323563549871</v>
+        <v>0.06326038292671</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0316150445313834</v>
+        <v>0.0257870179596604</v>
       </c>
     </row>
     <row r="141">
@@ -12984,10 +12984,10 @@
         <v>0.0765025357805469</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0579186890443192</v>
+        <v>0.0579186890443194</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0185838467362277</v>
+        <v>0.0185838467362275</v>
       </c>
     </row>
     <row r="142">
@@ -13052,10 +13052,10 @@
         <v>0.0458264361716494</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0305895030789749</v>
+        <v>0.0277683499843927</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0152369330926744</v>
+        <v>0.0180580861872567</v>
       </c>
     </row>
     <row r="146">
@@ -13083,13 +13083,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>0.368605481331043</v>
+        <v>0.368605481331042</v>
       </c>
       <c r="D147" t="n">
         <v>0.291961622786083</v>
       </c>
       <c r="E147" t="n">
-        <v>0.07664385854496</v>
+        <v>0.0766438585449591</v>
       </c>
     </row>
     <row r="148">
@@ -13134,13 +13134,13 @@
         <v>248</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0802218190682287</v>
+        <v>0.080221819068229</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0588904815757902</v>
+        <v>0.05889048157579</v>
       </c>
       <c r="E150" t="n">
-        <v>0.0213313374924385</v>
+        <v>0.021331337492439</v>
       </c>
     </row>
     <row r="151">
@@ -13225,7 +13225,7 @@
         <v>0.114938967546448</v>
       </c>
       <c r="E155" t="n">
-        <v>0.0852732800695845</v>
+        <v>0.0852732800695846</v>
       </c>
     </row>
     <row r="156">
@@ -13236,13 +13236,13 @@
         <v>17</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0205083255661717</v>
+        <v>0.0205083255661718</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0277055133800338</v>
+        <v>0.0277055133800336</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.00719718781386206</v>
+        <v>-0.00719718781386188</v>
       </c>
     </row>
     <row r="157">
@@ -13253,10 +13253,10 @@
         <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0431099764874647</v>
+        <v>0.0431099764874648</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0120768098747784</v>
+        <v>0.0120768098747785</v>
       </c>
       <c r="E157" t="n">
         <v>0.0310331666126863</v>
@@ -13324,10 +13324,10 @@
         <v>0.130179236113939</v>
       </c>
       <c r="D161" t="n">
-        <v>0.123489756552455</v>
+        <v>0.123489756552456</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00668947956148346</v>
+        <v>0.00668947956148257</v>
       </c>
     </row>
     <row r="162">
@@ -13406,13 +13406,13 @@
         <v>270</v>
       </c>
       <c r="C166" t="n">
-        <v>0.0186959302067383</v>
+        <v>0.0186959302067384</v>
       </c>
       <c r="D166" t="n">
-        <v>0.000124837221573295</v>
+        <v>0.000124837221573294</v>
       </c>
       <c r="E166" t="n">
-        <v>0.018571092985165</v>
+        <v>0.0185710929851651</v>
       </c>
     </row>
     <row r="167">
@@ -13426,10 +13426,10 @@
         <v>0.164667993400652</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0946151883012568</v>
+        <v>0.0946151883012565</v>
       </c>
       <c r="E167" t="n">
-        <v>0.0700528050993948</v>
+        <v>0.070052805099395</v>
       </c>
     </row>
     <row r="168">
@@ -13443,10 +13443,10 @@
         <v>0.140000017528421</v>
       </c>
       <c r="D168" t="n">
-        <v>0.145437969425031</v>
+        <v>0.131054181050903</v>
       </c>
       <c r="E168" t="n">
-        <v>-0.00543795189660953</v>
+        <v>0.00894583647751807</v>
       </c>
     </row>
     <row r="169">
@@ -13460,10 +13460,10 @@
         <v>0.288761276466288</v>
       </c>
       <c r="D169" t="n">
-        <v>0.184926148585751</v>
+        <v>0.173753797147769</v>
       </c>
       <c r="E169" t="n">
-        <v>0.103835127880538</v>
+        <v>0.11500747931852</v>
       </c>
     </row>
     <row r="170">
@@ -13474,13 +13474,13 @@
         <v>275</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0341210719094924</v>
+        <v>0.0341210719094925</v>
       </c>
       <c r="D170" t="n">
         <v>0.0266783261023887</v>
       </c>
       <c r="E170" t="n">
-        <v>0.00744274580710362</v>
+        <v>0.00744274580710376</v>
       </c>
     </row>
     <row r="171">
@@ -13491,13 +13491,13 @@
         <v>241</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0519618211977347</v>
+        <v>0.0519618211977351</v>
       </c>
       <c r="D171" t="n">
-        <v>0.00256477735153615</v>
+        <v>0.00256477735153608</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0493970438461986</v>
+        <v>0.049397043846199</v>
       </c>
     </row>
     <row r="172">
@@ -13579,7 +13579,7 @@
         <v>0.145421392979403</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0178476792606964</v>
+        <v>0.017847679260697</v>
       </c>
       <c r="E176" t="n">
         <v>0.127573713718706</v>
@@ -13596,10 +13596,10 @@
         <v>0.0796261280198821</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0333755404054921</v>
+        <v>0.0333755404054927</v>
       </c>
       <c r="E177" t="n">
-        <v>0.04625058761439</v>
+        <v>0.0462505876143894</v>
       </c>
     </row>
     <row r="178">
@@ -13644,13 +13644,13 @@
         <v>290</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0252885912952655</v>
+        <v>0.0252885912952657</v>
       </c>
       <c r="D180" t="n">
-        <v>0.00853238567557286</v>
+        <v>0.00853238567557274</v>
       </c>
       <c r="E180" t="n">
-        <v>0.0167562056196927</v>
+        <v>0.0167562056196929</v>
       </c>
     </row>
     <row r="181">
@@ -13678,13 +13678,13 @@
         <v>188</v>
       </c>
       <c r="C182" t="n">
-        <v>0.00177363576613211</v>
+        <v>0.00377880155794698</v>
       </c>
       <c r="D182" t="n">
-        <v>0.000000128431816723295</v>
+        <v>0.000993956786399431</v>
       </c>
       <c r="E182" t="n">
-        <v>0.00177350733431539</v>
+        <v>0.00278484477154755</v>
       </c>
     </row>
     <row r="183">
@@ -13695,13 +13695,13 @@
         <v>294</v>
       </c>
       <c r="C183" t="n">
-        <v>0.00550691986992893</v>
+        <v>0.0108309017575154</v>
       </c>
       <c r="D183" t="n">
-        <v>0.00486887353676999</v>
+        <v>0.0123858180522168</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000638046333158944</v>
+        <v>-0.00155491629470141</v>
       </c>
     </row>
     <row r="184">
@@ -13715,7 +13715,7 @@
         <v>0.195830884123433</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0862018166902118</v>
+        <v>0.086201816690212</v>
       </c>
       <c r="E184" t="n">
         <v>0.109629067433221</v>
@@ -13729,13 +13729,13 @@
         <v>297</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0635887474235887</v>
+        <v>0.0635887474235886</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0089856903478103</v>
+        <v>0.00898569034781032</v>
       </c>
       <c r="E185" t="n">
-        <v>0.0546030570757784</v>
+        <v>0.0546030570757782</v>
       </c>
     </row>
     <row r="186">
@@ -13749,10 +13749,10 @@
         <v>0.214805297276613</v>
       </c>
       <c r="D186" t="n">
-        <v>0.177552313780806</v>
+        <v>0.177552313780805</v>
       </c>
       <c r="E186" t="n">
-        <v>0.0372529834958076</v>
+        <v>0.0372529834958074</v>
       </c>
     </row>
     <row r="187">
@@ -13769,7 +13769,7 @@
         <v>0.122608582602025</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0796190771885479</v>
+        <v>0.0796190771885483</v>
       </c>
     </row>
     <row r="188">
@@ -13803,7 +13803,7 @@
         <v>0.103520752172786</v>
       </c>
       <c r="E189" t="n">
-        <v>0.0108358526843452</v>
+        <v>0.0108358526843453</v>
       </c>
     </row>
     <row r="190">
@@ -13814,13 +13814,13 @@
         <v>65</v>
       </c>
       <c r="C190" t="n">
-        <v>0.140066041582903</v>
+        <v>0.127083907178115</v>
       </c>
       <c r="D190" t="n">
         <v>0.122048821072883</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01801722051002</v>
+        <v>0.00503508610523171</v>
       </c>
     </row>
     <row r="191">
@@ -13837,7 +13837,7 @@
         <v>0.0412437536393504</v>
       </c>
       <c r="E191" t="n">
-        <v>-0.000812852314482027</v>
+        <v>-0.000812852314482033</v>
       </c>
     </row>
     <row r="192">
@@ -13848,13 +13848,13 @@
         <v>307</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0647407308927576</v>
+        <v>0.0647407308927575</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0492481748594223</v>
+        <v>0.0492481748594224</v>
       </c>
       <c r="E192" t="n">
-        <v>0.0154925560333353</v>
+        <v>0.015492556033335</v>
       </c>
     </row>
     <row r="193">
@@ -13868,10 +13868,10 @@
         <v>0.23602652925476</v>
       </c>
       <c r="D193" t="n">
-        <v>0.141659343594361</v>
+        <v>0.14165934359436</v>
       </c>
       <c r="E193" t="n">
-        <v>0.094367185660399</v>
+        <v>0.0943671856603991</v>
       </c>
     </row>
     <row r="194">
@@ -13899,13 +13899,13 @@
         <v>23</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0464663688404623</v>
+        <v>0.0618697935637372</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0440520892674273</v>
+        <v>0.0440520892674266</v>
       </c>
       <c r="E195" t="n">
-        <v>0.00241427957303497</v>
+        <v>0.0178177042963106</v>
       </c>
     </row>
     <row r="196">
@@ -13916,13 +13916,13 @@
         <v>119</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0720919207469934</v>
+        <v>0.0720919207469931</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0521024844263702</v>
+        <v>0.0521024844263708</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0199894363206232</v>
+        <v>0.0199894363206223</v>
       </c>
     </row>
     <row r="197">
@@ -13950,13 +13950,13 @@
         <v>46</v>
       </c>
       <c r="C198" t="n">
-        <v>0.00577506047165768</v>
+        <v>0.0068766152903188</v>
       </c>
       <c r="D198" t="n">
-        <v>0.00332840130576181</v>
+        <v>0.00127638849819129</v>
       </c>
       <c r="E198" t="n">
-        <v>0.00244665916589587</v>
+        <v>0.00560022679212751</v>
       </c>
     </row>
     <row r="199">
@@ -13973,7 +13973,7 @@
         <v>0.108526811396853</v>
       </c>
       <c r="E199" t="n">
-        <v>0.014662645889384</v>
+        <v>0.0146626458893837</v>
       </c>
     </row>
     <row r="200">
@@ -13984,13 +13984,13 @@
         <v>317</v>
       </c>
       <c r="C200" t="n">
-        <v>0.07117267374251</v>
+        <v>0.0711726737425095</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0688800693285989</v>
+        <v>0.0688800693285993</v>
       </c>
       <c r="E200" t="n">
-        <v>0.00229260441391108</v>
+        <v>0.0022926044139102</v>
       </c>
     </row>
     <row r="201">
@@ -14001,13 +14001,13 @@
         <v>319</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0261856093826429</v>
+        <v>0.0261856093826428</v>
       </c>
       <c r="D201" t="n">
-        <v>0.0139957576482489</v>
+        <v>0.013995757648249</v>
       </c>
       <c r="E201" t="n">
-        <v>0.012189851734394</v>
+        <v>0.0121898517343938</v>
       </c>
     </row>
     <row r="202">
@@ -14103,13 +14103,13 @@
         <v>59</v>
       </c>
       <c r="C207" t="n">
-        <v>0.03030985538336</v>
+        <v>0.0303098553833608</v>
       </c>
       <c r="D207" t="n">
-        <v>0.0331413982516483</v>
+        <v>0.0331413982516482</v>
       </c>
       <c r="E207" t="n">
-        <v>-0.00283154286828826</v>
+        <v>-0.0028315428682874</v>
       </c>
     </row>
     <row r="208">
@@ -14143,7 +14143,7 @@
         <v>0.140526393185781</v>
       </c>
       <c r="E209" t="n">
-        <v>0.0528129599631638</v>
+        <v>0.0528129599631639</v>
       </c>
     </row>
     <row r="210">
@@ -14154,13 +14154,13 @@
         <v>330</v>
       </c>
       <c r="C210" t="n">
-        <v>0.00170776567186175</v>
+        <v>0.00170776567186171</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0016178135670842</v>
+        <v>0.00161781356708412</v>
       </c>
       <c r="E210" t="n">
-        <v>0.0000899521047775518</v>
+        <v>0.0000899521047775958</v>
       </c>
     </row>
     <row r="211">
@@ -14171,13 +14171,13 @@
         <v>332</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0380659442145003</v>
+        <v>0.0380659442145001</v>
       </c>
       <c r="D211" t="n">
         <v>0.0298050640171416</v>
       </c>
       <c r="E211" t="n">
-        <v>0.00826088019735873</v>
+        <v>0.00826088019735846</v>
       </c>
     </row>
     <row r="212">
@@ -14194,7 +14194,7 @@
         <v>0.156084020219701</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0222382901729304</v>
+        <v>0.0222382901729309</v>
       </c>
     </row>
     <row r="213">
@@ -14208,7 +14208,7 @@
         <v>0.172283702191118</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0589372362130741</v>
+        <v>0.0589372362130736</v>
       </c>
       <c r="E213" t="n">
         <v>0.113346465978044</v>
@@ -14313,7 +14313,7 @@
         <v>0.125380626232564</v>
       </c>
       <c r="E219" t="n">
-        <v>0.0418750863882386</v>
+        <v>0.0418750863882394</v>
       </c>
     </row>
     <row r="220">
@@ -14341,13 +14341,13 @@
         <v>152</v>
       </c>
       <c r="C221" t="n">
-        <v>0.149674622708782</v>
+        <v>0.144650055506949</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0972819936250374</v>
+        <v>0.0972819936250371</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0523926290837446</v>
+        <v>0.0473680618819122</v>
       </c>
     </row>
     <row r="222">
@@ -14364,7 +14364,7 @@
         <v>0.0444294032510148</v>
       </c>
       <c r="E222" t="n">
-        <v>0.0622027193210217</v>
+        <v>0.0622027193210219</v>
       </c>
     </row>
     <row r="223">
@@ -14375,13 +14375,13 @@
         <v>347</v>
       </c>
       <c r="C223" t="n">
-        <v>0.000699145507658034</v>
+        <v>0.000699145507658013</v>
       </c>
       <c r="D223" t="n">
-        <v>0.00119043923196306</v>
+        <v>0.00119043923196302</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.000491293724305028</v>
+        <v>-0.000491293724305005</v>
       </c>
     </row>
     <row r="224">
@@ -14392,13 +14392,13 @@
         <v>157</v>
       </c>
       <c r="C224" t="n">
-        <v>0.0518257226631292</v>
+        <v>0.0518257226631279</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0975961225436421</v>
+        <v>0.0975961225436419</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0457703998805129</v>
+        <v>-0.045770399880514</v>
       </c>
     </row>
     <row r="225">
@@ -14426,13 +14426,13 @@
         <v>59</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0959846124424953</v>
+        <v>0.0959846124424956</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0773196670010239</v>
+        <v>0.0773196670010236</v>
       </c>
       <c r="E226" t="n">
-        <v>0.0186649454414714</v>
+        <v>0.0186649454414721</v>
       </c>
     </row>
     <row r="227">
@@ -14443,13 +14443,13 @@
         <v>352</v>
       </c>
       <c r="C227" t="n">
-        <v>0.00722455859920331</v>
+        <v>0.00722455859920326</v>
       </c>
       <c r="D227" t="n">
-        <v>0.00455829400963215</v>
+        <v>0.00455829400963196</v>
       </c>
       <c r="E227" t="n">
-        <v>0.00266626458957117</v>
+        <v>0.0026662645895713</v>
       </c>
     </row>
     <row r="228">
@@ -14466,7 +14466,7 @@
         <v>0.0975056229934353</v>
       </c>
       <c r="E228" t="n">
-        <v>0.0743066283515214</v>
+        <v>0.0743066283515215</v>
       </c>
     </row>
     <row r="229">
@@ -14494,13 +14494,13 @@
         <v>356</v>
       </c>
       <c r="C230" t="n">
-        <v>0.117951134005952</v>
+        <v>0.117951134005954</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0232709610534288</v>
+        <v>0.0232709610534285</v>
       </c>
       <c r="E230" t="n">
-        <v>0.0946801729525236</v>
+        <v>0.0946801729525255</v>
       </c>
     </row>
     <row r="231">
@@ -14511,13 +14511,13 @@
         <v>10</v>
       </c>
       <c r="C231" t="n">
-        <v>0.0805461720896172</v>
+        <v>0.0805461720896168</v>
       </c>
       <c r="D231" t="n">
-        <v>0.0222973368378499</v>
+        <v>0.0222973368378501</v>
       </c>
       <c r="E231" t="n">
-        <v>0.0582488352517673</v>
+        <v>0.0582488352517667</v>
       </c>
     </row>
     <row r="232">
@@ -14545,13 +14545,13 @@
         <v>107</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1017508939866</v>
+        <v>0.110927312603881</v>
       </c>
       <c r="D233" t="n">
-        <v>0.0803069403172715</v>
+        <v>0.0803069403172716</v>
       </c>
       <c r="E233" t="n">
-        <v>0.0214439536693283</v>
+        <v>0.0306203722866091</v>
       </c>
     </row>
     <row r="234">
@@ -14568,7 +14568,7 @@
         <v>0.0892138124694642</v>
       </c>
       <c r="E234" t="n">
-        <v>0.0435693203126317</v>
+        <v>0.0435693203126318</v>
       </c>
     </row>
     <row r="235">
@@ -14664,13 +14664,13 @@
         <v>250</v>
       </c>
       <c r="C240" t="n">
-        <v>0.00000664756045541177</v>
+        <v>0.00000664756045541252</v>
       </c>
       <c r="D240" t="n">
-        <v>0.000741856541544755</v>
+        <v>0.00074185654154475</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.000735208981089343</v>
+        <v>-0.000735208981089337</v>
       </c>
     </row>
     <row r="241">
@@ -14701,10 +14701,10 @@
         <v>0.1746882969017</v>
       </c>
       <c r="D242" t="n">
-        <v>0.079839083367594</v>
+        <v>0.0764181777564027</v>
       </c>
       <c r="E242" t="n">
-        <v>0.094849213534106</v>
+        <v>0.0982701191452974</v>
       </c>
     </row>
     <row r="243">
@@ -14732,13 +14732,13 @@
         <v>133</v>
       </c>
       <c r="C244" t="n">
-        <v>0.00589851166971056</v>
+        <v>0.00662726577820351</v>
       </c>
       <c r="D244" t="n">
-        <v>0.00101710417491054</v>
+        <v>0.00101710417491053</v>
       </c>
       <c r="E244" t="n">
-        <v>0.00488140749480002</v>
+        <v>0.00561016160329298</v>
       </c>
     </row>
     <row r="245">
@@ -14752,10 +14752,10 @@
         <v>0.000253202143228032</v>
       </c>
       <c r="D245" t="n">
-        <v>0.00159338114378389</v>
+        <v>0.00270532583373047</v>
       </c>
       <c r="E245" t="n">
-        <v>-0.00134017900055586</v>
+        <v>-0.00245212369050244</v>
       </c>
     </row>
     <row r="246">
@@ -14766,13 +14766,13 @@
         <v>10</v>
       </c>
       <c r="C246" t="n">
-        <v>0.26032661741771</v>
+        <v>0.260326617417711</v>
       </c>
       <c r="D246" t="n">
         <v>0.184175126652948</v>
       </c>
       <c r="E246" t="n">
-        <v>0.0761514907647625</v>
+        <v>0.0761514907647632</v>
       </c>
     </row>
     <row r="247">
@@ -14783,13 +14783,13 @@
         <v>176</v>
       </c>
       <c r="C247" t="n">
-        <v>0.0150309139487502</v>
+        <v>0.01503091394875</v>
       </c>
       <c r="D247" t="n">
-        <v>0.0153620043986842</v>
+        <v>0.015362004398684</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.000331090449933994</v>
+        <v>-0.000331090449933975</v>
       </c>
     </row>
     <row r="248">
@@ -14800,13 +14800,13 @@
         <v>90</v>
       </c>
       <c r="C248" t="n">
-        <v>0.0403332471274208</v>
+        <v>0.0403332471274209</v>
       </c>
       <c r="D248" t="n">
-        <v>0.0123135456986707</v>
+        <v>0.0123135456986705</v>
       </c>
       <c r="E248" t="n">
-        <v>0.0280197014287501</v>
+        <v>0.0280197014287504</v>
       </c>
     </row>
     <row r="249">
@@ -14834,13 +14834,13 @@
         <v>319</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0017235355515318</v>
+        <v>0.0017235355515317</v>
       </c>
       <c r="D250" t="n">
-        <v>0.00387181413645883</v>
+        <v>0.00387181413645893</v>
       </c>
       <c r="E250" t="n">
-        <v>-0.00214827858492703</v>
+        <v>-0.00214827858492723</v>
       </c>
     </row>
     <row r="251">
@@ -14854,10 +14854,10 @@
         <v>0.0849089764304177</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0500833735887615</v>
+        <v>0.0510418693116669</v>
       </c>
       <c r="E251" t="n">
-        <v>0.0348256028416562</v>
+        <v>0.0338671071187508</v>
       </c>
     </row>
     <row r="252">
@@ -14868,13 +14868,13 @@
         <v>216</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0398197960043644</v>
+        <v>0.0398197960043635</v>
       </c>
       <c r="D252" t="n">
         <v>0.0254595173155024</v>
       </c>
       <c r="E252" t="n">
-        <v>0.0143602786888619</v>
+        <v>0.014360278688861</v>
       </c>
     </row>
     <row r="253">
@@ -14888,10 +14888,10 @@
         <v>0.177551770685699</v>
       </c>
       <c r="D253" t="n">
-        <v>0.144427388402827</v>
+        <v>0.13420930402024</v>
       </c>
       <c r="E253" t="n">
-        <v>0.0331243822828717</v>
+        <v>0.0433424666654593</v>
       </c>
     </row>
     <row r="254">
@@ -14956,10 +14956,10 @@
         <v>0.184254754364036</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0920418529396884</v>
+        <v>0.0920418529396885</v>
       </c>
       <c r="E257" t="n">
-        <v>0.0922129014243473</v>
+        <v>0.0922129014243476</v>
       </c>
     </row>
     <row r="258">
@@ -14990,7 +14990,7 @@
         <v>0.0572712047407019</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0287640412549825</v>
+        <v>0.0287640412549826</v>
       </c>
       <c r="E259" t="n">
         <v>0.0285071634857193</v>
@@ -15007,10 +15007,10 @@
         <v>0.12744883351403</v>
       </c>
       <c r="D260" t="n">
-        <v>0.081537564015521</v>
+        <v>0.0815375640155209</v>
       </c>
       <c r="E260" t="n">
-        <v>0.0459112694985094</v>
+        <v>0.0459112694985096</v>
       </c>
     </row>
     <row r="261">
@@ -15021,13 +15021,13 @@
         <v>394</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0110847403340458</v>
+        <v>0.011084740334046</v>
       </c>
       <c r="D261" t="n">
         <v>0.0184198821863816</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.00733514185233583</v>
+        <v>-0.00733514185233552</v>
       </c>
     </row>
     <row r="262">
@@ -15058,10 +15058,10 @@
         <v>0.0729433986652225</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0626451269284817</v>
+        <v>0.0626451269284815</v>
       </c>
       <c r="E263" t="n">
-        <v>0.0102982717367408</v>
+        <v>0.010298271736741</v>
       </c>
     </row>
   </sheetData>
@@ -15103,13 +15103,13 @@
         <v>38</v>
       </c>
       <c r="C2" t="n">
-        <v>0.151007662098939</v>
+        <v>0.143273076499405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0491476986753985</v>
+        <v>0.0560227119966896</v>
       </c>
       <c r="E2" t="n">
-        <v>0.10185996342354</v>
+        <v>0.0872503645027151</v>
       </c>
     </row>
     <row r="3">
@@ -15120,13 +15120,13 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.189643291904336</v>
+        <v>0.217420333566629</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00102114821367398</v>
+        <v>0.0000405946932044183</v>
       </c>
       <c r="E3" t="n">
-        <v>0.188622143690662</v>
+        <v>0.217379738873425</v>
       </c>
     </row>
     <row r="4">
@@ -15137,13 +15137,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0532327424066217</v>
+        <v>0.0777326782086779</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0129186204839894</v>
+        <v>0.015258980645556</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0403141219226323</v>
+        <v>0.0624736975631219</v>
       </c>
     </row>
     <row r="5">
@@ -15154,13 +15154,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00158776019009597</v>
+        <v>0.00054232218700548</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000590516105118887</v>
+        <v>0.000150532566961163</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000997244084977084</v>
+        <v>0.000391789620044317</v>
       </c>
     </row>
     <row r="6">
@@ -15171,13 +15171,13 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>0.100273506121506</v>
+        <v>0.123624080344906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0037649561385989</v>
+        <v>0.0204010286430747</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0965085499829068</v>
+        <v>0.103223051701832</v>
       </c>
     </row>
     <row r="7">
@@ -15188,13 +15188,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>0.184445741637356</v>
+        <v>0.187461262131985</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0551862323510254</v>
+        <v>0.0509747484040261</v>
       </c>
       <c r="E7" t="n">
-        <v>0.12925950928633</v>
+        <v>0.136486513727959</v>
       </c>
     </row>
     <row r="8">
@@ -15205,13 +15205,13 @@
         <v>42</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208629801871618</v>
+        <v>0.20811517932419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00000154479877902599</v>
+        <v>0.000230858436628927</v>
       </c>
       <c r="E8" t="n">
-        <v>0.208628257072839</v>
+        <v>0.207884320887561</v>
       </c>
     </row>
     <row r="9">
@@ -15222,13 +15222,13 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.164888465215382</v>
+        <v>0.173762656882276</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0333729050742757</v>
+        <v>0.0341515931645469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.131515560141107</v>
+        <v>0.139611063717729</v>
       </c>
     </row>
     <row r="10">
@@ -15239,13 +15239,13 @@
         <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0265593307862453</v>
+        <v>0.0324911639700778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0026985908825656</v>
+        <v>0.000679229613480135</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0238607399036797</v>
+        <v>0.0318119343565977</v>
       </c>
     </row>
     <row r="11">
@@ -15256,13 +15256,13 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0622190501178243</v>
+        <v>0.0927376047695255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0336281370016732</v>
+        <v>0.0449363059596989</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0285909131161511</v>
+        <v>0.0478012988098265</v>
       </c>
     </row>
     <row r="12">
@@ -15273,13 +15273,13 @@
         <v>95</v>
       </c>
       <c r="C12" t="n">
-        <v>0.308721093559712</v>
+        <v>0.319070848033303</v>
       </c>
       <c r="D12" t="n">
-        <v>0.274013151445235</v>
+        <v>0.265648296260642</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0347079421144764</v>
+        <v>0.0534225517726609</v>
       </c>
     </row>
     <row r="13">
@@ -15290,13 +15290,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.117590448933128</v>
+        <v>0.132876070163683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0348638837238099</v>
+        <v>0.0341193604823021</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0827265652093178</v>
+        <v>0.0987567096813808</v>
       </c>
     </row>
     <row r="14">
@@ -15307,13 +15307,13 @@
         <v>104</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0557561088641646</v>
+        <v>0.0588283845678212</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0468054554132081</v>
+        <v>0.0588381197549812</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00895065345095649</v>
+        <v>-0.00000973518716004124</v>
       </c>
     </row>
     <row r="15">
@@ -15324,13 +15324,13 @@
         <v>107</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0730395826371218</v>
+        <v>0.061481226181766</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00172460560960165</v>
+        <v>0.0139769559061542</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0713149770275201</v>
+        <v>0.0475042702756118</v>
       </c>
     </row>
     <row r="16">
@@ -15341,13 +15341,13 @@
         <v>400</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23322806671512</v>
+        <v>0.242453636054985</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21001513401715</v>
+        <v>0.218133639706511</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0232129326979698</v>
+        <v>0.024319996348474</v>
       </c>
     </row>
     <row r="17">
@@ -15358,13 +15358,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00169712267905913</v>
+        <v>0.0110319431303829</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0209724505597974</v>
+        <v>0.022676801947291</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0192753278807383</v>
+        <v>-0.0116448588169081</v>
       </c>
     </row>
     <row r="18">
@@ -15375,13 +15375,13 @@
         <v>130</v>
       </c>
       <c r="C18" t="n">
-        <v>0.126409486033226</v>
+        <v>0.120504686777756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00382110341231786</v>
+        <v>0.00431092552988272</v>
       </c>
       <c r="E18" t="n">
-        <v>0.122588382620908</v>
+        <v>0.116193761247873</v>
       </c>
     </row>
     <row r="19">
@@ -15392,13 +15392,13 @@
         <v>135</v>
       </c>
       <c r="C19" t="n">
-        <v>0.071323455250159</v>
+        <v>0.0633600154205283</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0187464815528241</v>
+        <v>0.0212812566149287</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0525769736973349</v>
+        <v>0.0420787588055996</v>
       </c>
     </row>
     <row r="20">
@@ -15409,13 +15409,13 @@
         <v>402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.299911729716722</v>
+        <v>0.303624587705799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.347033963696094</v>
+        <v>0.340104999225367</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.0471222339793727</v>
+        <v>-0.0364804115195679</v>
       </c>
     </row>
     <row r="21">
@@ -15426,13 +15426,13 @@
         <v>138</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122238889935806</v>
+        <v>0.11473039498197</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0157156447934377</v>
+        <v>0.0164533924344049</v>
       </c>
       <c r="E21" t="n">
-        <v>0.106523245142369</v>
+        <v>0.0982770025475655</v>
       </c>
     </row>
     <row r="22">
@@ -15443,13 +15443,13 @@
         <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25422841787716</v>
+        <v>0.24417461451224</v>
       </c>
       <c r="D22" t="n">
-        <v>0.286689393032379</v>
+        <v>0.279698830211283</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.0324609751552185</v>
+        <v>-0.0355242156990422</v>
       </c>
     </row>
     <row r="23">
@@ -15460,13 +15460,13 @@
         <v>157</v>
       </c>
       <c r="C23" t="n">
-        <v>0.304834079239787</v>
+        <v>0.297431126319745</v>
       </c>
       <c r="D23" t="n">
-        <v>0.232682938653549</v>
+        <v>0.221794755271928</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0721511405862385</v>
+        <v>0.0756363710478163</v>
       </c>
     </row>
     <row r="24">
@@ -15477,13 +15477,13 @@
         <v>44</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0124539652641088</v>
+        <v>0.00102696758306579</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00319801347067926</v>
+        <v>0.00471526176993351</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00925595179342957</v>
+        <v>-0.00368829418686772</v>
       </c>
     </row>
     <row r="25">
@@ -15494,13 +15494,13 @@
         <v>186</v>
       </c>
       <c r="C25" t="n">
-        <v>0.19160625985419</v>
+        <v>0.171352159705377</v>
       </c>
       <c r="D25" t="n">
-        <v>0.189307893819102</v>
+        <v>0.179524847553716</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0022983660350881</v>
+        <v>-0.0081726878483393</v>
       </c>
     </row>
     <row r="26">
@@ -15511,13 +15511,13 @@
         <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0675738987481533</v>
+        <v>0.0871985001847983</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0349385459578405</v>
+        <v>0.0355875729849758</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0326353527903128</v>
+        <v>0.0516109271998224</v>
       </c>
     </row>
     <row r="27">
@@ -15528,13 +15528,13 @@
         <v>191</v>
       </c>
       <c r="C27" t="n">
-        <v>0.227030424820106</v>
+        <v>0.314553700468898</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221077833999409</v>
+        <v>0.228570195079213</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00595259082069674</v>
+        <v>0.0859835053896853</v>
       </c>
     </row>
     <row r="28">
@@ -15545,13 +15545,13 @@
         <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0714103990231125</v>
+        <v>0.0579017889422357</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0000475714950204976</v>
+        <v>0.0000181537495444147</v>
       </c>
       <c r="E28" t="n">
-        <v>0.071362827528092</v>
+        <v>0.0578836351926913</v>
       </c>
     </row>
     <row r="29">
@@ -15562,13 +15562,13 @@
         <v>196</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00109673892958227</v>
+        <v>0.00169783848873554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0116971691959017</v>
+        <v>0.0134582508961801</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.0106004302663195</v>
+        <v>-0.0117604124074445</v>
       </c>
     </row>
     <row r="30">
@@ -15579,13 +15579,13 @@
         <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>0.113981493475352</v>
+        <v>0.220295711563988</v>
       </c>
       <c r="D30" t="n">
-        <v>0.104633724027353</v>
+        <v>0.0384142612225976</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00934776944799928</v>
+        <v>0.181881450341391</v>
       </c>
     </row>
     <row r="31">
@@ -15596,13 +15596,13 @@
         <v>205</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0121008409945034</v>
+        <v>0.0119795425701116</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0449414771310651</v>
+        <v>0.0645052640044547</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.0328406361365617</v>
+        <v>-0.0525257214343431</v>
       </c>
     </row>
     <row r="32">
@@ -15613,13 +15613,13 @@
         <v>406</v>
       </c>
       <c r="C32" t="n">
-        <v>0.198381298450446</v>
+        <v>0.201492726056775</v>
       </c>
       <c r="D32" t="n">
-        <v>0.338750449035495</v>
+        <v>0.33746699133372</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.140369150585049</v>
+        <v>-0.135974265276945</v>
       </c>
     </row>
     <row r="33">
@@ -15630,13 +15630,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00269825825792941</v>
+        <v>0.00103853137782959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.000688404361514764</v>
+        <v>0.00165926885593181</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00200985389641465</v>
+        <v>-0.000620737478102217</v>
       </c>
     </row>
     <row r="34">
@@ -15647,13 +15647,13 @@
         <v>408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.351974738729487</v>
+        <v>0.332083802381611</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125831718589234</v>
+        <v>0.128876655287154</v>
       </c>
       <c r="E34" t="n">
-        <v>0.226143020140253</v>
+        <v>0.203207147094457</v>
       </c>
     </row>
     <row r="35">
@@ -15664,13 +15664,13 @@
         <v>42</v>
       </c>
       <c r="C35" t="n">
-        <v>0.220895821497679</v>
+        <v>0.112857619557223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.198128484203404</v>
+        <v>0.209027203089007</v>
       </c>
       <c r="E35" t="n">
-        <v>0.022767337294275</v>
+        <v>-0.0961695835317841</v>
       </c>
     </row>
     <row r="36">
@@ -15681,13 +15681,13 @@
         <v>38</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0166259582499149</v>
+        <v>0.029445698461324</v>
       </c>
       <c r="D36" t="n">
-        <v>0.00344652799589119</v>
+        <v>0.00273668645134555</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0131794302540237</v>
+        <v>0.0267090120099784</v>
       </c>
     </row>
     <row r="37">
@@ -15698,13 +15698,13 @@
         <v>19</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0144736316519044</v>
+        <v>0.0236916107719889</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000819055537642083</v>
+        <v>0.00293883249692123</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0136545761142623</v>
+        <v>0.0207527782750677</v>
       </c>
     </row>
     <row r="38">
@@ -15715,13 +15715,13 @@
         <v>222</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0361922455883343</v>
+        <v>0.0341144545829612</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0177679883855768</v>
+        <v>0.0161966965919576</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0184242572027575</v>
+        <v>0.0179177579910036</v>
       </c>
     </row>
     <row r="39">
@@ -15732,13 +15732,13 @@
         <v>228</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0843802559757223</v>
+        <v>0.110713484064455</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0859290764617319</v>
+        <v>0.0819463389181923</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.00154882048600966</v>
+        <v>0.0287671451462626</v>
       </c>
     </row>
     <row r="40">
@@ -15749,13 +15749,13 @@
         <v>241</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0796334532371285</v>
+        <v>0.0758630966317289</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0425323727396041</v>
+        <v>0.0405243646642261</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0371010804975243</v>
+        <v>0.0353387319675028</v>
       </c>
     </row>
     <row r="41">
@@ -15766,13 +15766,13 @@
         <v>253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0389114965690623</v>
+        <v>0.0366564628706041</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0833647372729013</v>
+        <v>0.0968118789844934</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.044453240703839</v>
+        <v>-0.0601554161138893</v>
       </c>
     </row>
     <row r="42">
@@ -15783,13 +15783,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0360220183698467</v>
+        <v>0.0375622717689097</v>
       </c>
       <c r="D42" t="n">
-        <v>0.00192546525583011</v>
+        <v>0.000447450190527424</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0340965531140166</v>
+        <v>0.0371148215783823</v>
       </c>
     </row>
     <row r="43">
@@ -15800,13 +15800,13 @@
         <v>246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208391364762576</v>
+        <v>0.229433914907543</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0623860219560806</v>
+        <v>0.0577111696418314</v>
       </c>
       <c r="E43" t="n">
-        <v>0.146005342806495</v>
+        <v>0.171722745265711</v>
       </c>
     </row>
     <row r="44">
@@ -15817,13 +15817,13 @@
         <v>248</v>
       </c>
       <c r="C44" t="n">
-        <v>0.15263709726394</v>
+        <v>0.167608265132725</v>
       </c>
       <c r="D44" t="n">
-        <v>0.154046306600181</v>
+        <v>0.141912188074205</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.00140920933624064</v>
+        <v>0.0256960770585201</v>
       </c>
     </row>
     <row r="45">
@@ -15834,13 +15834,13 @@
         <v>325</v>
       </c>
       <c r="C45" t="n">
-        <v>0.158498584027689</v>
+        <v>0.14332665293325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0233889934273283</v>
+        <v>0.0251165144044621</v>
       </c>
       <c r="E45" t="n">
-        <v>0.13510959060036</v>
+        <v>0.118210138528788</v>
       </c>
     </row>
     <row r="46">
@@ -15851,13 +15851,13 @@
         <v>413</v>
       </c>
       <c r="C46" t="n">
-        <v>0.00822315828278813</v>
+        <v>0.00545141894679814</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00369050689206584</v>
+        <v>0.00219152159270853</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00453265139072229</v>
+        <v>0.00325989735408961</v>
       </c>
     </row>
     <row r="47">
@@ -15868,13 +15868,13 @@
         <v>176</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0276435929675367</v>
+        <v>0.0313210717575186</v>
       </c>
       <c r="D47" t="n">
-        <v>0.00244126407888077</v>
+        <v>0.00387274947077532</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0252023288886559</v>
+        <v>0.0274483222867433</v>
       </c>
     </row>
     <row r="48">
@@ -15885,13 +15885,13 @@
         <v>59</v>
       </c>
       <c r="C48" t="n">
-        <v>0.036715501745664</v>
+        <v>0.0274162345755218</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0506335182912603</v>
+        <v>0.0517021538122191</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.0139180165455963</v>
+        <v>-0.0242859192366973</v>
       </c>
     </row>
     <row r="49">
@@ -15902,13 +15902,13 @@
         <v>65</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0469631394860973</v>
+        <v>0.0375575297371739</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00566077352487677</v>
+        <v>0.00766583025433187</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0413023659612205</v>
+        <v>0.0298916994828421</v>
       </c>
     </row>
     <row r="50">
@@ -15919,13 +15919,13 @@
         <v>241</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237152399152178</v>
+        <v>0.253538991653617</v>
       </c>
       <c r="D50" t="n">
-        <v>0.185260744306649</v>
+        <v>0.196074547034866</v>
       </c>
       <c r="E50" t="n">
-        <v>0.051891654845529</v>
+        <v>0.0574644446187506</v>
       </c>
     </row>
     <row r="51">
@@ -15936,13 +15936,13 @@
         <v>12</v>
       </c>
       <c r="C51" t="n">
-        <v>0.194832093372567</v>
+        <v>0.211698602090006</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177730471160242</v>
+        <v>0.17977062210975</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0171016222123258</v>
+        <v>0.0319279799802561</v>
       </c>
     </row>
     <row r="52">
@@ -15953,13 +15953,13 @@
         <v>294</v>
       </c>
       <c r="C52" t="n">
-        <v>0.020424646502915</v>
+        <v>0.0193835731979288</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0418688867047317</v>
+        <v>0.0421207844163888</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.0214442402018167</v>
+        <v>-0.02273721121846</v>
       </c>
     </row>
     <row r="53">
@@ -15970,13 +15970,13 @@
         <v>303</v>
       </c>
       <c r="C53" t="n">
-        <v>0.314033527208499</v>
+        <v>0.247970713094053</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0549447081318568</v>
+        <v>0.0848750687520772</v>
       </c>
       <c r="E53" t="n">
-        <v>0.259088819076642</v>
+        <v>0.163095644341975</v>
       </c>
     </row>
     <row r="54">
@@ -15987,13 +15987,13 @@
         <v>307</v>
       </c>
       <c r="C54" t="n">
-        <v>0.438601664198615</v>
+        <v>0.439744185745485</v>
       </c>
       <c r="D54" t="n">
-        <v>0.374918304098216</v>
+        <v>0.376432629355736</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0636833601003997</v>
+        <v>0.0633115563897488</v>
       </c>
     </row>
     <row r="55">
@@ -16004,13 +16004,13 @@
         <v>416</v>
       </c>
       <c r="C55" t="n">
-        <v>0.355578534535293</v>
+        <v>0.358808492564677</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230060398763551</v>
+        <v>0.216291473331173</v>
       </c>
       <c r="E55" t="n">
-        <v>0.125518135771741</v>
+        <v>0.142517019233504</v>
       </c>
     </row>
     <row r="56">
@@ -16021,13 +16021,13 @@
         <v>143</v>
       </c>
       <c r="C56" t="n">
-        <v>0.258934233856365</v>
+        <v>0.249279615867172</v>
       </c>
       <c r="D56" t="n">
-        <v>0.108700782423034</v>
+        <v>0.117308960484554</v>
       </c>
       <c r="E56" t="n">
-        <v>0.150233451433331</v>
+        <v>0.131970655382619</v>
       </c>
     </row>
     <row r="57">
@@ -16038,13 +16038,13 @@
         <v>46</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0000486952748483592</v>
+        <v>0.000219545165685127</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0265203847628933</v>
+        <v>0.0273314675275432</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.0264716894880449</v>
+        <v>-0.0271119223618581</v>
       </c>
     </row>
     <row r="58">
@@ -16055,13 +16055,13 @@
         <v>220</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0895745798585219</v>
+        <v>0.0944217230398559</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0846210970591314</v>
+        <v>0.0854289813895731</v>
       </c>
       <c r="E58" t="n">
-        <v>0.00495348279939055</v>
+        <v>0.00899274165028277</v>
       </c>
     </row>
     <row r="59">
@@ -16072,13 +16072,13 @@
         <v>319</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0915393088413818</v>
+        <v>0.104896303148182</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0786061163645866</v>
+        <v>0.0370418900172788</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0129331924767952</v>
+        <v>0.0678544131309028</v>
       </c>
     </row>
     <row r="60">
@@ -16089,13 +16089,13 @@
         <v>279</v>
       </c>
       <c r="C60" t="n">
-        <v>0.122924680753406</v>
+        <v>0.124681932574793</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0950099335890832</v>
+        <v>0.0918443027695123</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0279147471643226</v>
+        <v>0.0328376298052803</v>
       </c>
     </row>
     <row r="61">
@@ -16106,13 +16106,13 @@
         <v>59</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230781652643387</v>
+        <v>0.204159456462457</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0806569045230886</v>
+        <v>0.0888063151937771</v>
       </c>
       <c r="E61" t="n">
-        <v>0.150124748120298</v>
+        <v>0.11535314126868</v>
       </c>
     </row>
     <row r="62">
@@ -16123,13 +16123,13 @@
         <v>330</v>
       </c>
       <c r="C62" t="n">
-        <v>0.432658832340357</v>
+        <v>0.440290653938274</v>
       </c>
       <c r="D62" t="n">
-        <v>0.393316887285049</v>
+        <v>0.389241227660081</v>
       </c>
       <c r="E62" t="n">
-        <v>0.039341945055308</v>
+        <v>0.0510494262781924</v>
       </c>
     </row>
     <row r="63">
@@ -16140,13 +16140,13 @@
         <v>334</v>
       </c>
       <c r="C63" t="n">
-        <v>0.478600221179352</v>
+        <v>0.48634615972734</v>
       </c>
       <c r="D63" t="n">
-        <v>0.467846317857872</v>
+        <v>0.465420766088765</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01075390332148</v>
+        <v>0.0209253936385748</v>
       </c>
     </row>
     <row r="64">
@@ -16157,13 +16157,13 @@
         <v>102</v>
       </c>
       <c r="C64" t="n">
-        <v>0.30651281293239</v>
+        <v>0.282524150393308</v>
       </c>
       <c r="D64" t="n">
-        <v>0.117027409050252</v>
+        <v>0.125560461881124</v>
       </c>
       <c r="E64" t="n">
-        <v>0.189485403882138</v>
+        <v>0.156963688512185</v>
       </c>
     </row>
     <row r="65">
@@ -16174,13 +16174,13 @@
         <v>157</v>
       </c>
       <c r="C65" t="n">
-        <v>0.228917850182548</v>
+        <v>0.183751637830157</v>
       </c>
       <c r="D65" t="n">
-        <v>0.147105089981092</v>
+        <v>0.14336301982458</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0818127602014562</v>
+        <v>0.0403886180055762</v>
       </c>
     </row>
     <row r="66">
@@ -16191,13 +16191,13 @@
         <v>46</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0086558454545546</v>
+        <v>0.00454722178773648</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0245601585328617</v>
+        <v>0.0218486890117907</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.0159043130783071</v>
+        <v>-0.0173014672240542</v>
       </c>
     </row>
     <row r="67">
@@ -16208,13 +16208,13 @@
         <v>352</v>
       </c>
       <c r="C67" t="n">
-        <v>0.202225449453961</v>
+        <v>0.202734757410825</v>
       </c>
       <c r="D67" t="n">
-        <v>0.111157311904322</v>
+        <v>0.108589816281109</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0910681375496388</v>
+        <v>0.0941449411297161</v>
       </c>
     </row>
     <row r="68">
@@ -16225,13 +16225,13 @@
         <v>279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.311259041469759</v>
+        <v>0.327126055621637</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0112538769508639</v>
+        <v>0.00885516955827593</v>
       </c>
       <c r="E68" t="n">
-        <v>0.300005164518895</v>
+        <v>0.318270886063361</v>
       </c>
     </row>
     <row r="69">
@@ -16242,13 +16242,13 @@
         <v>421</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0184374068342612</v>
+        <v>0.0160631124550017</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0248638100948183</v>
+        <v>0.0197919984014501</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.00642640326055708</v>
+        <v>-0.00372888594644837</v>
       </c>
     </row>
     <row r="70">
@@ -16259,13 +16259,13 @@
         <v>241</v>
       </c>
       <c r="C70" t="n">
-        <v>0.00259771641422612</v>
+        <v>0.00207438196310289</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00676165728161307</v>
+        <v>0.00894942114793295</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.00416394086738695</v>
+        <v>-0.00687503918483007</v>
       </c>
     </row>
     <row r="71">
@@ -16276,13 +16276,13 @@
         <v>44</v>
       </c>
       <c r="C71" t="n">
-        <v>0.011347418286178</v>
+        <v>0.0113552230646555</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0857402439550315</v>
+        <v>0.0786014982884245</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0743928256688534</v>
+        <v>-0.0672462752237689</v>
       </c>
     </row>
     <row r="72">
@@ -16293,13 +16293,13 @@
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>0.490748029829598</v>
+        <v>0.489024448908358</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0242153708797429</v>
+        <v>0.0296377455013581</v>
       </c>
       <c r="E72" t="n">
-        <v>0.466532658949856</v>
+        <v>0.459386703407</v>
       </c>
     </row>
     <row r="73">
@@ -16310,13 +16310,13 @@
         <v>373</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0067313763442913</v>
+        <v>0.000690907021026168</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0000372989577465793</v>
+        <v>0.0000809467312123285</v>
       </c>
       <c r="E73" t="n">
-        <v>0.00669407738654472</v>
+        <v>0.00060996028981384</v>
       </c>
     </row>
     <row r="74">
@@ -16327,13 +16327,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0309218568866285</v>
+        <v>0.0190599748876824</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0245834133869718</v>
+        <v>0.00873323606090093</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00633844349965677</v>
+        <v>0.0103267388267814</v>
       </c>
     </row>
     <row r="75">
@@ -16344,13 +16344,13 @@
         <v>239</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000577860244428298</v>
+        <v>0.00256792334863261</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0106765734052069</v>
+        <v>0.0124547857809648</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.0100987131607786</v>
+        <v>-0.00988686243233219</v>
       </c>
     </row>
   </sheetData>
@@ -16545,13 +16545,13 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>0.061113173925837</v>
+        <v>0.0859023440217067</v>
       </c>
       <c r="D11" t="n">
         <v>0.0517343158188459</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00937885810699112</v>
+        <v>0.0341680282028608</v>
       </c>
     </row>
     <row r="12">
@@ -16647,13 +16647,13 @@
         <v>17</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0362480999591715</v>
+        <v>0.073234504531154</v>
       </c>
       <c r="D17" t="n">
         <v>0.0165187098732089</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0197293900859626</v>
+        <v>0.0567157946579451</v>
       </c>
     </row>
     <row r="18">
@@ -16664,13 +16664,13 @@
         <v>130</v>
       </c>
       <c r="C18" t="n">
-        <v>0.112771276199186</v>
+        <v>0.111978045918663</v>
       </c>
       <c r="D18" t="n">
         <v>0.0057282029570428</v>
       </c>
       <c r="E18" t="n">
-        <v>0.107043073242143</v>
+        <v>0.10624984296162</v>
       </c>
     </row>
     <row r="19">
@@ -16735,10 +16735,10 @@
         <v>0.319545348653343</v>
       </c>
       <c r="D22" t="n">
-        <v>0.296787313708548</v>
+        <v>0.318719696252583</v>
       </c>
       <c r="E22" t="n">
-        <v>0.022758034944795</v>
+        <v>0.000825652400760324</v>
       </c>
     </row>
     <row r="23">
@@ -16905,10 +16905,10 @@
         <v>0.170966527074421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.31744790845304</v>
+        <v>0.336877874067479</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.146481381378619</v>
+        <v>-0.165911346993058</v>
       </c>
     </row>
     <row r="33">
@@ -16936,13 +16936,13 @@
         <v>408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.238687431019914</v>
+        <v>0.281137702741661</v>
       </c>
       <c r="D34" t="n">
         <v>0.172205783827862</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0664816471920517</v>
+        <v>0.108931918913799</v>
       </c>
     </row>
     <row r="35">
@@ -17041,10 +17041,10 @@
         <v>0.130180865204761</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0464722439414302</v>
+        <v>0.0499467868085551</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0837086212633313</v>
+        <v>0.0802340783962064</v>
       </c>
     </row>
     <row r="41">
@@ -17109,10 +17109,10 @@
         <v>0.100532109966957</v>
       </c>
       <c r="D44" t="n">
-        <v>0.110934110995264</v>
+        <v>0.134045554822803</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.0104020010283068</v>
+        <v>-0.0335134448558459</v>
       </c>
     </row>
     <row r="45">
@@ -17194,10 +17194,10 @@
         <v>0.0622888698832613</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00167454750194478</v>
+        <v>0.0112869819369925</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0606143223813165</v>
+        <v>0.0510018879462688</v>
       </c>
     </row>
     <row r="50">
@@ -17245,10 +17245,10 @@
         <v>0.000554593604723385</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0606902920449704</v>
+        <v>0.0631590322422988</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.060135698440247</v>
+        <v>-0.0626044386375754</v>
       </c>
     </row>
     <row r="53">
@@ -17279,10 +17279,10 @@
         <v>0.375338774525088</v>
       </c>
       <c r="D54" t="n">
-        <v>0.438370858955689</v>
+        <v>0.437280599064823</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.0630320844306007</v>
+        <v>-0.0619418245397342</v>
       </c>
     </row>
     <row r="55">
@@ -17378,13 +17378,13 @@
         <v>279</v>
       </c>
       <c r="C60" t="n">
-        <v>0.176381862146835</v>
+        <v>0.197236359458878</v>
       </c>
       <c r="D60" t="n">
         <v>0.106069409670035</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0703124524767997</v>
+        <v>0.0911669497888427</v>
       </c>
     </row>
     <row r="61">
@@ -17500,10 +17500,10 @@
         <v>0.18751212875554</v>
       </c>
       <c r="D67" t="n">
-        <v>0.139844115566212</v>
+        <v>0.130140349909356</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0476680131893273</v>
+        <v>0.0573717788461833</v>
       </c>
     </row>
     <row r="68">
@@ -17534,10 +17534,10 @@
         <v>0.00337207387566873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0101244682332165</v>
+        <v>0.00912598550037844</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.00675239435754772</v>
+        <v>-0.00575391162470971</v>
       </c>
     </row>
     <row r="70">
@@ -17817,13 +17817,13 @@
         <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0432444196248429</v>
+        <v>0.0535660144497248</v>
       </c>
       <c r="D10" t="n">
         <v>0.024301666659655</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0189427529651879</v>
+        <v>0.0292643477900698</v>
       </c>
     </row>
     <row r="11">
@@ -17987,13 +17987,13 @@
         <v>402</v>
       </c>
       <c r="C20" t="n">
-        <v>0.215508442420084</v>
+        <v>0.240683103718061</v>
       </c>
       <c r="D20" t="n">
         <v>0.353909079055099</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.138400636635015</v>
+        <v>-0.113225975337038</v>
       </c>
     </row>
     <row r="21">
@@ -18041,10 +18041,10 @@
         <v>0.193627466972741</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218164007817576</v>
+        <v>0.204403105352641</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0245365408448344</v>
+        <v>-0.0107756383798998</v>
       </c>
     </row>
     <row r="24">
@@ -18058,10 +18058,10 @@
         <v>0.00403846979611616</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00345262365926633</v>
+        <v>0.000703086382143415</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000585846136849831</v>
+        <v>0.00333538341397275</v>
       </c>
     </row>
     <row r="25">
@@ -18140,13 +18140,13 @@
         <v>196</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00203015883291367</v>
+        <v>0.00000217851260672706</v>
       </c>
       <c r="D29" t="n">
         <v>0.00120559472753157</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000824564105382105</v>
+        <v>-0.00120341621492484</v>
       </c>
     </row>
     <row r="30">
@@ -18194,10 +18194,10 @@
         <v>0.196630410610635</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295650106620188</v>
+        <v>0.310138199714691</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.0990196960095528</v>
+        <v>-0.113507789104056</v>
       </c>
     </row>
     <row r="33">
@@ -18211,10 +18211,10 @@
         <v>0.000225281021402662</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0113909787716666</v>
+        <v>0.0135017060067421</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.0111656977502639</v>
+        <v>-0.0132764249853395</v>
       </c>
     </row>
     <row r="34">
@@ -18293,13 +18293,13 @@
         <v>222</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00136882395472881</v>
+        <v>0.00212233078748002</v>
       </c>
       <c r="D38" t="n">
         <v>0.0185625521320875</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.0171937281773587</v>
+        <v>-0.0164402213446075</v>
       </c>
     </row>
     <row r="39">
@@ -18344,13 +18344,13 @@
         <v>253</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0371735058863423</v>
+        <v>0.0478509766170478</v>
       </c>
       <c r="D41" t="n">
         <v>0.0448825971054157</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.00770909121907337</v>
+        <v>0.00296837951163218</v>
       </c>
     </row>
     <row r="42">
@@ -18361,13 +18361,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0433899696191314</v>
+        <v>0.0281636106684082</v>
       </c>
       <c r="D42" t="n">
         <v>0.00107134360305495</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0423186260160765</v>
+        <v>0.0270922670653532</v>
       </c>
     </row>
     <row r="43">
@@ -18432,10 +18432,10 @@
         <v>0.00593019125041897</v>
       </c>
       <c r="D46" t="n">
-        <v>0.000250313565198014</v>
+        <v>0.0000745352960829626</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00567987768522095</v>
+        <v>0.00585565595433601</v>
       </c>
     </row>
     <row r="47">
@@ -18517,10 +18517,10 @@
         <v>0.19247915266192</v>
       </c>
       <c r="D51" t="n">
-        <v>0.171896710444776</v>
+        <v>0.187036889790009</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0205824422171443</v>
+        <v>0.0054422628719116</v>
       </c>
     </row>
     <row r="52">
@@ -18534,10 +18534,10 @@
         <v>0.0514900108375282</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0161800333410298</v>
+        <v>0.0277460211195734</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0353099774964984</v>
+        <v>0.0237439897179547</v>
       </c>
     </row>
     <row r="53">
@@ -18602,10 +18602,10 @@
         <v>0.127545743518428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0351811526685177</v>
+        <v>0.0459245422585204</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0923645908499098</v>
+        <v>0.0816212012599071</v>
       </c>
     </row>
     <row r="57">
@@ -18721,10 +18721,10 @@
         <v>0.298336217267602</v>
       </c>
       <c r="D63" t="n">
-        <v>0.343044385611047</v>
+        <v>0.329058543124446</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0447081683434453</v>
+        <v>-0.0307223258568444</v>
       </c>
     </row>
     <row r="64">
@@ -18769,13 +18769,13 @@
         <v>46</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0522446945509352</v>
+        <v>0.0353883035391222</v>
       </c>
       <c r="D66" t="n">
         <v>0.000182498317482122</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0520621962334531</v>
+        <v>0.0352058052216401</v>
       </c>
     </row>
     <row r="67">
@@ -18840,10 +18840,10 @@
         <v>0.00590948037573813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.00210077302710874</v>
+        <v>0.00172720273662524</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00380870734862939</v>
+        <v>0.00418227763911289</v>
       </c>
     </row>
     <row r="71">
@@ -18871,13 +18871,13 @@
         <v>8</v>
       </c>
       <c r="C72" t="n">
-        <v>0.476061198346093</v>
+        <v>0.49067867764331</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0422832074040645</v>
+        <v>0.0594538290660288</v>
       </c>
       <c r="E72" t="n">
-        <v>0.433777990942028</v>
+        <v>0.431224848577281</v>
       </c>
     </row>
     <row r="73">
@@ -18905,13 +18905,13 @@
         <v>70</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0521246389236816</v>
+        <v>0.0751367378474452</v>
       </c>
       <c r="D74" t="n">
         <v>0.000394740473347867</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0517298984503338</v>
+        <v>0.0747419973740973</v>
       </c>
     </row>
     <row r="75">
